--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,97 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64793700</v>
+        <v>39787000</v>
       </c>
       <c r="E8" s="3">
-        <v>33382900</v>
+        <v>63204100</v>
       </c>
       <c r="F8" s="3">
-        <v>57816400</v>
+        <v>32563900</v>
       </c>
       <c r="G8" s="3">
-        <v>35620300</v>
+        <v>56398000</v>
       </c>
       <c r="H8" s="3">
-        <v>57083800</v>
+        <v>34746500</v>
       </c>
       <c r="I8" s="3">
-        <v>29374800</v>
+        <v>55683400</v>
       </c>
       <c r="J8" s="3">
+        <v>28654200</v>
+      </c>
+      <c r="K8" s="3">
         <v>48597500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26181800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49176400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +789,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,8 +827,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,43 +919,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>483000</v>
+        <v>422800</v>
       </c>
       <c r="E14" s="3">
-        <v>995300</v>
+        <v>471100</v>
       </c>
       <c r="F14" s="3">
-        <v>181900</v>
+        <v>970900</v>
       </c>
       <c r="G14" s="3">
-        <v>153500</v>
+        <v>177500</v>
       </c>
       <c r="H14" s="3">
-        <v>242100</v>
+        <v>149800</v>
       </c>
       <c r="I14" s="3">
-        <v>242100</v>
+        <v>236100</v>
       </c>
       <c r="J14" s="3">
+        <v>236100</v>
+      </c>
+      <c r="K14" s="3">
         <v>139000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,8 +995,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59749200</v>
+        <v>36864500</v>
       </c>
       <c r="E17" s="3">
-        <v>34695300</v>
+        <v>58283400</v>
       </c>
       <c r="F17" s="3">
-        <v>55027300</v>
+        <v>33844100</v>
       </c>
       <c r="G17" s="3">
-        <v>32125500</v>
+        <v>53677300</v>
       </c>
       <c r="H17" s="3">
-        <v>54964500</v>
+        <v>31337300</v>
       </c>
       <c r="I17" s="3">
-        <v>28108300</v>
+        <v>53616000</v>
       </c>
       <c r="J17" s="3">
+        <v>27418700</v>
+      </c>
+      <c r="K17" s="3">
         <v>46599300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25162000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43031300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5044500</v>
+        <v>2922500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1312400</v>
+        <v>4920700</v>
       </c>
       <c r="F18" s="3">
-        <v>2789100</v>
+        <v>-1280200</v>
       </c>
       <c r="G18" s="3">
-        <v>3494900</v>
+        <v>2720700</v>
       </c>
       <c r="H18" s="3">
-        <v>2119300</v>
+        <v>3409100</v>
       </c>
       <c r="I18" s="3">
-        <v>1266500</v>
+        <v>2067300</v>
       </c>
       <c r="J18" s="3">
+        <v>1235400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1998200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1019700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6145100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,78 +1102,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>535900</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>232600</v>
+        <v>522800</v>
       </c>
       <c r="F20" s="3">
-        <v>288100</v>
+        <v>226900</v>
       </c>
       <c r="G20" s="3">
-        <v>198600</v>
+        <v>281000</v>
       </c>
       <c r="H20" s="3">
-        <v>166100</v>
+        <v>193700</v>
       </c>
       <c r="I20" s="3">
-        <v>256400</v>
+        <v>162100</v>
       </c>
       <c r="J20" s="3">
+        <v>250100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-323200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5871600</v>
+        <v>2970100</v>
       </c>
       <c r="E21" s="3">
-        <v>-1063500</v>
+        <v>5727600</v>
       </c>
       <c r="F21" s="3">
-        <v>3258300</v>
+        <v>-1037400</v>
       </c>
       <c r="G21" s="3">
-        <v>3701500</v>
+        <v>3178400</v>
       </c>
       <c r="H21" s="3">
-        <v>2442200</v>
+        <v>3610700</v>
       </c>
       <c r="I21" s="3">
-        <v>1524500</v>
+        <v>2382300</v>
       </c>
       <c r="J21" s="3">
+        <v>1487100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2046600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>694400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6272300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,78 +1214,87 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5580400</v>
+        <v>2925400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1079800</v>
+        <v>5443500</v>
       </c>
       <c r="F23" s="3">
-        <v>3077200</v>
+        <v>-1053300</v>
       </c>
       <c r="G23" s="3">
-        <v>3693500</v>
+        <v>3001700</v>
       </c>
       <c r="H23" s="3">
-        <v>2285500</v>
+        <v>3602900</v>
       </c>
       <c r="I23" s="3">
-        <v>1522900</v>
+        <v>2229400</v>
       </c>
       <c r="J23" s="3">
+        <v>1485500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1898000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>696500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6120100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>138300</v>
+        <v>-25600</v>
       </c>
       <c r="E24" s="3">
-        <v>-395900</v>
+        <v>134900</v>
       </c>
       <c r="F24" s="3">
-        <v>680700</v>
+        <v>-386100</v>
       </c>
       <c r="G24" s="3">
-        <v>786600</v>
+        <v>664000</v>
       </c>
       <c r="H24" s="3">
-        <v>493100</v>
+        <v>767300</v>
       </c>
       <c r="I24" s="3">
-        <v>240500</v>
+        <v>481000</v>
       </c>
       <c r="J24" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K24" s="3">
         <v>370300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>184000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1410500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5442100</v>
+        <v>2951100</v>
       </c>
       <c r="E26" s="3">
-        <v>-684000</v>
+        <v>5308500</v>
       </c>
       <c r="F26" s="3">
-        <v>2396500</v>
+        <v>-667200</v>
       </c>
       <c r="G26" s="3">
-        <v>2906900</v>
+        <v>2337800</v>
       </c>
       <c r="H26" s="3">
-        <v>1792400</v>
+        <v>2835600</v>
       </c>
       <c r="I26" s="3">
-        <v>1282400</v>
+        <v>1748400</v>
       </c>
       <c r="J26" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1527600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>512500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4709600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5394700</v>
+        <v>2895500</v>
       </c>
       <c r="E27" s="3">
-        <v>-721400</v>
+        <v>5262400</v>
       </c>
       <c r="F27" s="3">
-        <v>2356400</v>
+        <v>-703700</v>
       </c>
       <c r="G27" s="3">
-        <v>2871200</v>
+        <v>2298600</v>
       </c>
       <c r="H27" s="3">
-        <v>1756500</v>
+        <v>2800700</v>
       </c>
       <c r="I27" s="3">
-        <v>1252900</v>
+        <v>1713400</v>
       </c>
       <c r="J27" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1491500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>476400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4673300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,8 +1442,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,8 +1480,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-535900</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-232600</v>
+        <v>-522800</v>
       </c>
       <c r="F32" s="3">
-        <v>-288100</v>
+        <v>-226900</v>
       </c>
       <c r="G32" s="3">
-        <v>-198600</v>
+        <v>-281000</v>
       </c>
       <c r="H32" s="3">
-        <v>-166100</v>
+        <v>-193700</v>
       </c>
       <c r="I32" s="3">
-        <v>-256400</v>
+        <v>-162100</v>
       </c>
       <c r="J32" s="3">
+        <v>-250100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>323200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5394700</v>
+        <v>2895500</v>
       </c>
       <c r="E33" s="3">
-        <v>-721400</v>
+        <v>5262400</v>
       </c>
       <c r="F33" s="3">
-        <v>2356400</v>
+        <v>-703700</v>
       </c>
       <c r="G33" s="3">
-        <v>2871200</v>
+        <v>2298600</v>
       </c>
       <c r="H33" s="3">
-        <v>1756500</v>
+        <v>2800700</v>
       </c>
       <c r="I33" s="3">
-        <v>1252900</v>
+        <v>1713400</v>
       </c>
       <c r="J33" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1491500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>476400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4673300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5394700</v>
+        <v>2895500</v>
       </c>
       <c r="E35" s="3">
-        <v>-721400</v>
+        <v>5262400</v>
       </c>
       <c r="F35" s="3">
-        <v>2356400</v>
+        <v>-703700</v>
       </c>
       <c r="G35" s="3">
-        <v>2871200</v>
+        <v>2298600</v>
       </c>
       <c r="H35" s="3">
-        <v>1756500</v>
+        <v>2800700</v>
       </c>
       <c r="I35" s="3">
-        <v>1252900</v>
+        <v>1713400</v>
       </c>
       <c r="J35" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1491500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>476400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4673300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,43 +1785,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8042900</v>
+        <v>7389900</v>
       </c>
       <c r="E41" s="3">
-        <v>7287600</v>
+        <v>7845600</v>
       </c>
       <c r="F41" s="3">
-        <v>8318000</v>
+        <v>7108800</v>
       </c>
       <c r="G41" s="3">
-        <v>6971100</v>
+        <v>8113900</v>
       </c>
       <c r="H41" s="3">
-        <v>6678000</v>
+        <v>6800100</v>
       </c>
       <c r="I41" s="3">
-        <v>9234900</v>
+        <v>6514200</v>
       </c>
       <c r="J41" s="3">
+        <v>9008400</v>
+      </c>
+      <c r="K41" s="3">
         <v>10304600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11002400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10970200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1770,43 +1859,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5984600</v>
+        <v>2418600</v>
       </c>
       <c r="E43" s="3">
-        <v>2245200</v>
+        <v>5837700</v>
       </c>
       <c r="F43" s="3">
-        <v>5419100</v>
+        <v>2190100</v>
       </c>
       <c r="G43" s="3">
-        <v>2026100</v>
+        <v>5286100</v>
       </c>
       <c r="H43" s="3">
-        <v>4414400</v>
+        <v>1976400</v>
       </c>
       <c r="I43" s="3">
-        <v>1925600</v>
+        <v>4306100</v>
       </c>
       <c r="J43" s="3">
+        <v>1878400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3958900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1768000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1840,8 +1935,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1973,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1910,78 +2011,87 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>463719800</v>
+        <v>490063200</v>
       </c>
       <c r="E47" s="3">
-        <v>435769100</v>
+        <v>452343300</v>
       </c>
       <c r="F47" s="3">
-        <v>403423300</v>
+        <v>425078400</v>
       </c>
       <c r="G47" s="3">
-        <v>386698800</v>
+        <v>393526100</v>
       </c>
       <c r="H47" s="3">
-        <v>382368300</v>
+        <v>377211900</v>
       </c>
       <c r="I47" s="3">
-        <v>358866600</v>
+        <v>372987700</v>
       </c>
       <c r="J47" s="3">
+        <v>350062500</v>
+      </c>
+      <c r="K47" s="3">
         <v>341344500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>334383900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>323344700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8738400</v>
+        <v>9436000</v>
       </c>
       <c r="E48" s="3">
-        <v>8182400</v>
+        <v>8524000</v>
       </c>
       <c r="F48" s="3">
-        <v>7303600</v>
+        <v>7981600</v>
       </c>
       <c r="G48" s="3">
-        <v>6567200</v>
+        <v>7124400</v>
       </c>
       <c r="H48" s="3">
-        <v>5687700</v>
+        <v>6406100</v>
       </c>
       <c r="I48" s="3">
-        <v>4531100</v>
+        <v>5548200</v>
       </c>
       <c r="J48" s="3">
+        <v>4419900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4088500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4186800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3925400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2006,17 +2116,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,19 +2201,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8200</v>
+        <v>17900</v>
       </c>
       <c r="E52" s="3">
-        <v>180400</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>8000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>175900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -2111,8 +2230,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2120,8 +2239,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>499290300</v>
+        <v>521593700</v>
       </c>
       <c r="E54" s="3">
-        <v>466941700</v>
+        <v>487041200</v>
       </c>
       <c r="F54" s="3">
-        <v>436635200</v>
+        <v>455486200</v>
       </c>
       <c r="G54" s="3">
-        <v>415746400</v>
+        <v>425923200</v>
       </c>
       <c r="H54" s="3">
-        <v>412518200</v>
+        <v>405546800</v>
       </c>
       <c r="I54" s="3">
-        <v>386958500</v>
+        <v>402397900</v>
       </c>
       <c r="J54" s="3">
+        <v>377465300</v>
+      </c>
+      <c r="K54" s="3">
         <v>371476300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>363354400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>353149800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,8 +2349,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2255,8 +2385,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2290,43 +2423,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>416149000</v>
+        <v>433027600</v>
       </c>
       <c r="E59" s="3">
-        <v>399326600</v>
+        <v>405939600</v>
       </c>
       <c r="F59" s="3">
-        <v>369308300</v>
+        <v>389530000</v>
       </c>
       <c r="G59" s="3">
-        <v>350059200</v>
+        <v>360248100</v>
       </c>
       <c r="H59" s="3">
-        <v>348148500</v>
+        <v>341471200</v>
       </c>
       <c r="I59" s="3">
-        <v>321026900</v>
+        <v>339607300</v>
       </c>
       <c r="J59" s="3">
+        <v>313151100</v>
+      </c>
+      <c r="K59" s="3">
         <v>304183500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>293381600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285046800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2360,78 +2499,87 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8277200</v>
+        <v>8135300</v>
       </c>
       <c r="E61" s="3">
-        <v>2891100</v>
+        <v>8074200</v>
       </c>
       <c r="F61" s="3">
-        <v>2806000</v>
+        <v>2820200</v>
       </c>
       <c r="G61" s="3">
-        <v>2696600</v>
+        <v>2737200</v>
       </c>
       <c r="H61" s="3">
-        <v>3750100</v>
+        <v>2630400</v>
       </c>
       <c r="I61" s="3">
-        <v>7772000</v>
+        <v>3658100</v>
       </c>
       <c r="J61" s="3">
+        <v>7581400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10107900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10483200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10484000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1192600</v>
+        <v>1445800</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1163300</v>
       </c>
       <c r="F62" s="3">
-        <v>447800</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>698900</v>
+        <v>436800</v>
       </c>
       <c r="H62" s="3">
-        <v>1352400</v>
+        <v>681700</v>
       </c>
       <c r="I62" s="3">
-        <v>1114600</v>
+        <v>1319300</v>
       </c>
       <c r="J62" s="3">
+        <v>1087200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1649300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2516000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2839200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>446427400</v>
+        <v>465082900</v>
       </c>
       <c r="E66" s="3">
-        <v>421261900</v>
+        <v>435475200</v>
       </c>
       <c r="F66" s="3">
-        <v>390290000</v>
+        <v>410927000</v>
       </c>
       <c r="G66" s="3">
-        <v>369698900</v>
+        <v>380715000</v>
       </c>
       <c r="H66" s="3">
-        <v>368241000</v>
+        <v>360629100</v>
       </c>
       <c r="I66" s="3">
-        <v>343395000</v>
+        <v>359206900</v>
       </c>
       <c r="J66" s="3">
+        <v>334970500</v>
+      </c>
+      <c r="K66" s="3">
         <v>328009300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>315493400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>307002100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47689600</v>
+        <v>51464400</v>
       </c>
       <c r="E72" s="3">
-        <v>40506600</v>
+        <v>46519600</v>
       </c>
       <c r="F72" s="3">
-        <v>41171900</v>
+        <v>39512800</v>
       </c>
       <c r="G72" s="3">
-        <v>40874200</v>
+        <v>40161800</v>
       </c>
       <c r="H72" s="3">
-        <v>39103900</v>
+        <v>39871400</v>
       </c>
       <c r="I72" s="3">
-        <v>38390200</v>
+        <v>38144600</v>
       </c>
       <c r="J72" s="3">
+        <v>37448400</v>
+      </c>
+      <c r="K72" s="3">
         <v>38293700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42510000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41952800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52862900</v>
+        <v>56510800</v>
       </c>
       <c r="E76" s="3">
-        <v>45679900</v>
+        <v>51566000</v>
       </c>
       <c r="F76" s="3">
-        <v>46345200</v>
+        <v>44559200</v>
       </c>
       <c r="G76" s="3">
-        <v>46047500</v>
+        <v>45208200</v>
       </c>
       <c r="H76" s="3">
-        <v>44277200</v>
+        <v>44917800</v>
       </c>
       <c r="I76" s="3">
-        <v>43563500</v>
+        <v>43191000</v>
       </c>
       <c r="J76" s="3">
+        <v>42494800</v>
+      </c>
+      <c r="K76" s="3">
         <v>43467000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47861000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46147600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5394700</v>
+        <v>2895500</v>
       </c>
       <c r="E81" s="3">
-        <v>-721400</v>
+        <v>5262400</v>
       </c>
       <c r="F81" s="3">
-        <v>2356400</v>
+        <v>-703700</v>
       </c>
       <c r="G81" s="3">
-        <v>2871200</v>
+        <v>2298600</v>
       </c>
       <c r="H81" s="3">
-        <v>1756500</v>
+        <v>2800700</v>
       </c>
       <c r="I81" s="3">
-        <v>1252900</v>
+        <v>1713400</v>
       </c>
       <c r="J81" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1491500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>476400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4673300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,8 +3222,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3060,8 +3258,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21563600</v>
+        <v>18998500</v>
       </c>
       <c r="E89" s="3">
-        <v>14833000</v>
+        <v>21034600</v>
       </c>
       <c r="F89" s="3">
-        <v>6337800</v>
+        <v>14469100</v>
       </c>
       <c r="G89" s="3">
-        <v>8335900</v>
+        <v>6182300</v>
       </c>
       <c r="H89" s="3">
-        <v>20502100</v>
+        <v>8131400</v>
       </c>
       <c r="I89" s="3">
-        <v>14674800</v>
+        <v>19999200</v>
       </c>
       <c r="J89" s="3">
+        <v>14314800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1891100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6494300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3702500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,8 +3504,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3320,8 +3540,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10891300</v>
+        <v>-24018100</v>
       </c>
       <c r="E94" s="3">
-        <v>-28424000</v>
+        <v>-10624100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5777800</v>
+        <v>-27726600</v>
       </c>
       <c r="G94" s="3">
-        <v>3273900</v>
+        <v>-5636000</v>
       </c>
       <c r="H94" s="3">
-        <v>-28193000</v>
+        <v>3193600</v>
       </c>
       <c r="I94" s="3">
-        <v>-16316700</v>
+        <v>-27501300</v>
       </c>
       <c r="J94" s="3">
+        <v>-15916400</v>
+      </c>
+      <c r="K94" s="3">
         <v>1293900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7794600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2155800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,43 +3672,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-506100</v>
+        <v>-194400</v>
       </c>
       <c r="E96" s="3">
-        <v>-455100</v>
+        <v>-493600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1222200</v>
+        <v>-444000</v>
       </c>
       <c r="G96" s="3">
-        <v>-282900</v>
+        <v>-1192200</v>
       </c>
       <c r="H96" s="3">
-        <v>-744900</v>
+        <v>-276000</v>
       </c>
       <c r="I96" s="3">
-        <v>-476600</v>
+        <v>-726700</v>
       </c>
       <c r="J96" s="3">
+        <v>-464900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1282000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-469100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1236300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,109 +3822,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9747600</v>
+        <v>4459400</v>
       </c>
       <c r="E100" s="3">
-        <v>12554600</v>
+        <v>-9508500</v>
       </c>
       <c r="F100" s="3">
-        <v>783700</v>
+        <v>12246600</v>
       </c>
       <c r="G100" s="3">
-        <v>-11491500</v>
+        <v>764500</v>
       </c>
       <c r="H100" s="3">
-        <v>4949500</v>
+        <v>-11209500</v>
       </c>
       <c r="I100" s="3">
-        <v>883400</v>
+        <v>4828100</v>
       </c>
       <c r="J100" s="3">
+        <v>861700</v>
+      </c>
+      <c r="K100" s="3">
         <v>16200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1228500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1652800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>8500</v>
-      </c>
       <c r="F101" s="3">
-        <v>3200</v>
+        <v>8300</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
+        <v>3100</v>
       </c>
       <c r="H101" s="3">
-        <v>-15200</v>
+        <v>-10200</v>
       </c>
       <c r="I101" s="3">
-        <v>33100</v>
+        <v>-14800</v>
       </c>
       <c r="J101" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K101" s="3">
         <v>7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>925400</v>
+        <v>-553300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1027900</v>
+        <v>902700</v>
       </c>
       <c r="F102" s="3">
-        <v>1346800</v>
+        <v>-1002700</v>
       </c>
       <c r="G102" s="3">
+        <v>1313800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>105200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2688900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-707500</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-573200</v>
+      </c>
+      <c r="L102" s="3">
         <v>107900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2756500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-725300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-573200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>107900</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4205200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>559600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39787000</v>
+        <v>41285100</v>
       </c>
       <c r="E8" s="3">
-        <v>63204100</v>
+        <v>65584000</v>
       </c>
       <c r="F8" s="3">
-        <v>32563900</v>
+        <v>33790100</v>
       </c>
       <c r="G8" s="3">
-        <v>56398000</v>
+        <v>58521600</v>
       </c>
       <c r="H8" s="3">
-        <v>34746500</v>
+        <v>36054800</v>
       </c>
       <c r="I8" s="3">
-        <v>55683400</v>
+        <v>57780000</v>
       </c>
       <c r="J8" s="3">
-        <v>28654200</v>
+        <v>29733100</v>
       </c>
       <c r="K8" s="3">
         <v>48597500</v>
@@ -928,25 +928,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>422800</v>
+        <v>438700</v>
       </c>
       <c r="E14" s="3">
-        <v>471100</v>
+        <v>488800</v>
       </c>
       <c r="F14" s="3">
-        <v>970900</v>
+        <v>1007500</v>
       </c>
       <c r="G14" s="3">
-        <v>177500</v>
+        <v>184200</v>
       </c>
       <c r="H14" s="3">
-        <v>149800</v>
+        <v>155400</v>
       </c>
       <c r="I14" s="3">
-        <v>236100</v>
+        <v>245000</v>
       </c>
       <c r="J14" s="3">
-        <v>236100</v>
+        <v>245000</v>
       </c>
       <c r="K14" s="3">
         <v>139000</v>
@@ -1017,25 +1017,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36864500</v>
+        <v>38252600</v>
       </c>
       <c r="E17" s="3">
-        <v>58283400</v>
+        <v>60478000</v>
       </c>
       <c r="F17" s="3">
-        <v>33844100</v>
+        <v>35118500</v>
       </c>
       <c r="G17" s="3">
-        <v>53677300</v>
+        <v>55698500</v>
       </c>
       <c r="H17" s="3">
-        <v>31337300</v>
+        <v>32517300</v>
       </c>
       <c r="I17" s="3">
-        <v>53616000</v>
+        <v>55634900</v>
       </c>
       <c r="J17" s="3">
-        <v>27418700</v>
+        <v>28451100</v>
       </c>
       <c r="K17" s="3">
         <v>46599300</v>
@@ -1055,25 +1055,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2922500</v>
+        <v>3032500</v>
       </c>
       <c r="E18" s="3">
-        <v>4920700</v>
+        <v>5106000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1280200</v>
+        <v>-1328400</v>
       </c>
       <c r="G18" s="3">
-        <v>2720700</v>
+        <v>2823100</v>
       </c>
       <c r="H18" s="3">
-        <v>3409100</v>
+        <v>3537500</v>
       </c>
       <c r="I18" s="3">
-        <v>2067300</v>
+        <v>2145200</v>
       </c>
       <c r="J18" s="3">
-        <v>1235400</v>
+        <v>1281900</v>
       </c>
       <c r="K18" s="3">
         <v>1998200</v>
@@ -1109,25 +1109,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>522800</v>
+        <v>542400</v>
       </c>
       <c r="F20" s="3">
-        <v>226900</v>
+        <v>235400</v>
       </c>
       <c r="G20" s="3">
-        <v>281000</v>
+        <v>291600</v>
       </c>
       <c r="H20" s="3">
-        <v>193700</v>
+        <v>201000</v>
       </c>
       <c r="I20" s="3">
-        <v>162100</v>
+        <v>168200</v>
       </c>
       <c r="J20" s="3">
-        <v>250100</v>
+        <v>259500</v>
       </c>
       <c r="K20" s="3">
         <v>-100300</v>
@@ -1147,25 +1147,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2970100</v>
+        <v>3081900</v>
       </c>
       <c r="E21" s="3">
-        <v>5727600</v>
+        <v>5943200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1037400</v>
+        <v>-1076400</v>
       </c>
       <c r="G21" s="3">
-        <v>3178400</v>
+        <v>3298000</v>
       </c>
       <c r="H21" s="3">
-        <v>3610700</v>
+        <v>3746600</v>
       </c>
       <c r="I21" s="3">
-        <v>2382300</v>
+        <v>2472000</v>
       </c>
       <c r="J21" s="3">
-        <v>1487100</v>
+        <v>1543100</v>
       </c>
       <c r="K21" s="3">
         <v>2046600</v>
@@ -1223,25 +1223,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2925400</v>
+        <v>3035600</v>
       </c>
       <c r="E23" s="3">
-        <v>5443500</v>
+        <v>5648400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1053300</v>
+        <v>-1093000</v>
       </c>
       <c r="G23" s="3">
-        <v>3001700</v>
+        <v>3114700</v>
       </c>
       <c r="H23" s="3">
-        <v>3602900</v>
+        <v>3738500</v>
       </c>
       <c r="I23" s="3">
-        <v>2229400</v>
+        <v>2313400</v>
       </c>
       <c r="J23" s="3">
-        <v>1485500</v>
+        <v>1541500</v>
       </c>
       <c r="K23" s="3">
         <v>1898000</v>
@@ -1261,25 +1261,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-25600</v>
+        <v>-26600</v>
       </c>
       <c r="E24" s="3">
-        <v>134900</v>
+        <v>140000</v>
       </c>
       <c r="F24" s="3">
-        <v>-386100</v>
+        <v>-400700</v>
       </c>
       <c r="G24" s="3">
-        <v>664000</v>
+        <v>689000</v>
       </c>
       <c r="H24" s="3">
-        <v>767300</v>
+        <v>796200</v>
       </c>
       <c r="I24" s="3">
-        <v>481000</v>
+        <v>499200</v>
       </c>
       <c r="J24" s="3">
-        <v>234600</v>
+        <v>243400</v>
       </c>
       <c r="K24" s="3">
         <v>370300</v>
@@ -1337,25 +1337,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2951100</v>
+        <v>3062200</v>
       </c>
       <c r="E26" s="3">
-        <v>5308500</v>
+        <v>5508400</v>
       </c>
       <c r="F26" s="3">
-        <v>-667200</v>
+        <v>-692300</v>
       </c>
       <c r="G26" s="3">
-        <v>2337800</v>
+        <v>2425800</v>
       </c>
       <c r="H26" s="3">
-        <v>2835600</v>
+        <v>2942400</v>
       </c>
       <c r="I26" s="3">
-        <v>1748400</v>
+        <v>1814200</v>
       </c>
       <c r="J26" s="3">
-        <v>1251000</v>
+        <v>1298100</v>
       </c>
       <c r="K26" s="3">
         <v>1527600</v>
@@ -1375,25 +1375,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2895500</v>
+        <v>3004500</v>
       </c>
       <c r="E27" s="3">
-        <v>5262400</v>
+        <v>5460500</v>
       </c>
       <c r="F27" s="3">
-        <v>-703700</v>
+        <v>-730200</v>
       </c>
       <c r="G27" s="3">
-        <v>2298600</v>
+        <v>2385100</v>
       </c>
       <c r="H27" s="3">
-        <v>2800700</v>
+        <v>2906200</v>
       </c>
       <c r="I27" s="3">
-        <v>1713400</v>
+        <v>1777900</v>
       </c>
       <c r="J27" s="3">
-        <v>1222100</v>
+        <v>1268100</v>
       </c>
       <c r="K27" s="3">
         <v>1491500</v>
@@ -1565,25 +1565,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-522800</v>
+        <v>-542400</v>
       </c>
       <c r="F32" s="3">
-        <v>-226900</v>
+        <v>-235400</v>
       </c>
       <c r="G32" s="3">
-        <v>-281000</v>
+        <v>-291600</v>
       </c>
       <c r="H32" s="3">
-        <v>-193700</v>
+        <v>-201000</v>
       </c>
       <c r="I32" s="3">
-        <v>-162100</v>
+        <v>-168200</v>
       </c>
       <c r="J32" s="3">
-        <v>-250100</v>
+        <v>-259500</v>
       </c>
       <c r="K32" s="3">
         <v>100300</v>
@@ -1603,25 +1603,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2895500</v>
+        <v>3004500</v>
       </c>
       <c r="E33" s="3">
-        <v>5262400</v>
+        <v>5460500</v>
       </c>
       <c r="F33" s="3">
-        <v>-703700</v>
+        <v>-730200</v>
       </c>
       <c r="G33" s="3">
-        <v>2298600</v>
+        <v>2385100</v>
       </c>
       <c r="H33" s="3">
-        <v>2800700</v>
+        <v>2906200</v>
       </c>
       <c r="I33" s="3">
-        <v>1713400</v>
+        <v>1777900</v>
       </c>
       <c r="J33" s="3">
-        <v>1222100</v>
+        <v>1268100</v>
       </c>
       <c r="K33" s="3">
         <v>1491500</v>
@@ -1679,25 +1679,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2895500</v>
+        <v>3004500</v>
       </c>
       <c r="E35" s="3">
-        <v>5262400</v>
+        <v>5460500</v>
       </c>
       <c r="F35" s="3">
-        <v>-703700</v>
+        <v>-730200</v>
       </c>
       <c r="G35" s="3">
-        <v>2298600</v>
+        <v>2385100</v>
       </c>
       <c r="H35" s="3">
-        <v>2800700</v>
+        <v>2906200</v>
       </c>
       <c r="I35" s="3">
-        <v>1713400</v>
+        <v>1777900</v>
       </c>
       <c r="J35" s="3">
-        <v>1222100</v>
+        <v>1268100</v>
       </c>
       <c r="K35" s="3">
         <v>1491500</v>
@@ -1792,25 +1792,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7389900</v>
+        <v>7668100</v>
       </c>
       <c r="E41" s="3">
-        <v>7845600</v>
+        <v>8141000</v>
       </c>
       <c r="F41" s="3">
-        <v>7108800</v>
+        <v>7376500</v>
       </c>
       <c r="G41" s="3">
-        <v>8113900</v>
+        <v>8333200</v>
       </c>
       <c r="H41" s="3">
-        <v>6800100</v>
+        <v>7056100</v>
       </c>
       <c r="I41" s="3">
-        <v>6514200</v>
+        <v>6759400</v>
       </c>
       <c r="J41" s="3">
-        <v>9008400</v>
+        <v>9347600</v>
       </c>
       <c r="K41" s="3">
         <v>10304600</v>
@@ -1868,25 +1868,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2418600</v>
+        <v>2509700</v>
       </c>
       <c r="E43" s="3">
-        <v>5837700</v>
+        <v>6057500</v>
       </c>
       <c r="F43" s="3">
-        <v>2190100</v>
+        <v>2272600</v>
       </c>
       <c r="G43" s="3">
-        <v>5286100</v>
+        <v>5485200</v>
       </c>
       <c r="H43" s="3">
-        <v>1976400</v>
+        <v>2050800</v>
       </c>
       <c r="I43" s="3">
-        <v>4306100</v>
+        <v>4468300</v>
       </c>
       <c r="J43" s="3">
-        <v>1878400</v>
+        <v>1949100</v>
       </c>
       <c r="K43" s="3">
         <v>3958900</v>
@@ -2020,25 +2020,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>490063200</v>
+        <v>508515900</v>
       </c>
       <c r="E47" s="3">
-        <v>452343300</v>
+        <v>469375700</v>
       </c>
       <c r="F47" s="3">
-        <v>425078400</v>
+        <v>441084100</v>
       </c>
       <c r="G47" s="3">
-        <v>393526100</v>
+        <v>408430000</v>
       </c>
       <c r="H47" s="3">
-        <v>377211900</v>
+        <v>391415300</v>
       </c>
       <c r="I47" s="3">
-        <v>372987700</v>
+        <v>387032000</v>
       </c>
       <c r="J47" s="3">
-        <v>350062500</v>
+        <v>363243600</v>
       </c>
       <c r="K47" s="3">
         <v>341344500</v>
@@ -2058,25 +2058,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9436000</v>
+        <v>9791300</v>
       </c>
       <c r="E48" s="3">
-        <v>8524000</v>
+        <v>8844900</v>
       </c>
       <c r="F48" s="3">
-        <v>7981600</v>
+        <v>8282200</v>
       </c>
       <c r="G48" s="3">
-        <v>7124400</v>
+        <v>7392600</v>
       </c>
       <c r="H48" s="3">
-        <v>6406100</v>
+        <v>6647300</v>
       </c>
       <c r="I48" s="3">
-        <v>5548200</v>
+        <v>5757100</v>
       </c>
       <c r="J48" s="3">
-        <v>4419900</v>
+        <v>4586400</v>
       </c>
       <c r="K48" s="3">
         <v>4088500</v>
@@ -2210,13 +2210,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E52" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="F52" s="3">
-        <v>175900</v>
+        <v>182600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -2286,25 +2286,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>521593700</v>
+        <v>541233600</v>
       </c>
       <c r="E54" s="3">
-        <v>487041200</v>
+        <v>505380100</v>
       </c>
       <c r="F54" s="3">
-        <v>455486200</v>
+        <v>472636900</v>
       </c>
       <c r="G54" s="3">
-        <v>425923200</v>
+        <v>441960700</v>
       </c>
       <c r="H54" s="3">
-        <v>405546800</v>
+        <v>420817100</v>
       </c>
       <c r="I54" s="3">
-        <v>402397900</v>
+        <v>417549600</v>
       </c>
       <c r="J54" s="3">
-        <v>377465300</v>
+        <v>391678200</v>
       </c>
       <c r="K54" s="3">
         <v>371476300</v>
@@ -2432,25 +2432,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>433027600</v>
+        <v>449332600</v>
       </c>
       <c r="E59" s="3">
-        <v>405939600</v>
+        <v>421224700</v>
       </c>
       <c r="F59" s="3">
-        <v>389530000</v>
+        <v>404197200</v>
       </c>
       <c r="G59" s="3">
-        <v>360248100</v>
+        <v>373812700</v>
       </c>
       <c r="H59" s="3">
-        <v>341471200</v>
+        <v>354328800</v>
       </c>
       <c r="I59" s="3">
-        <v>339607300</v>
+        <v>352394800</v>
       </c>
       <c r="J59" s="3">
-        <v>313151100</v>
+        <v>324942400</v>
       </c>
       <c r="K59" s="3">
         <v>304183500</v>
@@ -2508,25 +2508,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8135300</v>
+        <v>8441600</v>
       </c>
       <c r="E61" s="3">
-        <v>8074200</v>
+        <v>8378200</v>
       </c>
       <c r="F61" s="3">
-        <v>2820200</v>
+        <v>2926400</v>
       </c>
       <c r="G61" s="3">
-        <v>2737200</v>
+        <v>2840300</v>
       </c>
       <c r="H61" s="3">
-        <v>2630400</v>
+        <v>2729500</v>
       </c>
       <c r="I61" s="3">
-        <v>3658100</v>
+        <v>3795900</v>
       </c>
       <c r="J61" s="3">
-        <v>7581400</v>
+        <v>7866800</v>
       </c>
       <c r="K61" s="3">
         <v>10107900</v>
@@ -2546,25 +2546,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1445800</v>
+        <v>1500200</v>
       </c>
       <c r="E62" s="3">
-        <v>1163300</v>
+        <v>1207200</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>436800</v>
+        <v>453300</v>
       </c>
       <c r="H62" s="3">
-        <v>681700</v>
+        <v>707400</v>
       </c>
       <c r="I62" s="3">
-        <v>1319300</v>
+        <v>1368900</v>
       </c>
       <c r="J62" s="3">
-        <v>1087200</v>
+        <v>1128100</v>
       </c>
       <c r="K62" s="3">
         <v>1649300</v>
@@ -2698,25 +2698,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>465082900</v>
+        <v>482594900</v>
       </c>
       <c r="E66" s="3">
-        <v>435475200</v>
+        <v>451872400</v>
       </c>
       <c r="F66" s="3">
-        <v>410927000</v>
+        <v>426399900</v>
       </c>
       <c r="G66" s="3">
-        <v>380715000</v>
+        <v>395050300</v>
       </c>
       <c r="H66" s="3">
-        <v>360629100</v>
+        <v>374208000</v>
       </c>
       <c r="I66" s="3">
-        <v>359206900</v>
+        <v>372732400</v>
       </c>
       <c r="J66" s="3">
-        <v>334970500</v>
+        <v>347583300</v>
       </c>
       <c r="K66" s="3">
         <v>328009300</v>
@@ -2904,25 +2904,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51464400</v>
+        <v>53402200</v>
       </c>
       <c r="E72" s="3">
-        <v>46519600</v>
+        <v>48271300</v>
       </c>
       <c r="F72" s="3">
-        <v>39512800</v>
+        <v>41000600</v>
       </c>
       <c r="G72" s="3">
-        <v>40161800</v>
+        <v>41674000</v>
       </c>
       <c r="H72" s="3">
-        <v>39871400</v>
+        <v>41372700</v>
       </c>
       <c r="I72" s="3">
-        <v>38144600</v>
+        <v>39580800</v>
       </c>
       <c r="J72" s="3">
-        <v>37448400</v>
+        <v>38858500</v>
       </c>
       <c r="K72" s="3">
         <v>38293700</v>
@@ -3056,25 +3056,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56510800</v>
+        <v>58638600</v>
       </c>
       <c r="E76" s="3">
-        <v>51566000</v>
+        <v>53507700</v>
       </c>
       <c r="F76" s="3">
-        <v>44559200</v>
+        <v>46237000</v>
       </c>
       <c r="G76" s="3">
-        <v>45208200</v>
+        <v>46910500</v>
       </c>
       <c r="H76" s="3">
-        <v>44917800</v>
+        <v>46609100</v>
       </c>
       <c r="I76" s="3">
-        <v>43191000</v>
+        <v>44817300</v>
       </c>
       <c r="J76" s="3">
-        <v>42494800</v>
+        <v>44094900</v>
       </c>
       <c r="K76" s="3">
         <v>43467000</v>
@@ -3175,25 +3175,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2895500</v>
+        <v>3004500</v>
       </c>
       <c r="E81" s="3">
-        <v>5262400</v>
+        <v>5460500</v>
       </c>
       <c r="F81" s="3">
-        <v>-703700</v>
+        <v>-730200</v>
       </c>
       <c r="G81" s="3">
-        <v>2298600</v>
+        <v>2385100</v>
       </c>
       <c r="H81" s="3">
-        <v>2800700</v>
+        <v>2906200</v>
       </c>
       <c r="I81" s="3">
-        <v>1713400</v>
+        <v>1777900</v>
       </c>
       <c r="J81" s="3">
-        <v>1222100</v>
+        <v>1268100</v>
       </c>
       <c r="K81" s="3">
         <v>1491500</v>
@@ -3457,25 +3457,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18998500</v>
+        <v>19713800</v>
       </c>
       <c r="E89" s="3">
-        <v>21034600</v>
+        <v>21826600</v>
       </c>
       <c r="F89" s="3">
-        <v>14469100</v>
+        <v>15013900</v>
       </c>
       <c r="G89" s="3">
-        <v>6182300</v>
+        <v>6415100</v>
       </c>
       <c r="H89" s="3">
-        <v>8131400</v>
+        <v>8437600</v>
       </c>
       <c r="I89" s="3">
-        <v>19999200</v>
+        <v>20752200</v>
       </c>
       <c r="J89" s="3">
-        <v>14314800</v>
+        <v>14853800</v>
       </c>
       <c r="K89" s="3">
         <v>-1891100</v>
@@ -3625,25 +3625,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24018100</v>
+        <v>-24922500</v>
       </c>
       <c r="E94" s="3">
-        <v>-10624100</v>
+        <v>-11024100</v>
       </c>
       <c r="F94" s="3">
-        <v>-27726600</v>
+        <v>-28770600</v>
       </c>
       <c r="G94" s="3">
-        <v>-5636000</v>
+        <v>-5848300</v>
       </c>
       <c r="H94" s="3">
-        <v>3193600</v>
+        <v>3313900</v>
       </c>
       <c r="I94" s="3">
-        <v>-27501300</v>
+        <v>-28536800</v>
       </c>
       <c r="J94" s="3">
-        <v>-15916400</v>
+        <v>-16515700</v>
       </c>
       <c r="K94" s="3">
         <v>1293900</v>
@@ -3679,25 +3679,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-194400</v>
+        <v>-201700</v>
       </c>
       <c r="E96" s="3">
-        <v>-493600</v>
+        <v>-512200</v>
       </c>
       <c r="F96" s="3">
-        <v>-444000</v>
+        <v>-460700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1192200</v>
+        <v>-1237100</v>
       </c>
       <c r="H96" s="3">
-        <v>-276000</v>
+        <v>-286400</v>
       </c>
       <c r="I96" s="3">
-        <v>-726700</v>
+        <v>-754000</v>
       </c>
       <c r="J96" s="3">
-        <v>-464900</v>
+        <v>-482500</v>
       </c>
       <c r="K96" s="3">
         <v>-1282000</v>
@@ -3831,25 +3831,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4459400</v>
+        <v>4627300</v>
       </c>
       <c r="E100" s="3">
-        <v>-9508500</v>
+        <v>-9866500</v>
       </c>
       <c r="F100" s="3">
-        <v>12246600</v>
+        <v>12707800</v>
       </c>
       <c r="G100" s="3">
-        <v>764500</v>
+        <v>793200</v>
       </c>
       <c r="H100" s="3">
-        <v>-11209500</v>
+        <v>-11631600</v>
       </c>
       <c r="I100" s="3">
-        <v>4828100</v>
+        <v>5009900</v>
       </c>
       <c r="J100" s="3">
-        <v>861700</v>
+        <v>894200</v>
       </c>
       <c r="K100" s="3">
         <v>16200</v>
@@ -3869,25 +3869,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="G101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H101" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="I101" s="3">
-        <v>-14800</v>
+        <v>-15400</v>
       </c>
       <c r="J101" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -3907,25 +3907,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-553300</v>
+        <v>-574100</v>
       </c>
       <c r="E102" s="3">
-        <v>902700</v>
+        <v>936700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1002700</v>
+        <v>-1040400</v>
       </c>
       <c r="G102" s="3">
-        <v>1313800</v>
+        <v>1363300</v>
       </c>
       <c r="H102" s="3">
-        <v>105200</v>
+        <v>109200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2688900</v>
+        <v>-2790200</v>
       </c>
       <c r="J102" s="3">
-        <v>-707500</v>
+        <v>-734100</v>
       </c>
       <c r="K102" s="3">
         <v>-573200</v>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,103 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41285100</v>
+        <v>77444100</v>
       </c>
       <c r="E8" s="3">
-        <v>65584000</v>
+        <v>43243800</v>
       </c>
       <c r="F8" s="3">
-        <v>33790100</v>
+        <v>68695400</v>
       </c>
       <c r="G8" s="3">
-        <v>58521600</v>
+        <v>35393200</v>
       </c>
       <c r="H8" s="3">
-        <v>36054800</v>
+        <v>61298000</v>
       </c>
       <c r="I8" s="3">
-        <v>57780000</v>
+        <v>37765300</v>
       </c>
       <c r="J8" s="3">
+        <v>60521200</v>
+      </c>
+      <c r="K8" s="3">
         <v>29733100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48597500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26181800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>49176400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +798,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,8 +839,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,46 +938,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>438700</v>
+        <v>710100</v>
       </c>
       <c r="E14" s="3">
-        <v>488800</v>
+        <v>459600</v>
       </c>
       <c r="F14" s="3">
-        <v>1007500</v>
+        <v>512000</v>
       </c>
       <c r="G14" s="3">
-        <v>184200</v>
+        <v>1055300</v>
       </c>
       <c r="H14" s="3">
-        <v>155400</v>
+        <v>192900</v>
       </c>
       <c r="I14" s="3">
+        <v>162800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>256600</v>
+      </c>
+      <c r="K14" s="3">
         <v>245000</v>
       </c>
-      <c r="J14" s="3">
-        <v>245000</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>139000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1020,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38252600</v>
+        <v>72376100</v>
       </c>
       <c r="E17" s="3">
-        <v>60478000</v>
+        <v>40067300</v>
       </c>
       <c r="F17" s="3">
-        <v>35118500</v>
+        <v>63347200</v>
       </c>
       <c r="G17" s="3">
-        <v>55698500</v>
+        <v>36784600</v>
       </c>
       <c r="H17" s="3">
-        <v>32517300</v>
+        <v>58340900</v>
       </c>
       <c r="I17" s="3">
-        <v>55634900</v>
+        <v>34060000</v>
       </c>
       <c r="J17" s="3">
+        <v>58274300</v>
+      </c>
+      <c r="K17" s="3">
         <v>28451100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46599300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25162000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43031300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3032500</v>
+        <v>5068000</v>
       </c>
       <c r="E18" s="3">
-        <v>5106000</v>
+        <v>3176400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1328400</v>
+        <v>5348200</v>
       </c>
       <c r="G18" s="3">
-        <v>2823100</v>
+        <v>-1391400</v>
       </c>
       <c r="H18" s="3">
-        <v>3537500</v>
+        <v>2957100</v>
       </c>
       <c r="I18" s="3">
-        <v>2145200</v>
+        <v>3705300</v>
       </c>
       <c r="J18" s="3">
+        <v>2247000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1281900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1998200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1019700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6145100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,107 +1135,114 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>342000</v>
       </c>
       <c r="E20" s="3">
-        <v>542400</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>235400</v>
+        <v>568200</v>
       </c>
       <c r="G20" s="3">
-        <v>291600</v>
+        <v>246600</v>
       </c>
       <c r="H20" s="3">
-        <v>201000</v>
+        <v>305500</v>
       </c>
       <c r="I20" s="3">
-        <v>168200</v>
+        <v>210500</v>
       </c>
       <c r="J20" s="3">
+        <v>176200</v>
+      </c>
+      <c r="K20" s="3">
         <v>259500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-323200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3081900</v>
+        <v>5796200</v>
       </c>
       <c r="E21" s="3">
-        <v>5943200</v>
+        <v>3228100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1076400</v>
+        <v>6225200</v>
       </c>
       <c r="G21" s="3">
-        <v>3298000</v>
+        <v>-1127500</v>
       </c>
       <c r="H21" s="3">
-        <v>3746600</v>
+        <v>3454500</v>
       </c>
       <c r="I21" s="3">
-        <v>2472000</v>
+        <v>3924400</v>
       </c>
       <c r="J21" s="3">
+        <v>2589200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1543100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2046600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>694400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6272300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1217,84 +1256,93 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3035600</v>
+        <v>5410000</v>
       </c>
       <c r="E23" s="3">
-        <v>5648400</v>
+        <v>3179600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1093000</v>
+        <v>5916400</v>
       </c>
       <c r="G23" s="3">
-        <v>3114700</v>
+        <v>-1144900</v>
       </c>
       <c r="H23" s="3">
-        <v>3738500</v>
+        <v>3262500</v>
       </c>
       <c r="I23" s="3">
-        <v>2313400</v>
+        <v>3915900</v>
       </c>
       <c r="J23" s="3">
+        <v>2423100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1541500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1898000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>696500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6120100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26600</v>
+        <v>684800</v>
       </c>
       <c r="E24" s="3">
-        <v>140000</v>
+        <v>-27800</v>
       </c>
       <c r="F24" s="3">
-        <v>-400700</v>
+        <v>146600</v>
       </c>
       <c r="G24" s="3">
-        <v>689000</v>
+        <v>-419700</v>
       </c>
       <c r="H24" s="3">
-        <v>796200</v>
+        <v>721700</v>
       </c>
       <c r="I24" s="3">
-        <v>499200</v>
+        <v>833900</v>
       </c>
       <c r="J24" s="3">
+        <v>522800</v>
+      </c>
+      <c r="K24" s="3">
         <v>243400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>370300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>184000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1410500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3062200</v>
+        <v>4725200</v>
       </c>
       <c r="E26" s="3">
-        <v>5508400</v>
+        <v>3207500</v>
       </c>
       <c r="F26" s="3">
-        <v>-692300</v>
+        <v>5769800</v>
       </c>
       <c r="G26" s="3">
-        <v>2425800</v>
+        <v>-725200</v>
       </c>
       <c r="H26" s="3">
-        <v>2942400</v>
+        <v>2540900</v>
       </c>
       <c r="I26" s="3">
-        <v>1814200</v>
+        <v>3082000</v>
       </c>
       <c r="J26" s="3">
+        <v>1900300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1298100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1527600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>512500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4709600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3004500</v>
+        <v>4645000</v>
       </c>
       <c r="E27" s="3">
-        <v>5460500</v>
+        <v>3147100</v>
       </c>
       <c r="F27" s="3">
-        <v>-730200</v>
+        <v>5719600</v>
       </c>
       <c r="G27" s="3">
-        <v>2385100</v>
+        <v>-764900</v>
       </c>
       <c r="H27" s="3">
-        <v>2906200</v>
+        <v>2498300</v>
       </c>
       <c r="I27" s="3">
-        <v>1777900</v>
+        <v>3044100</v>
       </c>
       <c r="J27" s="3">
+        <v>1862300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1268100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1491500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>476400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4673300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1502,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,8 +1543,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-342000</v>
       </c>
       <c r="E32" s="3">
-        <v>-542400</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>-235400</v>
+        <v>-568200</v>
       </c>
       <c r="G32" s="3">
-        <v>-291600</v>
+        <v>-246600</v>
       </c>
       <c r="H32" s="3">
-        <v>-201000</v>
+        <v>-305500</v>
       </c>
       <c r="I32" s="3">
-        <v>-168200</v>
+        <v>-210500</v>
       </c>
       <c r="J32" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-259500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>323200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3004500</v>
+        <v>4645000</v>
       </c>
       <c r="E33" s="3">
-        <v>5460500</v>
+        <v>3147100</v>
       </c>
       <c r="F33" s="3">
-        <v>-730200</v>
+        <v>5719600</v>
       </c>
       <c r="G33" s="3">
-        <v>2385100</v>
+        <v>-764900</v>
       </c>
       <c r="H33" s="3">
-        <v>2906200</v>
+        <v>2498300</v>
       </c>
       <c r="I33" s="3">
-        <v>1777900</v>
+        <v>3044100</v>
       </c>
       <c r="J33" s="3">
+        <v>1862300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1268100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1491500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>476400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4673300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3004500</v>
+        <v>4645000</v>
       </c>
       <c r="E35" s="3">
-        <v>5460500</v>
+        <v>3147100</v>
       </c>
       <c r="F35" s="3">
-        <v>-730200</v>
+        <v>5719600</v>
       </c>
       <c r="G35" s="3">
-        <v>2385100</v>
+        <v>-764900</v>
       </c>
       <c r="H35" s="3">
-        <v>2906200</v>
+        <v>2498300</v>
       </c>
       <c r="I35" s="3">
-        <v>1777900</v>
+        <v>3044100</v>
       </c>
       <c r="J35" s="3">
+        <v>1862300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1268100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1491500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>476400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4673300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,46 +1871,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7668100</v>
+        <v>12304800</v>
       </c>
       <c r="E41" s="3">
-        <v>8141000</v>
+        <v>8031900</v>
       </c>
       <c r="F41" s="3">
-        <v>7376500</v>
+        <v>8527200</v>
       </c>
       <c r="G41" s="3">
-        <v>8333200</v>
+        <v>7726500</v>
       </c>
       <c r="H41" s="3">
-        <v>7056100</v>
+        <v>8728500</v>
       </c>
       <c r="I41" s="3">
-        <v>6759400</v>
+        <v>7390900</v>
       </c>
       <c r="J41" s="3">
+        <v>7080100</v>
+      </c>
+      <c r="K41" s="3">
         <v>9347600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10304600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11002400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10970200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1862,46 +1951,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2509700</v>
+        <v>7361800</v>
       </c>
       <c r="E43" s="3">
-        <v>6057500</v>
+        <v>2628800</v>
       </c>
       <c r="F43" s="3">
-        <v>2272600</v>
+        <v>6344900</v>
       </c>
       <c r="G43" s="3">
-        <v>5485200</v>
+        <v>2380400</v>
       </c>
       <c r="H43" s="3">
-        <v>2050800</v>
+        <v>5745400</v>
       </c>
       <c r="I43" s="3">
-        <v>4468300</v>
+        <v>2148100</v>
       </c>
       <c r="J43" s="3">
+        <v>4680300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1949100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3958900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1768000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1938,8 +2033,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1976,8 +2074,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2014,84 +2115,93 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>508515900</v>
+        <v>559855100</v>
       </c>
       <c r="E47" s="3">
-        <v>469375700</v>
+        <v>532640900</v>
       </c>
       <c r="F47" s="3">
-        <v>441084100</v>
+        <v>491643800</v>
       </c>
       <c r="G47" s="3">
-        <v>408430000</v>
+        <v>462010000</v>
       </c>
       <c r="H47" s="3">
-        <v>391415300</v>
+        <v>427806800</v>
       </c>
       <c r="I47" s="3">
-        <v>387032000</v>
+        <v>409984800</v>
       </c>
       <c r="J47" s="3">
+        <v>405393600</v>
+      </c>
+      <c r="K47" s="3">
         <v>363243600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>341344500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>334383900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>323344700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9791300</v>
+        <v>10350900</v>
       </c>
       <c r="E48" s="3">
-        <v>8844900</v>
+        <v>10255800</v>
       </c>
       <c r="F48" s="3">
-        <v>8282200</v>
+        <v>9264600</v>
       </c>
       <c r="G48" s="3">
-        <v>7392600</v>
+        <v>8675100</v>
       </c>
       <c r="H48" s="3">
-        <v>6647300</v>
+        <v>7743400</v>
       </c>
       <c r="I48" s="3">
-        <v>5757100</v>
+        <v>6962700</v>
       </c>
       <c r="J48" s="3">
+        <v>6030200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4586400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4088500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4186800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3925400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2119,17 +2229,20 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,22 +2320,25 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="E52" s="3">
-        <v>8300</v>
+        <v>19500</v>
       </c>
       <c r="F52" s="3">
-        <v>182600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+        <v>8700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>191200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2233,8 +2352,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2242,8 +2361,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>541233600</v>
+        <v>603312900</v>
       </c>
       <c r="E54" s="3">
-        <v>505380100</v>
+        <v>566910800</v>
       </c>
       <c r="F54" s="3">
-        <v>472636900</v>
+        <v>529356300</v>
       </c>
       <c r="G54" s="3">
-        <v>441960700</v>
+        <v>495059800</v>
       </c>
       <c r="H54" s="3">
-        <v>420817100</v>
+        <v>462928200</v>
       </c>
       <c r="I54" s="3">
-        <v>417549600</v>
+        <v>440781500</v>
       </c>
       <c r="J54" s="3">
+        <v>437359000</v>
+      </c>
+      <c r="K54" s="3">
         <v>391678200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>371476300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>363354400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>353149800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,8 +2479,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2388,8 +2518,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2426,46 +2559,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>449332600</v>
+        <v>499896900</v>
       </c>
       <c r="E59" s="3">
-        <v>421224700</v>
+        <v>470649800</v>
       </c>
       <c r="F59" s="3">
-        <v>404197200</v>
+        <v>441208400</v>
       </c>
       <c r="G59" s="3">
-        <v>373812700</v>
+        <v>423373100</v>
       </c>
       <c r="H59" s="3">
-        <v>354328800</v>
+        <v>391547100</v>
       </c>
       <c r="I59" s="3">
-        <v>352394800</v>
+        <v>371138900</v>
       </c>
       <c r="J59" s="3">
+        <v>369113100</v>
+      </c>
+      <c r="K59" s="3">
         <v>324942400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>304183500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>293381600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285046800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2502,84 +2641,93 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8441600</v>
+        <v>8870400</v>
       </c>
       <c r="E61" s="3">
-        <v>8378200</v>
+        <v>8842100</v>
       </c>
       <c r="F61" s="3">
-        <v>2926400</v>
+        <v>8775700</v>
       </c>
       <c r="G61" s="3">
-        <v>2840300</v>
+        <v>3065200</v>
       </c>
       <c r="H61" s="3">
-        <v>2729500</v>
+        <v>2975000</v>
       </c>
       <c r="I61" s="3">
-        <v>3795900</v>
+        <v>2858900</v>
       </c>
       <c r="J61" s="3">
+        <v>3976000</v>
+      </c>
+      <c r="K61" s="3">
         <v>7866800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10107900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10483200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10484000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500200</v>
+        <v>1544200</v>
       </c>
       <c r="E62" s="3">
-        <v>1207200</v>
+        <v>1571400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1264400</v>
       </c>
       <c r="G62" s="3">
-        <v>453300</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>707400</v>
+        <v>474800</v>
       </c>
       <c r="I62" s="3">
-        <v>1368900</v>
+        <v>741000</v>
       </c>
       <c r="J62" s="3">
+        <v>1433900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1128100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1649300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2516000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2839200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>482594900</v>
+        <v>540045300</v>
       </c>
       <c r="E66" s="3">
-        <v>451872400</v>
+        <v>505490200</v>
       </c>
       <c r="F66" s="3">
-        <v>426399900</v>
+        <v>473310100</v>
       </c>
       <c r="G66" s="3">
-        <v>395050300</v>
+        <v>446629200</v>
       </c>
       <c r="H66" s="3">
-        <v>374208000</v>
+        <v>413792300</v>
       </c>
       <c r="I66" s="3">
-        <v>372732400</v>
+        <v>391961200</v>
       </c>
       <c r="J66" s="3">
+        <v>390415500</v>
+      </c>
+      <c r="K66" s="3">
         <v>347583300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>328009300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>315493400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>307002100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +2986,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53402200</v>
+        <v>57782800</v>
       </c>
       <c r="E72" s="3">
-        <v>48271300</v>
+        <v>55935700</v>
       </c>
       <c r="F72" s="3">
-        <v>41000600</v>
+        <v>50561300</v>
       </c>
       <c r="G72" s="3">
-        <v>41674000</v>
+        <v>42945800</v>
       </c>
       <c r="H72" s="3">
-        <v>41372700</v>
+        <v>43651100</v>
       </c>
       <c r="I72" s="3">
-        <v>39580800</v>
+        <v>43335500</v>
       </c>
       <c r="J72" s="3">
+        <v>41458600</v>
+      </c>
+      <c r="K72" s="3">
         <v>38858500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38293700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42510000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41952800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58638600</v>
+        <v>63267600</v>
       </c>
       <c r="E76" s="3">
-        <v>53507700</v>
+        <v>61420600</v>
       </c>
       <c r="F76" s="3">
-        <v>46237000</v>
+        <v>56046200</v>
       </c>
       <c r="G76" s="3">
-        <v>46910500</v>
+        <v>48430600</v>
       </c>
       <c r="H76" s="3">
-        <v>46609100</v>
+        <v>49136000</v>
       </c>
       <c r="I76" s="3">
-        <v>44817300</v>
+        <v>48820300</v>
       </c>
       <c r="J76" s="3">
+        <v>46943500</v>
+      </c>
+      <c r="K76" s="3">
         <v>44094900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43467000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47861000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>46147600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3004500</v>
+        <v>4645000</v>
       </c>
       <c r="E81" s="3">
-        <v>5460500</v>
+        <v>3147100</v>
       </c>
       <c r="F81" s="3">
-        <v>-730200</v>
+        <v>5719600</v>
       </c>
       <c r="G81" s="3">
-        <v>2385100</v>
+        <v>-764900</v>
       </c>
       <c r="H81" s="3">
-        <v>2906200</v>
+        <v>2498300</v>
       </c>
       <c r="I81" s="3">
-        <v>1777900</v>
+        <v>3044100</v>
       </c>
       <c r="J81" s="3">
+        <v>1862300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1268100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1491500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>476400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4673300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,8 +3420,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3261,8 +3459,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3664,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19713800</v>
+        <v>27806300</v>
       </c>
       <c r="E89" s="3">
-        <v>21826600</v>
+        <v>20649100</v>
       </c>
       <c r="F89" s="3">
-        <v>15013900</v>
+        <v>22862100</v>
       </c>
       <c r="G89" s="3">
-        <v>6415100</v>
+        <v>15726200</v>
       </c>
       <c r="H89" s="3">
-        <v>8437600</v>
+        <v>6719400</v>
       </c>
       <c r="I89" s="3">
-        <v>20752200</v>
+        <v>8837900</v>
       </c>
       <c r="J89" s="3">
+        <v>21736700</v>
+      </c>
+      <c r="K89" s="3">
         <v>14853800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1891100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6494300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3702500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,8 +3724,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3543,8 +3763,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +3845,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24922500</v>
+        <v>-13483800</v>
       </c>
       <c r="E94" s="3">
-        <v>-11024100</v>
+        <v>-26104900</v>
       </c>
       <c r="F94" s="3">
-        <v>-28770600</v>
+        <v>-11547100</v>
       </c>
       <c r="G94" s="3">
-        <v>-5848300</v>
+        <v>-30135600</v>
       </c>
       <c r="H94" s="3">
-        <v>3313900</v>
+        <v>-6125700</v>
       </c>
       <c r="I94" s="3">
-        <v>-28536800</v>
+        <v>3471100</v>
       </c>
       <c r="J94" s="3">
+        <v>-29890700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16515700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1293900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7794600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2155800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,46 +3905,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-201700</v>
+        <v>-30600</v>
       </c>
       <c r="E96" s="3">
-        <v>-512200</v>
+        <v>-211300</v>
       </c>
       <c r="F96" s="3">
-        <v>-460700</v>
+        <v>-536500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1237100</v>
+        <v>-482500</v>
       </c>
       <c r="H96" s="3">
-        <v>-286400</v>
+        <v>-1295800</v>
       </c>
       <c r="I96" s="3">
-        <v>-754000</v>
+        <v>-300000</v>
       </c>
       <c r="J96" s="3">
+        <v>-789800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-482500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1282000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-469100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1236300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,118 +4067,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4627300</v>
+        <v>-10143700</v>
       </c>
       <c r="E100" s="3">
-        <v>-9866500</v>
+        <v>4846800</v>
       </c>
       <c r="F100" s="3">
-        <v>12707800</v>
+        <v>-10334600</v>
       </c>
       <c r="G100" s="3">
-        <v>793200</v>
+        <v>13310700</v>
       </c>
       <c r="H100" s="3">
-        <v>-11631600</v>
+        <v>830900</v>
       </c>
       <c r="I100" s="3">
-        <v>5009900</v>
+        <v>-12183400</v>
       </c>
       <c r="J100" s="3">
+        <v>5247500</v>
+      </c>
+      <c r="K100" s="3">
         <v>894200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1228500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1652800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7300</v>
+        <v>17000</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>7600</v>
       </c>
       <c r="F101" s="3">
-        <v>8600</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>3200</v>
+        <v>9000</v>
       </c>
       <c r="H101" s="3">
-        <v>-10600</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-15400</v>
+        <v>-11100</v>
       </c>
       <c r="J101" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K101" s="3">
         <v>33500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-574100</v>
+        <v>4195900</v>
       </c>
       <c r="E102" s="3">
-        <v>936700</v>
+        <v>-601300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1040400</v>
+        <v>981200</v>
       </c>
       <c r="G102" s="3">
-        <v>1363300</v>
+        <v>-1089800</v>
       </c>
       <c r="H102" s="3">
-        <v>109200</v>
+        <v>1428000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2790200</v>
+        <v>114400</v>
       </c>
       <c r="J102" s="3">
+        <v>-2922500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-734100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-573200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>107900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4205200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>559600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77444100</v>
+        <v>77780100</v>
       </c>
       <c r="E8" s="3">
-        <v>43243800</v>
+        <v>43431400</v>
       </c>
       <c r="F8" s="3">
-        <v>68695400</v>
+        <v>68993500</v>
       </c>
       <c r="G8" s="3">
-        <v>35393200</v>
+        <v>35546700</v>
       </c>
       <c r="H8" s="3">
-        <v>61298000</v>
+        <v>61563900</v>
       </c>
       <c r="I8" s="3">
-        <v>37765300</v>
+        <v>37929200</v>
       </c>
       <c r="J8" s="3">
-        <v>60521200</v>
+        <v>60783800</v>
       </c>
       <c r="K8" s="3">
         <v>29733100</v>
@@ -947,25 +947,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>710100</v>
+        <v>713200</v>
       </c>
       <c r="E14" s="3">
-        <v>459600</v>
+        <v>461500</v>
       </c>
       <c r="F14" s="3">
-        <v>512000</v>
+        <v>514300</v>
       </c>
       <c r="G14" s="3">
-        <v>1055300</v>
+        <v>1059800</v>
       </c>
       <c r="H14" s="3">
-        <v>192900</v>
+        <v>193700</v>
       </c>
       <c r="I14" s="3">
-        <v>162800</v>
+        <v>163500</v>
       </c>
       <c r="J14" s="3">
-        <v>256600</v>
+        <v>257700</v>
       </c>
       <c r="K14" s="3">
         <v>245000</v>
@@ -1043,25 +1043,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72376100</v>
+        <v>72690100</v>
       </c>
       <c r="E17" s="3">
-        <v>40067300</v>
+        <v>40241200</v>
       </c>
       <c r="F17" s="3">
-        <v>63347200</v>
+        <v>63622000</v>
       </c>
       <c r="G17" s="3">
-        <v>36784600</v>
+        <v>36944200</v>
       </c>
       <c r="H17" s="3">
-        <v>58340900</v>
+        <v>58594000</v>
       </c>
       <c r="I17" s="3">
-        <v>34060000</v>
+        <v>34207700</v>
       </c>
       <c r="J17" s="3">
-        <v>58274300</v>
+        <v>58527100</v>
       </c>
       <c r="K17" s="3">
         <v>28451100</v>
@@ -1084,25 +1084,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5068000</v>
+        <v>5090000</v>
       </c>
       <c r="E18" s="3">
-        <v>3176400</v>
+        <v>3190200</v>
       </c>
       <c r="F18" s="3">
-        <v>5348200</v>
+        <v>5371400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1391400</v>
+        <v>-1397500</v>
       </c>
       <c r="H18" s="3">
-        <v>2957100</v>
+        <v>2969900</v>
       </c>
       <c r="I18" s="3">
-        <v>3705300</v>
+        <v>3721400</v>
       </c>
       <c r="J18" s="3">
-        <v>2247000</v>
+        <v>2256700</v>
       </c>
       <c r="K18" s="3">
         <v>1281900</v>
@@ -1142,25 +1142,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>342000</v>
+        <v>343400</v>
       </c>
       <c r="E20" s="3">
         <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>568200</v>
+        <v>570600</v>
       </c>
       <c r="G20" s="3">
-        <v>246600</v>
+        <v>247700</v>
       </c>
       <c r="H20" s="3">
-        <v>305500</v>
+        <v>306800</v>
       </c>
       <c r="I20" s="3">
-        <v>210500</v>
+        <v>211400</v>
       </c>
       <c r="J20" s="3">
-        <v>176200</v>
+        <v>176900</v>
       </c>
       <c r="K20" s="3">
         <v>259500</v>
@@ -1183,25 +1183,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5796200</v>
+        <v>5821400</v>
       </c>
       <c r="E21" s="3">
-        <v>3228100</v>
+        <v>3242100</v>
       </c>
       <c r="F21" s="3">
-        <v>6225200</v>
+        <v>6252200</v>
       </c>
       <c r="G21" s="3">
-        <v>-1127500</v>
+        <v>-1132400</v>
       </c>
       <c r="H21" s="3">
-        <v>3454500</v>
+        <v>3469500</v>
       </c>
       <c r="I21" s="3">
-        <v>3924400</v>
+        <v>3941400</v>
       </c>
       <c r="J21" s="3">
-        <v>2589200</v>
+        <v>2600500</v>
       </c>
       <c r="K21" s="3">
         <v>1543100</v>
@@ -1265,25 +1265,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5410000</v>
+        <v>5433500</v>
       </c>
       <c r="E23" s="3">
-        <v>3179600</v>
+        <v>3193400</v>
       </c>
       <c r="F23" s="3">
-        <v>5916400</v>
+        <v>5942100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1144900</v>
+        <v>-1149800</v>
       </c>
       <c r="H23" s="3">
-        <v>3262500</v>
+        <v>3276700</v>
       </c>
       <c r="I23" s="3">
-        <v>3915900</v>
+        <v>3932900</v>
       </c>
       <c r="J23" s="3">
-        <v>2423100</v>
+        <v>2433600</v>
       </c>
       <c r="K23" s="3">
         <v>1541500</v>
@@ -1306,25 +1306,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>684800</v>
+        <v>687800</v>
       </c>
       <c r="E24" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="F24" s="3">
-        <v>146600</v>
+        <v>147300</v>
       </c>
       <c r="G24" s="3">
-        <v>-419700</v>
+        <v>-421500</v>
       </c>
       <c r="H24" s="3">
-        <v>721700</v>
+        <v>724800</v>
       </c>
       <c r="I24" s="3">
-        <v>833900</v>
+        <v>837500</v>
       </c>
       <c r="J24" s="3">
-        <v>522800</v>
+        <v>525100</v>
       </c>
       <c r="K24" s="3">
         <v>243400</v>
@@ -1388,25 +1388,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4725200</v>
+        <v>4745700</v>
       </c>
       <c r="E26" s="3">
-        <v>3207500</v>
+        <v>3221400</v>
       </c>
       <c r="F26" s="3">
-        <v>5769800</v>
+        <v>5794800</v>
       </c>
       <c r="G26" s="3">
-        <v>-725200</v>
+        <v>-728300</v>
       </c>
       <c r="H26" s="3">
-        <v>2540900</v>
+        <v>2551900</v>
       </c>
       <c r="I26" s="3">
-        <v>3082000</v>
+        <v>3095300</v>
       </c>
       <c r="J26" s="3">
-        <v>1900300</v>
+        <v>1908500</v>
       </c>
       <c r="K26" s="3">
         <v>1298100</v>
@@ -1429,25 +1429,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4645000</v>
+        <v>4665100</v>
       </c>
       <c r="E27" s="3">
-        <v>3147100</v>
+        <v>3160700</v>
       </c>
       <c r="F27" s="3">
-        <v>5719600</v>
+        <v>5744400</v>
       </c>
       <c r="G27" s="3">
-        <v>-764900</v>
+        <v>-768200</v>
       </c>
       <c r="H27" s="3">
-        <v>2498300</v>
+        <v>2509100</v>
       </c>
       <c r="I27" s="3">
-        <v>3044100</v>
+        <v>3057300</v>
       </c>
       <c r="J27" s="3">
-        <v>1862300</v>
+        <v>1870300</v>
       </c>
       <c r="K27" s="3">
         <v>1268100</v>
@@ -1634,25 +1634,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-342000</v>
+        <v>-343400</v>
       </c>
       <c r="E32" s="3">
         <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>-568200</v>
+        <v>-570600</v>
       </c>
       <c r="G32" s="3">
-        <v>-246600</v>
+        <v>-247700</v>
       </c>
       <c r="H32" s="3">
-        <v>-305500</v>
+        <v>-306800</v>
       </c>
       <c r="I32" s="3">
-        <v>-210500</v>
+        <v>-211400</v>
       </c>
       <c r="J32" s="3">
-        <v>-176200</v>
+        <v>-176900</v>
       </c>
       <c r="K32" s="3">
         <v>-259500</v>
@@ -1675,25 +1675,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4645000</v>
+        <v>4665100</v>
       </c>
       <c r="E33" s="3">
-        <v>3147100</v>
+        <v>3160700</v>
       </c>
       <c r="F33" s="3">
-        <v>5719600</v>
+        <v>5744400</v>
       </c>
       <c r="G33" s="3">
-        <v>-764900</v>
+        <v>-768200</v>
       </c>
       <c r="H33" s="3">
-        <v>2498300</v>
+        <v>2509100</v>
       </c>
       <c r="I33" s="3">
-        <v>3044100</v>
+        <v>3057300</v>
       </c>
       <c r="J33" s="3">
-        <v>1862300</v>
+        <v>1870300</v>
       </c>
       <c r="K33" s="3">
         <v>1268100</v>
@@ -1757,25 +1757,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4645000</v>
+        <v>4665100</v>
       </c>
       <c r="E35" s="3">
-        <v>3147100</v>
+        <v>3160700</v>
       </c>
       <c r="F35" s="3">
-        <v>5719600</v>
+        <v>5744400</v>
       </c>
       <c r="G35" s="3">
-        <v>-764900</v>
+        <v>-768200</v>
       </c>
       <c r="H35" s="3">
-        <v>2498300</v>
+        <v>2509100</v>
       </c>
       <c r="I35" s="3">
-        <v>3044100</v>
+        <v>3057300</v>
       </c>
       <c r="J35" s="3">
-        <v>1862300</v>
+        <v>1870300</v>
       </c>
       <c r="K35" s="3">
         <v>1268100</v>
@@ -1878,25 +1878,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12304800</v>
+        <v>12358200</v>
       </c>
       <c r="E41" s="3">
-        <v>8031900</v>
+        <v>8066800</v>
       </c>
       <c r="F41" s="3">
-        <v>8527200</v>
+        <v>8564200</v>
       </c>
       <c r="G41" s="3">
-        <v>7726500</v>
+        <v>7760000</v>
       </c>
       <c r="H41" s="3">
-        <v>8728500</v>
+        <v>8766400</v>
       </c>
       <c r="I41" s="3">
-        <v>7390900</v>
+        <v>7423000</v>
       </c>
       <c r="J41" s="3">
-        <v>7080100</v>
+        <v>7110800</v>
       </c>
       <c r="K41" s="3">
         <v>9347600</v>
@@ -1960,25 +1960,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7361800</v>
+        <v>7393800</v>
       </c>
       <c r="E43" s="3">
-        <v>2628800</v>
+        <v>2640200</v>
       </c>
       <c r="F43" s="3">
-        <v>6344900</v>
+        <v>6372500</v>
       </c>
       <c r="G43" s="3">
-        <v>2380400</v>
+        <v>2390700</v>
       </c>
       <c r="H43" s="3">
-        <v>5745400</v>
+        <v>5770300</v>
       </c>
       <c r="I43" s="3">
-        <v>2148100</v>
+        <v>2157400</v>
       </c>
       <c r="J43" s="3">
-        <v>4680300</v>
+        <v>4700600</v>
       </c>
       <c r="K43" s="3">
         <v>1949100</v>
@@ -2124,25 +2124,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>559855100</v>
+        <v>562284200</v>
       </c>
       <c r="E47" s="3">
-        <v>532640900</v>
+        <v>534951800</v>
       </c>
       <c r="F47" s="3">
-        <v>491643800</v>
+        <v>493776900</v>
       </c>
       <c r="G47" s="3">
-        <v>462010000</v>
+        <v>464014600</v>
       </c>
       <c r="H47" s="3">
-        <v>427806800</v>
+        <v>429662900</v>
       </c>
       <c r="I47" s="3">
-        <v>409984800</v>
+        <v>411763600</v>
       </c>
       <c r="J47" s="3">
-        <v>405393600</v>
+        <v>407152400</v>
       </c>
       <c r="K47" s="3">
         <v>363243600</v>
@@ -2165,25 +2165,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10350900</v>
+        <v>10395800</v>
       </c>
       <c r="E48" s="3">
-        <v>10255800</v>
+        <v>10300300</v>
       </c>
       <c r="F48" s="3">
-        <v>9264600</v>
+        <v>9304800</v>
       </c>
       <c r="G48" s="3">
-        <v>8675100</v>
+        <v>8712700</v>
       </c>
       <c r="H48" s="3">
-        <v>7743400</v>
+        <v>7777000</v>
       </c>
       <c r="I48" s="3">
-        <v>6962700</v>
+        <v>6992900</v>
       </c>
       <c r="J48" s="3">
-        <v>6030200</v>
+        <v>6056400</v>
       </c>
       <c r="K48" s="3">
         <v>4586400</v>
@@ -2329,16 +2329,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E52" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="F52" s="3">
         <v>8700</v>
       </c>
       <c r="G52" s="3">
-        <v>191200</v>
+        <v>192000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2411,25 +2411,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>603312900</v>
+        <v>605930500</v>
       </c>
       <c r="E54" s="3">
-        <v>566910800</v>
+        <v>569370400</v>
       </c>
       <c r="F54" s="3">
-        <v>529356300</v>
+        <v>531653000</v>
       </c>
       <c r="G54" s="3">
-        <v>495059800</v>
+        <v>497207700</v>
       </c>
       <c r="H54" s="3">
-        <v>462928200</v>
+        <v>464936700</v>
       </c>
       <c r="I54" s="3">
-        <v>440781500</v>
+        <v>442694000</v>
       </c>
       <c r="J54" s="3">
-        <v>437359000</v>
+        <v>439256600</v>
       </c>
       <c r="K54" s="3">
         <v>391678200</v>
@@ -2568,25 +2568,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>499896900</v>
+        <v>502065800</v>
       </c>
       <c r="E59" s="3">
-        <v>470649800</v>
+        <v>472691800</v>
       </c>
       <c r="F59" s="3">
-        <v>441208400</v>
+        <v>443122700</v>
       </c>
       <c r="G59" s="3">
-        <v>423373100</v>
+        <v>425210000</v>
       </c>
       <c r="H59" s="3">
-        <v>391547100</v>
+        <v>393245900</v>
       </c>
       <c r="I59" s="3">
-        <v>371138900</v>
+        <v>372749100</v>
       </c>
       <c r="J59" s="3">
-        <v>369113100</v>
+        <v>370714600</v>
       </c>
       <c r="K59" s="3">
         <v>324942400</v>
@@ -2650,25 +2650,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8870400</v>
+        <v>8908900</v>
       </c>
       <c r="E61" s="3">
-        <v>8842100</v>
+        <v>8880500</v>
       </c>
       <c r="F61" s="3">
-        <v>8775700</v>
+        <v>8813700</v>
       </c>
       <c r="G61" s="3">
-        <v>3065200</v>
+        <v>3078500</v>
       </c>
       <c r="H61" s="3">
-        <v>2975000</v>
+        <v>2987900</v>
       </c>
       <c r="I61" s="3">
-        <v>2858900</v>
+        <v>2871300</v>
       </c>
       <c r="J61" s="3">
-        <v>3976000</v>
+        <v>3993200</v>
       </c>
       <c r="K61" s="3">
         <v>7866800</v>
@@ -2691,25 +2691,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1544200</v>
+        <v>1550900</v>
       </c>
       <c r="E62" s="3">
-        <v>1571400</v>
+        <v>1578200</v>
       </c>
       <c r="F62" s="3">
-        <v>1264400</v>
+        <v>1269900</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>474800</v>
+        <v>476800</v>
       </c>
       <c r="I62" s="3">
-        <v>741000</v>
+        <v>744200</v>
       </c>
       <c r="J62" s="3">
-        <v>1433900</v>
+        <v>1440100</v>
       </c>
       <c r="K62" s="3">
         <v>1128100</v>
@@ -2855,25 +2855,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>540045300</v>
+        <v>542388400</v>
       </c>
       <c r="E66" s="3">
-        <v>505490200</v>
+        <v>507683400</v>
       </c>
       <c r="F66" s="3">
-        <v>473310100</v>
+        <v>475363700</v>
       </c>
       <c r="G66" s="3">
-        <v>446629200</v>
+        <v>448567000</v>
       </c>
       <c r="H66" s="3">
-        <v>413792300</v>
+        <v>415587600</v>
       </c>
       <c r="I66" s="3">
-        <v>391961200</v>
+        <v>393661800</v>
       </c>
       <c r="J66" s="3">
-        <v>390415500</v>
+        <v>392109400</v>
       </c>
       <c r="K66" s="3">
         <v>347583300</v>
@@ -3077,25 +3077,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57782800</v>
+        <v>58033500</v>
       </c>
       <c r="E72" s="3">
-        <v>55935700</v>
+        <v>56178400</v>
       </c>
       <c r="F72" s="3">
-        <v>50561300</v>
+        <v>50780700</v>
       </c>
       <c r="G72" s="3">
-        <v>42945800</v>
+        <v>43132100</v>
       </c>
       <c r="H72" s="3">
-        <v>43651100</v>
+        <v>43840500</v>
       </c>
       <c r="I72" s="3">
-        <v>43335500</v>
+        <v>43523500</v>
       </c>
       <c r="J72" s="3">
-        <v>41458600</v>
+        <v>41638500</v>
       </c>
       <c r="K72" s="3">
         <v>38858500</v>
@@ -3241,25 +3241,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63267600</v>
+        <v>63542100</v>
       </c>
       <c r="E76" s="3">
-        <v>61420600</v>
+        <v>61687100</v>
       </c>
       <c r="F76" s="3">
-        <v>56046200</v>
+        <v>56289300</v>
       </c>
       <c r="G76" s="3">
-        <v>48430600</v>
+        <v>48640700</v>
       </c>
       <c r="H76" s="3">
-        <v>49136000</v>
+        <v>49349200</v>
       </c>
       <c r="I76" s="3">
-        <v>48820300</v>
+        <v>49032100</v>
       </c>
       <c r="J76" s="3">
-        <v>46943500</v>
+        <v>47147100</v>
       </c>
       <c r="K76" s="3">
         <v>44094900</v>
@@ -3369,25 +3369,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4645000</v>
+        <v>4665100</v>
       </c>
       <c r="E81" s="3">
-        <v>3147100</v>
+        <v>3160700</v>
       </c>
       <c r="F81" s="3">
-        <v>5719600</v>
+        <v>5744400</v>
       </c>
       <c r="G81" s="3">
-        <v>-764900</v>
+        <v>-768200</v>
       </c>
       <c r="H81" s="3">
-        <v>2498300</v>
+        <v>2509100</v>
       </c>
       <c r="I81" s="3">
-        <v>3044100</v>
+        <v>3057300</v>
       </c>
       <c r="J81" s="3">
-        <v>1862300</v>
+        <v>1870300</v>
       </c>
       <c r="K81" s="3">
         <v>1268100</v>
@@ -3673,25 +3673,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27806300</v>
+        <v>27927000</v>
       </c>
       <c r="E89" s="3">
-        <v>20649100</v>
+        <v>20738700</v>
       </c>
       <c r="F89" s="3">
-        <v>22862100</v>
+        <v>22961300</v>
       </c>
       <c r="G89" s="3">
-        <v>15726200</v>
+        <v>15794400</v>
       </c>
       <c r="H89" s="3">
-        <v>6719400</v>
+        <v>6748600</v>
       </c>
       <c r="I89" s="3">
-        <v>8837900</v>
+        <v>8876200</v>
       </c>
       <c r="J89" s="3">
-        <v>21736700</v>
+        <v>21831000</v>
       </c>
       <c r="K89" s="3">
         <v>14853800</v>
@@ -3854,25 +3854,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13483800</v>
+        <v>-13542300</v>
       </c>
       <c r="E94" s="3">
-        <v>-26104900</v>
+        <v>-26218100</v>
       </c>
       <c r="F94" s="3">
-        <v>-11547100</v>
+        <v>-11597200</v>
       </c>
       <c r="G94" s="3">
-        <v>-30135600</v>
+        <v>-30266300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6125700</v>
+        <v>-6152300</v>
       </c>
       <c r="I94" s="3">
-        <v>3471100</v>
+        <v>3486100</v>
       </c>
       <c r="J94" s="3">
-        <v>-29890700</v>
+        <v>-30020400</v>
       </c>
       <c r="K94" s="3">
         <v>-16515700</v>
@@ -3912,25 +3912,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="E96" s="3">
-        <v>-211300</v>
+        <v>-212200</v>
       </c>
       <c r="F96" s="3">
-        <v>-536500</v>
+        <v>-538900</v>
       </c>
       <c r="G96" s="3">
-        <v>-482500</v>
+        <v>-484600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1295800</v>
+        <v>-1301400</v>
       </c>
       <c r="I96" s="3">
-        <v>-300000</v>
+        <v>-301300</v>
       </c>
       <c r="J96" s="3">
-        <v>-789800</v>
+        <v>-793200</v>
       </c>
       <c r="K96" s="3">
         <v>-482500</v>
@@ -4076,25 +4076,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10143700</v>
+        <v>-10187700</v>
       </c>
       <c r="E100" s="3">
-        <v>4846800</v>
+        <v>4867900</v>
       </c>
       <c r="F100" s="3">
-        <v>-10334600</v>
+        <v>-10379400</v>
       </c>
       <c r="G100" s="3">
-        <v>13310700</v>
+        <v>13368400</v>
       </c>
       <c r="H100" s="3">
-        <v>830900</v>
+        <v>834500</v>
       </c>
       <c r="I100" s="3">
-        <v>-12183400</v>
+        <v>-12236300</v>
       </c>
       <c r="J100" s="3">
-        <v>5247500</v>
+        <v>5270300</v>
       </c>
       <c r="K100" s="3">
         <v>894200</v>
@@ -4117,7 +4117,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="E101" s="3">
         <v>7600</v>
@@ -4129,13 +4129,13 @@
         <v>9000</v>
       </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="J101" s="3">
-        <v>-16100</v>
+        <v>-16200</v>
       </c>
       <c r="K101" s="3">
         <v>33500</v>
@@ -4158,25 +4158,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4195900</v>
+        <v>4214100</v>
       </c>
       <c r="E102" s="3">
-        <v>-601300</v>
+        <v>-603900</v>
       </c>
       <c r="F102" s="3">
-        <v>981200</v>
+        <v>985400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1089800</v>
+        <v>-1094500</v>
       </c>
       <c r="H102" s="3">
-        <v>1428000</v>
+        <v>1434100</v>
       </c>
       <c r="I102" s="3">
-        <v>114400</v>
+        <v>114900</v>
       </c>
       <c r="J102" s="3">
-        <v>-2922500</v>
+        <v>-2935200</v>
       </c>
       <c r="K102" s="3">
         <v>-734100</v>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,109 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77780100</v>
+        <v>47971700</v>
       </c>
       <c r="E8" s="3">
-        <v>43431400</v>
+        <v>79424500</v>
       </c>
       <c r="F8" s="3">
-        <v>68993500</v>
+        <v>44349600</v>
       </c>
       <c r="G8" s="3">
-        <v>35546700</v>
+        <v>70452100</v>
       </c>
       <c r="H8" s="3">
-        <v>61563900</v>
+        <v>36298200</v>
       </c>
       <c r="I8" s="3">
-        <v>37929200</v>
+        <v>62865500</v>
       </c>
       <c r="J8" s="3">
+        <v>38731000</v>
+      </c>
+      <c r="K8" s="3">
         <v>60783800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29733100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48597500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26181800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>49176400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +807,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +851,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,8 +913,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,49 +957,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>713200</v>
+        <v>1086000</v>
       </c>
       <c r="E14" s="3">
-        <v>461500</v>
+        <v>728300</v>
       </c>
       <c r="F14" s="3">
-        <v>514300</v>
+        <v>471300</v>
       </c>
       <c r="G14" s="3">
-        <v>1059800</v>
+        <v>525100</v>
       </c>
       <c r="H14" s="3">
-        <v>193700</v>
+        <v>1082200</v>
       </c>
       <c r="I14" s="3">
-        <v>163500</v>
+        <v>197800</v>
       </c>
       <c r="J14" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K14" s="3">
         <v>257700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>245000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>139000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>42000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1023,8 +1045,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72690100</v>
+        <v>45280000</v>
       </c>
       <c r="E17" s="3">
-        <v>40241200</v>
+        <v>74226900</v>
       </c>
       <c r="F17" s="3">
-        <v>63622000</v>
+        <v>41091900</v>
       </c>
       <c r="G17" s="3">
-        <v>36944200</v>
+        <v>64967100</v>
       </c>
       <c r="H17" s="3">
-        <v>58594000</v>
+        <v>37725200</v>
       </c>
       <c r="I17" s="3">
-        <v>34207700</v>
+        <v>59832800</v>
       </c>
       <c r="J17" s="3">
+        <v>34931000</v>
+      </c>
+      <c r="K17" s="3">
         <v>58527100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28451100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46599300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25162000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43031300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5090000</v>
+        <v>2691600</v>
       </c>
       <c r="E18" s="3">
-        <v>3190200</v>
+        <v>5197600</v>
       </c>
       <c r="F18" s="3">
-        <v>5371400</v>
+        <v>3257600</v>
       </c>
       <c r="G18" s="3">
-        <v>-1397500</v>
+        <v>5485000</v>
       </c>
       <c r="H18" s="3">
-        <v>2969900</v>
+        <v>-1427000</v>
       </c>
       <c r="I18" s="3">
-        <v>3721400</v>
+        <v>3032700</v>
       </c>
       <c r="J18" s="3">
+        <v>3800100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2256700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1281900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1998200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1019700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6145100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,90 +1168,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>343400</v>
+        <v>260700</v>
       </c>
       <c r="E20" s="3">
-        <v>3200</v>
+        <v>350700</v>
       </c>
       <c r="F20" s="3">
-        <v>570600</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>247700</v>
+        <v>582700</v>
       </c>
       <c r="H20" s="3">
-        <v>306800</v>
+        <v>252900</v>
       </c>
       <c r="I20" s="3">
-        <v>211400</v>
+        <v>313300</v>
       </c>
       <c r="J20" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K20" s="3">
         <v>176900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>259500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-323200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5821400</v>
+        <v>2965300</v>
       </c>
       <c r="E21" s="3">
-        <v>3242100</v>
+        <v>5944400</v>
       </c>
       <c r="F21" s="3">
-        <v>6252200</v>
+        <v>3310700</v>
       </c>
       <c r="G21" s="3">
-        <v>-1132400</v>
+        <v>6384400</v>
       </c>
       <c r="H21" s="3">
-        <v>3469500</v>
+        <v>-1156300</v>
       </c>
       <c r="I21" s="3">
-        <v>3941400</v>
+        <v>3542800</v>
       </c>
       <c r="J21" s="3">
+        <v>4024700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2600500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1543100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2046600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>694400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6272300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,8 +1283,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1259,90 +1298,99 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5433500</v>
+        <v>2952300</v>
       </c>
       <c r="E23" s="3">
-        <v>3193400</v>
+        <v>5548300</v>
       </c>
       <c r="F23" s="3">
-        <v>5942100</v>
+        <v>3260900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1149800</v>
+        <v>6067700</v>
       </c>
       <c r="H23" s="3">
-        <v>3276700</v>
+        <v>-1174100</v>
       </c>
       <c r="I23" s="3">
-        <v>3932900</v>
+        <v>3345900</v>
       </c>
       <c r="J23" s="3">
+        <v>4016000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2433600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1541500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1898000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>696500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6120100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>687800</v>
+        <v>-218300</v>
       </c>
       <c r="E24" s="3">
-        <v>-28000</v>
+        <v>702400</v>
       </c>
       <c r="F24" s="3">
-        <v>147300</v>
+        <v>-28500</v>
       </c>
       <c r="G24" s="3">
-        <v>-421500</v>
+        <v>150400</v>
       </c>
       <c r="H24" s="3">
-        <v>724800</v>
+        <v>-430400</v>
       </c>
       <c r="I24" s="3">
-        <v>837500</v>
+        <v>740100</v>
       </c>
       <c r="J24" s="3">
+        <v>855200</v>
+      </c>
+      <c r="K24" s="3">
         <v>525100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>243400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>370300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>184000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1410500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4745700</v>
+        <v>3170600</v>
       </c>
       <c r="E26" s="3">
-        <v>3221400</v>
+        <v>4846000</v>
       </c>
       <c r="F26" s="3">
-        <v>5794800</v>
+        <v>3289500</v>
       </c>
       <c r="G26" s="3">
-        <v>-728300</v>
+        <v>5917300</v>
       </c>
       <c r="H26" s="3">
-        <v>2551900</v>
+        <v>-743700</v>
       </c>
       <c r="I26" s="3">
-        <v>3095300</v>
+        <v>2605800</v>
       </c>
       <c r="J26" s="3">
+        <v>3160800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1908500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1298100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1527600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>512500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4709600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4665100</v>
+        <v>3078500</v>
       </c>
       <c r="E27" s="3">
-        <v>3160700</v>
+        <v>4763800</v>
       </c>
       <c r="F27" s="3">
-        <v>5744400</v>
+        <v>3227500</v>
       </c>
       <c r="G27" s="3">
-        <v>-768200</v>
+        <v>5865800</v>
       </c>
       <c r="H27" s="3">
-        <v>2509100</v>
+        <v>-784400</v>
       </c>
       <c r="I27" s="3">
-        <v>3057300</v>
+        <v>2562200</v>
       </c>
       <c r="J27" s="3">
+        <v>3121900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1870300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1268100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1491500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>476400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4673300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1562,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,8 +1606,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-343400</v>
+        <v>-260700</v>
       </c>
       <c r="E32" s="3">
-        <v>-3200</v>
+        <v>-350700</v>
       </c>
       <c r="F32" s="3">
-        <v>-570600</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>-247700</v>
+        <v>-582700</v>
       </c>
       <c r="H32" s="3">
-        <v>-306800</v>
+        <v>-252900</v>
       </c>
       <c r="I32" s="3">
-        <v>-211400</v>
+        <v>-313300</v>
       </c>
       <c r="J32" s="3">
+        <v>-215900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-176900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-259500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>323200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4665100</v>
+        <v>3078500</v>
       </c>
       <c r="E33" s="3">
-        <v>3160700</v>
+        <v>4763800</v>
       </c>
       <c r="F33" s="3">
-        <v>5744400</v>
+        <v>3227500</v>
       </c>
       <c r="G33" s="3">
-        <v>-768200</v>
+        <v>5865800</v>
       </c>
       <c r="H33" s="3">
-        <v>2509100</v>
+        <v>-784400</v>
       </c>
       <c r="I33" s="3">
-        <v>3057300</v>
+        <v>2562200</v>
       </c>
       <c r="J33" s="3">
+        <v>3121900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1870300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1268100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1491500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>476400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4673300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4665100</v>
+        <v>3078500</v>
       </c>
       <c r="E35" s="3">
-        <v>3160700</v>
+        <v>4763800</v>
       </c>
       <c r="F35" s="3">
-        <v>5744400</v>
+        <v>3227500</v>
       </c>
       <c r="G35" s="3">
-        <v>-768200</v>
+        <v>5865800</v>
       </c>
       <c r="H35" s="3">
-        <v>2509100</v>
+        <v>-784400</v>
       </c>
       <c r="I35" s="3">
-        <v>3057300</v>
+        <v>2562200</v>
       </c>
       <c r="J35" s="3">
+        <v>3121900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1870300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1268100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1491500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>476400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4673300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,49 +1957,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12358200</v>
+        <v>8834700</v>
       </c>
       <c r="E41" s="3">
-        <v>8066800</v>
+        <v>12619500</v>
       </c>
       <c r="F41" s="3">
-        <v>8564200</v>
+        <v>8237300</v>
       </c>
       <c r="G41" s="3">
-        <v>7760000</v>
+        <v>8745300</v>
       </c>
       <c r="H41" s="3">
-        <v>8766400</v>
+        <v>7924100</v>
       </c>
       <c r="I41" s="3">
-        <v>7423000</v>
+        <v>8951700</v>
       </c>
       <c r="J41" s="3">
+        <v>7579900</v>
+      </c>
+      <c r="K41" s="3">
         <v>7110800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9347600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10304600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11002400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10970200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1954,49 +2043,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7393800</v>
+        <v>3234100</v>
       </c>
       <c r="E43" s="3">
-        <v>2640200</v>
+        <v>7550100</v>
       </c>
       <c r="F43" s="3">
-        <v>6372500</v>
+        <v>2696000</v>
       </c>
       <c r="G43" s="3">
-        <v>2390700</v>
+        <v>6507200</v>
       </c>
       <c r="H43" s="3">
-        <v>5770300</v>
+        <v>2441200</v>
       </c>
       <c r="I43" s="3">
-        <v>2157400</v>
+        <v>5892300</v>
       </c>
       <c r="J43" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4700600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1949100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3958900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1768000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2036,8 +2131,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2077,8 +2175,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2118,90 +2219,99 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>562284200</v>
+        <v>626891100</v>
       </c>
       <c r="E47" s="3">
-        <v>534951800</v>
+        <v>574171700</v>
       </c>
       <c r="F47" s="3">
-        <v>493776900</v>
+        <v>546261500</v>
       </c>
       <c r="G47" s="3">
-        <v>464014600</v>
+        <v>504216100</v>
       </c>
       <c r="H47" s="3">
-        <v>429662900</v>
+        <v>473824500</v>
       </c>
       <c r="I47" s="3">
-        <v>411763600</v>
+        <v>438746600</v>
       </c>
       <c r="J47" s="3">
+        <v>420468900</v>
+      </c>
+      <c r="K47" s="3">
         <v>407152400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>363243600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>341344500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>334383900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>323344700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10395800</v>
+        <v>10926900</v>
       </c>
       <c r="E48" s="3">
-        <v>10300300</v>
+        <v>10615500</v>
       </c>
       <c r="F48" s="3">
-        <v>9304800</v>
+        <v>10518000</v>
       </c>
       <c r="G48" s="3">
-        <v>8712700</v>
+        <v>9501500</v>
       </c>
       <c r="H48" s="3">
-        <v>7777000</v>
+        <v>8896900</v>
       </c>
       <c r="I48" s="3">
-        <v>6992900</v>
+        <v>7941400</v>
       </c>
       <c r="J48" s="3">
+        <v>7140700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6056400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4586400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4088500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4186800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3925400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2232,17 +2342,20 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,25 +2439,28 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19600</v>
+        <v>13600</v>
       </c>
       <c r="E52" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="F52" s="3">
-        <v>8700</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="3">
-        <v>192000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+        <v>8900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>196100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2355,8 +2474,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2364,8 +2483,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>605930500</v>
+        <v>663418500</v>
       </c>
       <c r="E54" s="3">
-        <v>569370400</v>
+        <v>618740800</v>
       </c>
       <c r="F54" s="3">
-        <v>531653000</v>
+        <v>581407800</v>
       </c>
       <c r="G54" s="3">
-        <v>497207700</v>
+        <v>542893000</v>
       </c>
       <c r="H54" s="3">
-        <v>464936700</v>
+        <v>507719400</v>
       </c>
       <c r="I54" s="3">
-        <v>442694000</v>
+        <v>474766200</v>
       </c>
       <c r="J54" s="3">
+        <v>452053200</v>
+      </c>
+      <c r="K54" s="3">
         <v>439256600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391678200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>371476300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>363354400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>353149800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,8 +2609,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2521,8 +2651,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2562,49 +2695,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>502065800</v>
+        <v>551872400</v>
       </c>
       <c r="E59" s="3">
-        <v>472691800</v>
+        <v>512680200</v>
       </c>
       <c r="F59" s="3">
-        <v>443122700</v>
+        <v>482685300</v>
       </c>
       <c r="G59" s="3">
-        <v>425210000</v>
+        <v>452490900</v>
       </c>
       <c r="H59" s="3">
-        <v>393245900</v>
+        <v>434199500</v>
       </c>
       <c r="I59" s="3">
-        <v>372749100</v>
+        <v>401559800</v>
       </c>
       <c r="J59" s="3">
+        <v>380629600</v>
+      </c>
+      <c r="K59" s="3">
         <v>370714600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>324942400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>304183500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>293381600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>285046800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2644,90 +2783,99 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8908900</v>
+        <v>8925600</v>
       </c>
       <c r="E61" s="3">
-        <v>8880500</v>
+        <v>9097300</v>
       </c>
       <c r="F61" s="3">
-        <v>8813700</v>
+        <v>9068200</v>
       </c>
       <c r="G61" s="3">
-        <v>3078500</v>
+        <v>9000100</v>
       </c>
       <c r="H61" s="3">
-        <v>2987900</v>
+        <v>3143600</v>
       </c>
       <c r="I61" s="3">
-        <v>2871300</v>
+        <v>3051100</v>
       </c>
       <c r="J61" s="3">
+        <v>2932100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3993200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7866800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10107900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10483200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10484000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1550900</v>
+        <v>2384800</v>
       </c>
       <c r="E62" s="3">
-        <v>1578200</v>
+        <v>1583700</v>
       </c>
       <c r="F62" s="3">
-        <v>1269900</v>
+        <v>1611600</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1296800</v>
       </c>
       <c r="H62" s="3">
-        <v>476800</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>744200</v>
+        <v>486900</v>
       </c>
       <c r="J62" s="3">
+        <v>759900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1440100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1128100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1649300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2516000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2839200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>542388400</v>
+        <v>593206000</v>
       </c>
       <c r="E66" s="3">
-        <v>507683400</v>
+        <v>553855300</v>
       </c>
       <c r="F66" s="3">
-        <v>475363700</v>
+        <v>518416500</v>
       </c>
       <c r="G66" s="3">
-        <v>448567000</v>
+        <v>485413600</v>
       </c>
       <c r="H66" s="3">
-        <v>415587600</v>
+        <v>458050400</v>
       </c>
       <c r="I66" s="3">
-        <v>393661800</v>
+        <v>424373700</v>
       </c>
       <c r="J66" s="3">
+        <v>401984400</v>
+      </c>
+      <c r="K66" s="3">
         <v>392109400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>347583300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>328009300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>315493400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>307002100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +3153,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3030,8 +3197,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58033500</v>
+        <v>65802800</v>
       </c>
       <c r="E72" s="3">
-        <v>56178400</v>
+        <v>59260400</v>
       </c>
       <c r="F72" s="3">
-        <v>50780700</v>
+        <v>57366100</v>
       </c>
       <c r="G72" s="3">
-        <v>43132100</v>
+        <v>51854300</v>
       </c>
       <c r="H72" s="3">
-        <v>43840500</v>
+        <v>44044000</v>
       </c>
       <c r="I72" s="3">
-        <v>43523500</v>
+        <v>44767400</v>
       </c>
       <c r="J72" s="3">
+        <v>44443700</v>
+      </c>
+      <c r="K72" s="3">
         <v>41638500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38858500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38293700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42510000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41952800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63542100</v>
+        <v>70212500</v>
       </c>
       <c r="E76" s="3">
-        <v>61687100</v>
+        <v>64885500</v>
       </c>
       <c r="F76" s="3">
-        <v>56289300</v>
+        <v>62991200</v>
       </c>
       <c r="G76" s="3">
-        <v>48640700</v>
+        <v>57479400</v>
       </c>
       <c r="H76" s="3">
-        <v>49349200</v>
+        <v>49669100</v>
       </c>
       <c r="I76" s="3">
-        <v>49032100</v>
+        <v>50392500</v>
       </c>
       <c r="J76" s="3">
+        <v>50068800</v>
+      </c>
+      <c r="K76" s="3">
         <v>47147100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44094900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43467000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47861000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46147600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4665100</v>
+        <v>3078500</v>
       </c>
       <c r="E81" s="3">
-        <v>3160700</v>
+        <v>4763800</v>
       </c>
       <c r="F81" s="3">
-        <v>5744400</v>
+        <v>3227500</v>
       </c>
       <c r="G81" s="3">
-        <v>-768200</v>
+        <v>5865800</v>
       </c>
       <c r="H81" s="3">
-        <v>2509100</v>
+        <v>-784400</v>
       </c>
       <c r="I81" s="3">
-        <v>3057300</v>
+        <v>2562200</v>
       </c>
       <c r="J81" s="3">
+        <v>3121900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1870300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1268100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1491500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>476400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4673300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,8 +3618,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3462,8 +3660,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,49 +3880,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27927000</v>
+        <v>18913400</v>
       </c>
       <c r="E89" s="3">
-        <v>20738700</v>
+        <v>28517400</v>
       </c>
       <c r="F89" s="3">
-        <v>22961300</v>
+        <v>21177100</v>
       </c>
       <c r="G89" s="3">
-        <v>15794400</v>
+        <v>23446700</v>
       </c>
       <c r="H89" s="3">
-        <v>6748600</v>
+        <v>16128300</v>
       </c>
       <c r="I89" s="3">
-        <v>8876200</v>
+        <v>6891300</v>
       </c>
       <c r="J89" s="3">
+        <v>9063900</v>
+      </c>
+      <c r="K89" s="3">
         <v>21831000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14853800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1891100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6494300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3702500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,8 +3944,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3766,8 +3986,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,49 +4074,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13542300</v>
+        <v>-31850700</v>
       </c>
       <c r="E94" s="3">
-        <v>-26218100</v>
+        <v>-13828600</v>
       </c>
       <c r="F94" s="3">
-        <v>-11597200</v>
+        <v>-26772400</v>
       </c>
       <c r="G94" s="3">
-        <v>-30266300</v>
+        <v>-11842400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6152300</v>
+        <v>-30906200</v>
       </c>
       <c r="I94" s="3">
-        <v>3486100</v>
+        <v>-6282400</v>
       </c>
       <c r="J94" s="3">
+        <v>3559800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30020400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16515700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1293900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7794600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2155800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,49 +4138,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30700</v>
+        <v>-3219000</v>
       </c>
       <c r="E96" s="3">
-        <v>-212200</v>
+        <v>-31400</v>
       </c>
       <c r="F96" s="3">
-        <v>-538900</v>
+        <v>-216700</v>
       </c>
       <c r="G96" s="3">
-        <v>-484600</v>
+        <v>-550200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1301400</v>
+        <v>-494900</v>
       </c>
       <c r="I96" s="3">
-        <v>-301300</v>
+        <v>-1328900</v>
       </c>
       <c r="J96" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-793200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-482500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1282000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-469100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1236300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,127 +4312,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10187700</v>
+        <v>9192400</v>
       </c>
       <c r="E100" s="3">
-        <v>4867900</v>
+        <v>-10403100</v>
       </c>
       <c r="F100" s="3">
-        <v>-10379400</v>
+        <v>4970800</v>
       </c>
       <c r="G100" s="3">
-        <v>13368400</v>
+        <v>-10598900</v>
       </c>
       <c r="H100" s="3">
-        <v>834500</v>
+        <v>13651000</v>
       </c>
       <c r="I100" s="3">
-        <v>-12236300</v>
+        <v>852100</v>
       </c>
       <c r="J100" s="3">
+        <v>-12495000</v>
+      </c>
+      <c r="K100" s="3">
         <v>5270300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>894200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1228500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1652800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17100</v>
+        <v>-39900</v>
       </c>
       <c r="E101" s="3">
-        <v>7600</v>
+        <v>17500</v>
       </c>
       <c r="F101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>9000</v>
-      </c>
       <c r="H101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I101" s="3">
         <v>3400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-11200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>33500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4214100</v>
+        <v>-3784800</v>
       </c>
       <c r="E102" s="3">
-        <v>-603900</v>
+        <v>4303200</v>
       </c>
       <c r="F102" s="3">
-        <v>985400</v>
+        <v>-616700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1094500</v>
+        <v>1006300</v>
       </c>
       <c r="H102" s="3">
-        <v>1434100</v>
+        <v>-1117700</v>
       </c>
       <c r="I102" s="3">
-        <v>114900</v>
+        <v>1464500</v>
       </c>
       <c r="J102" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2935200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-734100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-573200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>107900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4205200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>559600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47971700</v>
+        <v>47347500</v>
       </c>
       <c r="E8" s="3">
-        <v>79424500</v>
+        <v>78391100</v>
       </c>
       <c r="F8" s="3">
-        <v>44349600</v>
+        <v>43772500</v>
       </c>
       <c r="G8" s="3">
-        <v>70452100</v>
+        <v>69535400</v>
       </c>
       <c r="H8" s="3">
-        <v>36298200</v>
+        <v>35825900</v>
       </c>
       <c r="I8" s="3">
-        <v>62865500</v>
+        <v>62047500</v>
       </c>
       <c r="J8" s="3">
-        <v>38731000</v>
+        <v>38227100</v>
       </c>
       <c r="K8" s="3">
         <v>60783800</v>
@@ -966,25 +966,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1086000</v>
+        <v>1071900</v>
       </c>
       <c r="E14" s="3">
-        <v>728300</v>
+        <v>718800</v>
       </c>
       <c r="F14" s="3">
-        <v>471300</v>
+        <v>465200</v>
       </c>
       <c r="G14" s="3">
-        <v>525100</v>
+        <v>518300</v>
       </c>
       <c r="H14" s="3">
-        <v>1082200</v>
+        <v>1068200</v>
       </c>
       <c r="I14" s="3">
-        <v>197800</v>
+        <v>195200</v>
       </c>
       <c r="J14" s="3">
-        <v>166900</v>
+        <v>164800</v>
       </c>
       <c r="K14" s="3">
         <v>257700</v>
@@ -1069,25 +1069,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45280000</v>
+        <v>44690800</v>
       </c>
       <c r="E17" s="3">
-        <v>74226900</v>
+        <v>73261100</v>
       </c>
       <c r="F17" s="3">
-        <v>41091900</v>
+        <v>40557300</v>
       </c>
       <c r="G17" s="3">
-        <v>64967100</v>
+        <v>64121700</v>
       </c>
       <c r="H17" s="3">
-        <v>37725200</v>
+        <v>37234400</v>
       </c>
       <c r="I17" s="3">
-        <v>59832800</v>
+        <v>59054300</v>
       </c>
       <c r="J17" s="3">
-        <v>34931000</v>
+        <v>34476400</v>
       </c>
       <c r="K17" s="3">
         <v>58527100</v>
@@ -1113,25 +1113,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2691600</v>
+        <v>2656600</v>
       </c>
       <c r="E18" s="3">
-        <v>5197600</v>
+        <v>5130000</v>
       </c>
       <c r="F18" s="3">
-        <v>3257600</v>
+        <v>3215300</v>
       </c>
       <c r="G18" s="3">
-        <v>5485000</v>
+        <v>5413600</v>
       </c>
       <c r="H18" s="3">
-        <v>-1427000</v>
+        <v>-1408500</v>
       </c>
       <c r="I18" s="3">
-        <v>3032700</v>
+        <v>2993200</v>
       </c>
       <c r="J18" s="3">
-        <v>3800100</v>
+        <v>3750600</v>
       </c>
       <c r="K18" s="3">
         <v>2256700</v>
@@ -1175,25 +1175,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>260700</v>
+        <v>257300</v>
       </c>
       <c r="E20" s="3">
-        <v>350700</v>
+        <v>346100</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>582700</v>
+        <v>575100</v>
       </c>
       <c r="H20" s="3">
-        <v>252900</v>
+        <v>249600</v>
       </c>
       <c r="I20" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="J20" s="3">
-        <v>215900</v>
+        <v>213100</v>
       </c>
       <c r="K20" s="3">
         <v>176900</v>
@@ -1219,25 +1219,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2965300</v>
+        <v>2926700</v>
       </c>
       <c r="E21" s="3">
-        <v>5944400</v>
+        <v>5867100</v>
       </c>
       <c r="F21" s="3">
-        <v>3310700</v>
+        <v>3267600</v>
       </c>
       <c r="G21" s="3">
-        <v>6384400</v>
+        <v>6301300</v>
       </c>
       <c r="H21" s="3">
-        <v>-1156300</v>
+        <v>-1141300</v>
       </c>
       <c r="I21" s="3">
-        <v>3542800</v>
+        <v>3496700</v>
       </c>
       <c r="J21" s="3">
-        <v>4024700</v>
+        <v>3972400</v>
       </c>
       <c r="K21" s="3">
         <v>2600500</v>
@@ -1307,25 +1307,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2952300</v>
+        <v>2913900</v>
       </c>
       <c r="E23" s="3">
-        <v>5548300</v>
+        <v>5476100</v>
       </c>
       <c r="F23" s="3">
-        <v>3260900</v>
+        <v>3218500</v>
       </c>
       <c r="G23" s="3">
-        <v>6067700</v>
+        <v>5988700</v>
       </c>
       <c r="H23" s="3">
-        <v>-1174100</v>
+        <v>-1158900</v>
       </c>
       <c r="I23" s="3">
-        <v>3345900</v>
+        <v>3302400</v>
       </c>
       <c r="J23" s="3">
-        <v>4016000</v>
+        <v>3963800</v>
       </c>
       <c r="K23" s="3">
         <v>2433600</v>
@@ -1351,25 +1351,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-218300</v>
+        <v>-215400</v>
       </c>
       <c r="E24" s="3">
-        <v>702400</v>
+        <v>693200</v>
       </c>
       <c r="F24" s="3">
-        <v>-28500</v>
+        <v>-28200</v>
       </c>
       <c r="G24" s="3">
-        <v>150400</v>
+        <v>148400</v>
       </c>
       <c r="H24" s="3">
-        <v>-430400</v>
+        <v>-424800</v>
       </c>
       <c r="I24" s="3">
-        <v>740100</v>
+        <v>730500</v>
       </c>
       <c r="J24" s="3">
-        <v>855200</v>
+        <v>844100</v>
       </c>
       <c r="K24" s="3">
         <v>525100</v>
@@ -1439,25 +1439,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3170600</v>
+        <v>3129300</v>
       </c>
       <c r="E26" s="3">
-        <v>4846000</v>
+        <v>4782900</v>
       </c>
       <c r="F26" s="3">
-        <v>3289500</v>
+        <v>3246700</v>
       </c>
       <c r="G26" s="3">
-        <v>5917300</v>
+        <v>5840300</v>
       </c>
       <c r="H26" s="3">
-        <v>-743700</v>
+        <v>-734000</v>
       </c>
       <c r="I26" s="3">
-        <v>2605800</v>
+        <v>2571900</v>
       </c>
       <c r="J26" s="3">
-        <v>3160800</v>
+        <v>3119600</v>
       </c>
       <c r="K26" s="3">
         <v>1908500</v>
@@ -1483,25 +1483,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3078500</v>
+        <v>3038500</v>
       </c>
       <c r="E27" s="3">
-        <v>4763800</v>
+        <v>4701800</v>
       </c>
       <c r="F27" s="3">
-        <v>3227500</v>
+        <v>3185500</v>
       </c>
       <c r="G27" s="3">
-        <v>5865800</v>
+        <v>5789500</v>
       </c>
       <c r="H27" s="3">
-        <v>-784400</v>
+        <v>-774200</v>
       </c>
       <c r="I27" s="3">
-        <v>2562200</v>
+        <v>2528800</v>
       </c>
       <c r="J27" s="3">
-        <v>3121900</v>
+        <v>3081300</v>
       </c>
       <c r="K27" s="3">
         <v>1870300</v>
@@ -1703,25 +1703,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-260700</v>
+        <v>-257300</v>
       </c>
       <c r="E32" s="3">
-        <v>-350700</v>
+        <v>-346100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-582700</v>
+        <v>-575100</v>
       </c>
       <c r="H32" s="3">
-        <v>-252900</v>
+        <v>-249600</v>
       </c>
       <c r="I32" s="3">
-        <v>-313300</v>
+        <v>-309200</v>
       </c>
       <c r="J32" s="3">
-        <v>-215900</v>
+        <v>-213100</v>
       </c>
       <c r="K32" s="3">
         <v>-176900</v>
@@ -1747,25 +1747,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3078500</v>
+        <v>3038500</v>
       </c>
       <c r="E33" s="3">
-        <v>4763800</v>
+        <v>4701800</v>
       </c>
       <c r="F33" s="3">
-        <v>3227500</v>
+        <v>3185500</v>
       </c>
       <c r="G33" s="3">
-        <v>5865800</v>
+        <v>5789500</v>
       </c>
       <c r="H33" s="3">
-        <v>-784400</v>
+        <v>-774200</v>
       </c>
       <c r="I33" s="3">
-        <v>2562200</v>
+        <v>2528800</v>
       </c>
       <c r="J33" s="3">
-        <v>3121900</v>
+        <v>3081300</v>
       </c>
       <c r="K33" s="3">
         <v>1870300</v>
@@ -1835,25 +1835,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3078500</v>
+        <v>3038500</v>
       </c>
       <c r="E35" s="3">
-        <v>4763800</v>
+        <v>4701800</v>
       </c>
       <c r="F35" s="3">
-        <v>3227500</v>
+        <v>3185500</v>
       </c>
       <c r="G35" s="3">
-        <v>5865800</v>
+        <v>5789500</v>
       </c>
       <c r="H35" s="3">
-        <v>-784400</v>
+        <v>-774200</v>
       </c>
       <c r="I35" s="3">
-        <v>2562200</v>
+        <v>2528800</v>
       </c>
       <c r="J35" s="3">
-        <v>3121900</v>
+        <v>3081300</v>
       </c>
       <c r="K35" s="3">
         <v>1870300</v>
@@ -1964,25 +1964,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8834700</v>
+        <v>8719700</v>
       </c>
       <c r="E41" s="3">
-        <v>12619500</v>
+        <v>12455300</v>
       </c>
       <c r="F41" s="3">
-        <v>8237300</v>
+        <v>8130100</v>
       </c>
       <c r="G41" s="3">
-        <v>8745300</v>
+        <v>8631500</v>
       </c>
       <c r="H41" s="3">
-        <v>7924100</v>
+        <v>7821000</v>
       </c>
       <c r="I41" s="3">
-        <v>8951700</v>
+        <v>8835200</v>
       </c>
       <c r="J41" s="3">
-        <v>7579900</v>
+        <v>7481300</v>
       </c>
       <c r="K41" s="3">
         <v>7110800</v>
@@ -2052,25 +2052,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3234100</v>
+        <v>3192000</v>
       </c>
       <c r="E43" s="3">
-        <v>7550100</v>
+        <v>7451900</v>
       </c>
       <c r="F43" s="3">
-        <v>2696000</v>
+        <v>2660900</v>
       </c>
       <c r="G43" s="3">
-        <v>6507200</v>
+        <v>6422500</v>
       </c>
       <c r="H43" s="3">
-        <v>2441200</v>
+        <v>2409500</v>
       </c>
       <c r="I43" s="3">
-        <v>5892300</v>
+        <v>5815700</v>
       </c>
       <c r="J43" s="3">
-        <v>2203000</v>
+        <v>2174400</v>
       </c>
       <c r="K43" s="3">
         <v>4700600</v>
@@ -2228,25 +2228,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>626891100</v>
+        <v>618734000</v>
       </c>
       <c r="E47" s="3">
-        <v>574171700</v>
+        <v>566700600</v>
       </c>
       <c r="F47" s="3">
-        <v>546261500</v>
+        <v>539153600</v>
       </c>
       <c r="G47" s="3">
-        <v>504216100</v>
+        <v>497655200</v>
       </c>
       <c r="H47" s="3">
-        <v>473824500</v>
+        <v>467659100</v>
       </c>
       <c r="I47" s="3">
-        <v>438746600</v>
+        <v>433037600</v>
       </c>
       <c r="J47" s="3">
-        <v>420468900</v>
+        <v>414997800</v>
       </c>
       <c r="K47" s="3">
         <v>407152400</v>
@@ -2272,25 +2272,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10926900</v>
+        <v>10784800</v>
       </c>
       <c r="E48" s="3">
-        <v>10615500</v>
+        <v>10477400</v>
       </c>
       <c r="F48" s="3">
-        <v>10518000</v>
+        <v>10381200</v>
       </c>
       <c r="G48" s="3">
-        <v>9501500</v>
+        <v>9377800</v>
       </c>
       <c r="H48" s="3">
-        <v>8896900</v>
+        <v>8781200</v>
       </c>
       <c r="I48" s="3">
-        <v>7941400</v>
+        <v>7838000</v>
       </c>
       <c r="J48" s="3">
-        <v>7140700</v>
+        <v>7047800</v>
       </c>
       <c r="K48" s="3">
         <v>6056400</v>
@@ -2448,19 +2448,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="E52" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="F52" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="G52" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H52" s="3">
-        <v>196100</v>
+        <v>193600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2536,25 +2536,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>663418500</v>
+        <v>654786100</v>
       </c>
       <c r="E54" s="3">
-        <v>618740800</v>
+        <v>610689800</v>
       </c>
       <c r="F54" s="3">
-        <v>581407800</v>
+        <v>573842500</v>
       </c>
       <c r="G54" s="3">
-        <v>542893000</v>
+        <v>535828800</v>
       </c>
       <c r="H54" s="3">
-        <v>507719400</v>
+        <v>501113000</v>
       </c>
       <c r="I54" s="3">
-        <v>474766200</v>
+        <v>468588500</v>
       </c>
       <c r="J54" s="3">
-        <v>452053200</v>
+        <v>446171100</v>
       </c>
       <c r="K54" s="3">
         <v>439256600</v>
@@ -2704,25 +2704,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>551872400</v>
+        <v>544691500</v>
       </c>
       <c r="E59" s="3">
-        <v>512680200</v>
+        <v>506009200</v>
       </c>
       <c r="F59" s="3">
-        <v>482685300</v>
+        <v>476404600</v>
       </c>
       <c r="G59" s="3">
-        <v>452490900</v>
+        <v>446603100</v>
       </c>
       <c r="H59" s="3">
-        <v>434199500</v>
+        <v>428549700</v>
       </c>
       <c r="I59" s="3">
-        <v>401559800</v>
+        <v>396334700</v>
       </c>
       <c r="J59" s="3">
-        <v>380629600</v>
+        <v>375676900</v>
       </c>
       <c r="K59" s="3">
         <v>370714600</v>
@@ -2792,25 +2792,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8925600</v>
+        <v>8809500</v>
       </c>
       <c r="E61" s="3">
-        <v>9097300</v>
+        <v>8978900</v>
       </c>
       <c r="F61" s="3">
-        <v>9068200</v>
+        <v>8950200</v>
       </c>
       <c r="G61" s="3">
-        <v>9000100</v>
+        <v>8883000</v>
       </c>
       <c r="H61" s="3">
-        <v>3143600</v>
+        <v>3102700</v>
       </c>
       <c r="I61" s="3">
-        <v>3051100</v>
+        <v>3011400</v>
       </c>
       <c r="J61" s="3">
-        <v>2932100</v>
+        <v>2893900</v>
       </c>
       <c r="K61" s="3">
         <v>3993200</v>
@@ -2836,25 +2836,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2384800</v>
+        <v>2353700</v>
       </c>
       <c r="E62" s="3">
-        <v>1583700</v>
+        <v>1563100</v>
       </c>
       <c r="F62" s="3">
-        <v>1611600</v>
+        <v>1590600</v>
       </c>
       <c r="G62" s="3">
-        <v>1296800</v>
+        <v>1279900</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>486900</v>
+        <v>480600</v>
       </c>
       <c r="J62" s="3">
-        <v>759900</v>
+        <v>750000</v>
       </c>
       <c r="K62" s="3">
         <v>1440100</v>
@@ -3012,25 +3012,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>593206000</v>
+        <v>585487200</v>
       </c>
       <c r="E66" s="3">
-        <v>553855300</v>
+        <v>546648600</v>
       </c>
       <c r="F66" s="3">
-        <v>518416500</v>
+        <v>511670900</v>
       </c>
       <c r="G66" s="3">
-        <v>485413600</v>
+        <v>479097400</v>
       </c>
       <c r="H66" s="3">
-        <v>458050400</v>
+        <v>452090200</v>
       </c>
       <c r="I66" s="3">
-        <v>424373700</v>
+        <v>418851800</v>
       </c>
       <c r="J66" s="3">
-        <v>401984400</v>
+        <v>396753800</v>
       </c>
       <c r="K66" s="3">
         <v>392109400</v>
@@ -3250,25 +3250,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65802800</v>
+        <v>64946600</v>
       </c>
       <c r="E72" s="3">
-        <v>59260400</v>
+        <v>58489300</v>
       </c>
       <c r="F72" s="3">
-        <v>57366100</v>
+        <v>56619700</v>
       </c>
       <c r="G72" s="3">
-        <v>51854300</v>
+        <v>51179600</v>
       </c>
       <c r="H72" s="3">
-        <v>44044000</v>
+        <v>43470900</v>
       </c>
       <c r="I72" s="3">
-        <v>44767400</v>
+        <v>44184900</v>
       </c>
       <c r="J72" s="3">
-        <v>44443700</v>
+        <v>43865400</v>
       </c>
       <c r="K72" s="3">
         <v>41638500</v>
@@ -3426,25 +3426,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70212500</v>
+        <v>69298900</v>
       </c>
       <c r="E76" s="3">
-        <v>64885500</v>
+        <v>64041200</v>
       </c>
       <c r="F76" s="3">
-        <v>62991200</v>
+        <v>62171600</v>
       </c>
       <c r="G76" s="3">
-        <v>57479400</v>
+        <v>56731500</v>
       </c>
       <c r="H76" s="3">
-        <v>49669100</v>
+        <v>49022800</v>
       </c>
       <c r="I76" s="3">
-        <v>50392500</v>
+        <v>49736800</v>
       </c>
       <c r="J76" s="3">
-        <v>50068800</v>
+        <v>49417300</v>
       </c>
       <c r="K76" s="3">
         <v>47147100</v>
@@ -3563,25 +3563,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3078500</v>
+        <v>3038500</v>
       </c>
       <c r="E81" s="3">
-        <v>4763800</v>
+        <v>4701800</v>
       </c>
       <c r="F81" s="3">
-        <v>3227500</v>
+        <v>3185500</v>
       </c>
       <c r="G81" s="3">
-        <v>5865800</v>
+        <v>5789500</v>
       </c>
       <c r="H81" s="3">
-        <v>-784400</v>
+        <v>-774200</v>
       </c>
       <c r="I81" s="3">
-        <v>2562200</v>
+        <v>2528800</v>
       </c>
       <c r="J81" s="3">
-        <v>3121900</v>
+        <v>3081300</v>
       </c>
       <c r="K81" s="3">
         <v>1870300</v>
@@ -3889,25 +3889,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18913400</v>
+        <v>18667300</v>
       </c>
       <c r="E89" s="3">
-        <v>28517400</v>
+        <v>28146300</v>
       </c>
       <c r="F89" s="3">
-        <v>21177100</v>
+        <v>20901600</v>
       </c>
       <c r="G89" s="3">
-        <v>23446700</v>
+        <v>23141700</v>
       </c>
       <c r="H89" s="3">
-        <v>16128300</v>
+        <v>15918500</v>
       </c>
       <c r="I89" s="3">
-        <v>6891300</v>
+        <v>6801600</v>
       </c>
       <c r="J89" s="3">
-        <v>9063900</v>
+        <v>8945900</v>
       </c>
       <c r="K89" s="3">
         <v>21831000</v>
@@ -4083,25 +4083,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31850700</v>
+        <v>-31436200</v>
       </c>
       <c r="E94" s="3">
-        <v>-13828600</v>
+        <v>-13648600</v>
       </c>
       <c r="F94" s="3">
-        <v>-26772400</v>
+        <v>-26424000</v>
       </c>
       <c r="G94" s="3">
-        <v>-11842400</v>
+        <v>-11688300</v>
       </c>
       <c r="H94" s="3">
-        <v>-30906200</v>
+        <v>-30504100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6282400</v>
+        <v>-6200600</v>
       </c>
       <c r="J94" s="3">
-        <v>3559800</v>
+        <v>3513500</v>
       </c>
       <c r="K94" s="3">
         <v>-30020400</v>
@@ -4145,25 +4145,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3219000</v>
+        <v>-3177100</v>
       </c>
       <c r="E96" s="3">
-        <v>-31400</v>
+        <v>-30900</v>
       </c>
       <c r="F96" s="3">
-        <v>-216700</v>
+        <v>-213900</v>
       </c>
       <c r="G96" s="3">
-        <v>-550200</v>
+        <v>-543100</v>
       </c>
       <c r="H96" s="3">
-        <v>-494900</v>
+        <v>-488400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1328900</v>
+        <v>-1311600</v>
       </c>
       <c r="J96" s="3">
-        <v>-307700</v>
+        <v>-303600</v>
       </c>
       <c r="K96" s="3">
         <v>-793200</v>
@@ -4321,25 +4321,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9192400</v>
+        <v>9072800</v>
       </c>
       <c r="E100" s="3">
-        <v>-10403100</v>
+        <v>-10267700</v>
       </c>
       <c r="F100" s="3">
-        <v>4970800</v>
+        <v>4906100</v>
       </c>
       <c r="G100" s="3">
-        <v>-10598900</v>
+        <v>-10460900</v>
       </c>
       <c r="H100" s="3">
-        <v>13651000</v>
+        <v>13473400</v>
       </c>
       <c r="I100" s="3">
-        <v>852100</v>
+        <v>841000</v>
       </c>
       <c r="J100" s="3">
-        <v>-12495000</v>
+        <v>-12332400</v>
       </c>
       <c r="K100" s="3">
         <v>5270300</v>
@@ -4365,25 +4365,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39900</v>
+        <v>-39400</v>
       </c>
       <c r="E101" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="I101" s="3">
         <v>3400</v>
       </c>
       <c r="J101" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="K101" s="3">
         <v>-16200</v>
@@ -4409,25 +4409,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3784800</v>
+        <v>-3735600</v>
       </c>
       <c r="E102" s="3">
-        <v>4303200</v>
+        <v>4247200</v>
       </c>
       <c r="F102" s="3">
-        <v>-616700</v>
+        <v>-608700</v>
       </c>
       <c r="G102" s="3">
-        <v>1006300</v>
+        <v>993200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1117700</v>
+        <v>-1103100</v>
       </c>
       <c r="I102" s="3">
-        <v>1464500</v>
+        <v>1445400</v>
       </c>
       <c r="J102" s="3">
-        <v>117300</v>
+        <v>115800</v>
       </c>
       <c r="K102" s="3">
         <v>-2935200</v>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,115 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47347500</v>
+        <v>85279600</v>
       </c>
       <c r="E8" s="3">
-        <v>78391100</v>
+        <v>48140800</v>
       </c>
       <c r="F8" s="3">
-        <v>43772500</v>
+        <v>79704500</v>
       </c>
       <c r="G8" s="3">
-        <v>69535400</v>
+        <v>44505900</v>
       </c>
       <c r="H8" s="3">
-        <v>35825900</v>
+        <v>70700500</v>
       </c>
       <c r="I8" s="3">
-        <v>62047500</v>
+        <v>36426200</v>
       </c>
       <c r="J8" s="3">
+        <v>63087100</v>
+      </c>
+      <c r="K8" s="3">
         <v>38227100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60783800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29733100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48597500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26181800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>49176400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +863,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,52 +976,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1071900</v>
+        <v>1190500</v>
       </c>
       <c r="E14" s="3">
-        <v>718800</v>
+        <v>1089800</v>
       </c>
       <c r="F14" s="3">
-        <v>465200</v>
+        <v>730800</v>
       </c>
       <c r="G14" s="3">
-        <v>518300</v>
+        <v>473000</v>
       </c>
       <c r="H14" s="3">
-        <v>1068200</v>
+        <v>527000</v>
       </c>
       <c r="I14" s="3">
-        <v>195200</v>
+        <v>1086100</v>
       </c>
       <c r="J14" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K14" s="3">
         <v>164800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>257700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>245000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>139000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1070,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44690800</v>
+        <v>78921300</v>
       </c>
       <c r="E17" s="3">
-        <v>73261100</v>
+        <v>45439700</v>
       </c>
       <c r="F17" s="3">
-        <v>40557300</v>
+        <v>74488600</v>
       </c>
       <c r="G17" s="3">
-        <v>64121700</v>
+        <v>41236800</v>
       </c>
       <c r="H17" s="3">
-        <v>37234400</v>
+        <v>65196100</v>
       </c>
       <c r="I17" s="3">
-        <v>59054300</v>
+        <v>37858200</v>
       </c>
       <c r="J17" s="3">
+        <v>60043700</v>
+      </c>
+      <c r="K17" s="3">
         <v>34476400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58527100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28451100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46599300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25162000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43031300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2656600</v>
+        <v>6358400</v>
       </c>
       <c r="E18" s="3">
-        <v>5130000</v>
+        <v>2701100</v>
       </c>
       <c r="F18" s="3">
-        <v>3215300</v>
+        <v>5216000</v>
       </c>
       <c r="G18" s="3">
-        <v>5413600</v>
+        <v>3269100</v>
       </c>
       <c r="H18" s="3">
-        <v>-1408500</v>
+        <v>5504300</v>
       </c>
       <c r="I18" s="3">
-        <v>2993200</v>
+        <v>-1432100</v>
       </c>
       <c r="J18" s="3">
+        <v>3043400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3750600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2256700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1281900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1998200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1019700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6145100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1201,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>257300</v>
+        <v>859500</v>
       </c>
       <c r="E20" s="3">
-        <v>346100</v>
+        <v>261600</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>351900</v>
       </c>
       <c r="G20" s="3">
-        <v>575100</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="3">
-        <v>249600</v>
+        <v>584800</v>
       </c>
       <c r="I20" s="3">
-        <v>309200</v>
+        <v>253800</v>
       </c>
       <c r="J20" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K20" s="3">
         <v>213100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>176900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>259500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-323200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2926700</v>
+        <v>7634500</v>
       </c>
       <c r="E21" s="3">
-        <v>5867100</v>
+        <v>2975700</v>
       </c>
       <c r="F21" s="3">
-        <v>3267600</v>
+        <v>5965400</v>
       </c>
       <c r="G21" s="3">
-        <v>6301300</v>
+        <v>3322400</v>
       </c>
       <c r="H21" s="3">
-        <v>-1141300</v>
+        <v>6406900</v>
       </c>
       <c r="I21" s="3">
-        <v>3496700</v>
+        <v>-1160400</v>
       </c>
       <c r="J21" s="3">
+        <v>3555300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3972400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1543100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2046600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>694400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6272300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,8 +1325,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1301,96 +1340,105 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2913900</v>
+        <v>7217900</v>
       </c>
       <c r="E23" s="3">
-        <v>5476100</v>
+        <v>2962700</v>
       </c>
       <c r="F23" s="3">
-        <v>3218500</v>
+        <v>5567900</v>
       </c>
       <c r="G23" s="3">
-        <v>5988700</v>
+        <v>3272400</v>
       </c>
       <c r="H23" s="3">
-        <v>-1158900</v>
+        <v>6089100</v>
       </c>
       <c r="I23" s="3">
-        <v>3302400</v>
+        <v>-1178300</v>
       </c>
       <c r="J23" s="3">
+        <v>3357700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3963800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2433600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1541500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1898000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>696500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6120100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-215400</v>
+        <v>684500</v>
       </c>
       <c r="E24" s="3">
-        <v>693200</v>
+        <v>-219000</v>
       </c>
       <c r="F24" s="3">
-        <v>-28200</v>
+        <v>704800</v>
       </c>
       <c r="G24" s="3">
-        <v>148400</v>
+        <v>-28700</v>
       </c>
       <c r="H24" s="3">
-        <v>-424800</v>
+        <v>150900</v>
       </c>
       <c r="I24" s="3">
-        <v>730500</v>
+        <v>-431900</v>
       </c>
       <c r="J24" s="3">
+        <v>742700</v>
+      </c>
+      <c r="K24" s="3">
         <v>844100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>525100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>243400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>370300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>184000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1410500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3129300</v>
+        <v>6533400</v>
       </c>
       <c r="E26" s="3">
-        <v>4782900</v>
+        <v>3181800</v>
       </c>
       <c r="F26" s="3">
-        <v>3246700</v>
+        <v>4863100</v>
       </c>
       <c r="G26" s="3">
-        <v>5840300</v>
+        <v>3301100</v>
       </c>
       <c r="H26" s="3">
-        <v>-734000</v>
+        <v>5938200</v>
       </c>
       <c r="I26" s="3">
-        <v>2571900</v>
+        <v>-746300</v>
       </c>
       <c r="J26" s="3">
+        <v>2615000</v>
+      </c>
+      <c r="K26" s="3">
         <v>3119600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1908500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1298100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1527600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>512500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4709600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3038500</v>
+        <v>6415000</v>
       </c>
       <c r="E27" s="3">
-        <v>4701800</v>
+        <v>3089400</v>
       </c>
       <c r="F27" s="3">
-        <v>3185500</v>
+        <v>4780600</v>
       </c>
       <c r="G27" s="3">
-        <v>5789500</v>
+        <v>3238900</v>
       </c>
       <c r="H27" s="3">
-        <v>-774200</v>
+        <v>5886500</v>
       </c>
       <c r="I27" s="3">
-        <v>2528800</v>
+        <v>-787200</v>
       </c>
       <c r="J27" s="3">
+        <v>2571200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3081300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1870300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1268100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1491500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>476400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4673300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1622,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1669,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-257300</v>
+        <v>-859500</v>
       </c>
       <c r="E32" s="3">
-        <v>-346100</v>
+        <v>-261600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-351900</v>
       </c>
       <c r="G32" s="3">
-        <v>-575100</v>
+        <v>-3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-249600</v>
+        <v>-584800</v>
       </c>
       <c r="I32" s="3">
-        <v>-309200</v>
+        <v>-253800</v>
       </c>
       <c r="J32" s="3">
+        <v>-314400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-213100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-176900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-259500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>323200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3038500</v>
+        <v>6415000</v>
       </c>
       <c r="E33" s="3">
-        <v>4701800</v>
+        <v>3089400</v>
       </c>
       <c r="F33" s="3">
-        <v>3185500</v>
+        <v>4780600</v>
       </c>
       <c r="G33" s="3">
-        <v>5789500</v>
+        <v>3238900</v>
       </c>
       <c r="H33" s="3">
-        <v>-774200</v>
+        <v>5886500</v>
       </c>
       <c r="I33" s="3">
-        <v>2528800</v>
+        <v>-787200</v>
       </c>
       <c r="J33" s="3">
+        <v>2571200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3081300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1870300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1268100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1491500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>476400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4673300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3038500</v>
+        <v>6415000</v>
       </c>
       <c r="E35" s="3">
-        <v>4701800</v>
+        <v>3089400</v>
       </c>
       <c r="F35" s="3">
-        <v>3185500</v>
+        <v>4780600</v>
       </c>
       <c r="G35" s="3">
-        <v>5789500</v>
+        <v>3238900</v>
       </c>
       <c r="H35" s="3">
-        <v>-774200</v>
+        <v>5886500</v>
       </c>
       <c r="I35" s="3">
-        <v>2528800</v>
+        <v>-787200</v>
       </c>
       <c r="J35" s="3">
+        <v>2571200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3081300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1870300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1268100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1491500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>476400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4673300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2043,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8719700</v>
+        <v>12803300</v>
       </c>
       <c r="E41" s="3">
-        <v>12455300</v>
+        <v>8865800</v>
       </c>
       <c r="F41" s="3">
-        <v>8130100</v>
+        <v>12664000</v>
       </c>
       <c r="G41" s="3">
-        <v>8631500</v>
+        <v>8266400</v>
       </c>
       <c r="H41" s="3">
-        <v>7821000</v>
+        <v>8776100</v>
       </c>
       <c r="I41" s="3">
-        <v>8835200</v>
+        <v>7952000</v>
       </c>
       <c r="J41" s="3">
+        <v>8983300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7481300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7110800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9347600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10304600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11002400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10970200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,52 +2135,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3192000</v>
+        <v>7916600</v>
       </c>
       <c r="E43" s="3">
-        <v>7451900</v>
+        <v>3245500</v>
       </c>
       <c r="F43" s="3">
-        <v>2660900</v>
+        <v>7576700</v>
       </c>
       <c r="G43" s="3">
-        <v>6422500</v>
+        <v>2705500</v>
       </c>
       <c r="H43" s="3">
-        <v>2409500</v>
+        <v>6530100</v>
       </c>
       <c r="I43" s="3">
-        <v>5815700</v>
+        <v>2449900</v>
       </c>
       <c r="J43" s="3">
+        <v>5913100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2174400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1949100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3958900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1768000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2229,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2276,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,96 +2323,105 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>618734000</v>
+        <v>681942500</v>
       </c>
       <c r="E47" s="3">
-        <v>566700600</v>
+        <v>629101100</v>
       </c>
       <c r="F47" s="3">
-        <v>539153600</v>
+        <v>576195900</v>
       </c>
       <c r="G47" s="3">
-        <v>497655200</v>
+        <v>548187300</v>
       </c>
       <c r="H47" s="3">
-        <v>467659100</v>
+        <v>505993600</v>
       </c>
       <c r="I47" s="3">
-        <v>433037600</v>
+        <v>475495000</v>
       </c>
       <c r="J47" s="3">
+        <v>440293400</v>
+      </c>
+      <c r="K47" s="3">
         <v>414997800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>407152400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>363243600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>341344500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>334383900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>323344700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10784800</v>
+        <v>10878600</v>
       </c>
       <c r="E48" s="3">
-        <v>10477400</v>
+        <v>10965500</v>
       </c>
       <c r="F48" s="3">
-        <v>10381200</v>
+        <v>10653000</v>
       </c>
       <c r="G48" s="3">
-        <v>9377800</v>
+        <v>10555100</v>
       </c>
       <c r="H48" s="3">
-        <v>8781200</v>
+        <v>9535000</v>
       </c>
       <c r="I48" s="3">
-        <v>7838000</v>
+        <v>8928300</v>
       </c>
       <c r="J48" s="3">
+        <v>7969400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7047800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6056400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4586400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4088500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4186800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3925400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2345,17 +2455,20 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,28 +2558,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13400</v>
+        <v>18800</v>
       </c>
       <c r="E52" s="3">
-        <v>19700</v>
+        <v>13600</v>
       </c>
       <c r="F52" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="3">
-        <v>8800</v>
+        <v>20000</v>
       </c>
       <c r="H52" s="3">
-        <v>193600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>8900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>196800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2477,8 +2596,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2486,8 +2605,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>654786100</v>
+        <v>728441300</v>
       </c>
       <c r="E54" s="3">
-        <v>610689800</v>
+        <v>665757300</v>
       </c>
       <c r="F54" s="3">
-        <v>573842500</v>
+        <v>620922100</v>
       </c>
       <c r="G54" s="3">
-        <v>535828800</v>
+        <v>583457500</v>
       </c>
       <c r="H54" s="3">
-        <v>501113000</v>
+        <v>544806900</v>
       </c>
       <c r="I54" s="3">
-        <v>468588500</v>
+        <v>509509300</v>
       </c>
       <c r="J54" s="3">
+        <v>476439900</v>
+      </c>
+      <c r="K54" s="3">
         <v>446171100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>439256600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>391678200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>371476300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>363354400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>353149800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2739,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2784,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,52 +2831,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>544691500</v>
+        <v>607800100</v>
       </c>
       <c r="E59" s="3">
-        <v>506009200</v>
+        <v>553818000</v>
       </c>
       <c r="F59" s="3">
-        <v>476404600</v>
+        <v>514487600</v>
       </c>
       <c r="G59" s="3">
-        <v>446603100</v>
+        <v>484386900</v>
       </c>
       <c r="H59" s="3">
-        <v>428549700</v>
+        <v>454086200</v>
       </c>
       <c r="I59" s="3">
-        <v>396334700</v>
+        <v>435730300</v>
       </c>
       <c r="J59" s="3">
+        <v>402975400</v>
+      </c>
+      <c r="K59" s="3">
         <v>375676900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>370714600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>324942400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>304183500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>293381600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>285046800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +2925,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8809500</v>
+        <v>8881500</v>
       </c>
       <c r="E61" s="3">
-        <v>8978900</v>
+        <v>8957100</v>
       </c>
       <c r="F61" s="3">
-        <v>8950200</v>
+        <v>9129300</v>
       </c>
       <c r="G61" s="3">
-        <v>8883000</v>
+        <v>9100200</v>
       </c>
       <c r="H61" s="3">
-        <v>3102700</v>
+        <v>9031800</v>
       </c>
       <c r="I61" s="3">
-        <v>3011400</v>
+        <v>3154700</v>
       </c>
       <c r="J61" s="3">
+        <v>3061800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2893900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3993200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7866800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10107900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10483200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10484000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2353700</v>
+        <v>2232700</v>
       </c>
       <c r="E62" s="3">
-        <v>1563100</v>
+        <v>2393200</v>
       </c>
       <c r="F62" s="3">
-        <v>1590600</v>
+        <v>1589200</v>
       </c>
       <c r="G62" s="3">
-        <v>1279900</v>
+        <v>1617300</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>1301300</v>
       </c>
       <c r="I62" s="3">
-        <v>480600</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>488600</v>
+      </c>
+      <c r="K62" s="3">
         <v>750000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1440100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1128100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1649300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2516000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2839200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>585487200</v>
+        <v>654631200</v>
       </c>
       <c r="E66" s="3">
-        <v>546648600</v>
+        <v>595297300</v>
       </c>
       <c r="F66" s="3">
-        <v>511670900</v>
+        <v>555807900</v>
       </c>
       <c r="G66" s="3">
-        <v>479097400</v>
+        <v>520244200</v>
       </c>
       <c r="H66" s="3">
-        <v>452090200</v>
+        <v>487124900</v>
       </c>
       <c r="I66" s="3">
-        <v>418851800</v>
+        <v>459665200</v>
       </c>
       <c r="J66" s="3">
+        <v>425869800</v>
+      </c>
+      <c r="K66" s="3">
         <v>396753800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>392109400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>347583300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>328009300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>315493400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>307002100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>64946600</v>
+        <v>69384900</v>
       </c>
       <c r="E72" s="3">
-        <v>58489300</v>
+        <v>66034800</v>
       </c>
       <c r="F72" s="3">
-        <v>56619700</v>
+        <v>59469300</v>
       </c>
       <c r="G72" s="3">
-        <v>51179600</v>
+        <v>57568400</v>
       </c>
       <c r="H72" s="3">
-        <v>43470900</v>
+        <v>52037100</v>
       </c>
       <c r="I72" s="3">
-        <v>44184900</v>
+        <v>44199200</v>
       </c>
       <c r="J72" s="3">
+        <v>44925200</v>
+      </c>
+      <c r="K72" s="3">
         <v>43865400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41638500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38858500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38293700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42510000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41952800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69298900</v>
+        <v>73810100</v>
       </c>
       <c r="E76" s="3">
-        <v>64041200</v>
+        <v>70460000</v>
       </c>
       <c r="F76" s="3">
-        <v>62171600</v>
+        <v>65114200</v>
       </c>
       <c r="G76" s="3">
-        <v>56731500</v>
+        <v>63213300</v>
       </c>
       <c r="H76" s="3">
-        <v>49022800</v>
+        <v>57682000</v>
       </c>
       <c r="I76" s="3">
-        <v>49736800</v>
+        <v>49844200</v>
       </c>
       <c r="J76" s="3">
+        <v>50570100</v>
+      </c>
+      <c r="K76" s="3">
         <v>49417300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47147100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44094900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43467000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47861000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46147600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3038500</v>
+        <v>6415000</v>
       </c>
       <c r="E81" s="3">
-        <v>4701800</v>
+        <v>3089400</v>
       </c>
       <c r="F81" s="3">
-        <v>3185500</v>
+        <v>4780600</v>
       </c>
       <c r="G81" s="3">
-        <v>5789500</v>
+        <v>3238900</v>
       </c>
       <c r="H81" s="3">
-        <v>-774200</v>
+        <v>5886500</v>
       </c>
       <c r="I81" s="3">
-        <v>2528800</v>
+        <v>-787200</v>
       </c>
       <c r="J81" s="3">
+        <v>2571200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3081300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1870300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1268100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1491500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>476400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4673300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +3816,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +3861,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18667300</v>
+        <v>31050100</v>
       </c>
       <c r="E89" s="3">
-        <v>28146300</v>
+        <v>18980100</v>
       </c>
       <c r="F89" s="3">
-        <v>20901600</v>
+        <v>28617900</v>
       </c>
       <c r="G89" s="3">
-        <v>23141700</v>
+        <v>21251800</v>
       </c>
       <c r="H89" s="3">
-        <v>15918500</v>
+        <v>23529400</v>
       </c>
       <c r="I89" s="3">
-        <v>6801600</v>
+        <v>16185200</v>
       </c>
       <c r="J89" s="3">
+        <v>6915600</v>
+      </c>
+      <c r="K89" s="3">
         <v>8945900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21831000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14853800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1891100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6494300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3702500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,8 +4164,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3989,8 +4209,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31436200</v>
+        <v>-35495800</v>
       </c>
       <c r="E94" s="3">
-        <v>-13648600</v>
+        <v>-31963000</v>
       </c>
       <c r="F94" s="3">
-        <v>-26424000</v>
+        <v>-13877300</v>
       </c>
       <c r="G94" s="3">
-        <v>-11688300</v>
+        <v>-26866800</v>
       </c>
       <c r="H94" s="3">
-        <v>-30504100</v>
+        <v>-11884200</v>
       </c>
       <c r="I94" s="3">
-        <v>-6200600</v>
+        <v>-31015200</v>
       </c>
       <c r="J94" s="3">
+        <v>-6304500</v>
+      </c>
+      <c r="K94" s="3">
         <v>3513500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30020400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16515700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1293900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7794600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2155800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4371,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3177100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-30900</v>
+        <v>-3230300</v>
       </c>
       <c r="F96" s="3">
-        <v>-213900</v>
+        <v>-31500</v>
       </c>
       <c r="G96" s="3">
-        <v>-543100</v>
+        <v>-217500</v>
       </c>
       <c r="H96" s="3">
-        <v>-488400</v>
+        <v>-552200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1311600</v>
+        <v>-496600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1333600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-303600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-793200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-482500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1282000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-469100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1236300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9072800</v>
+        <v>8389100</v>
       </c>
       <c r="E100" s="3">
-        <v>-10267700</v>
+        <v>9224800</v>
       </c>
       <c r="F100" s="3">
-        <v>4906100</v>
+        <v>-10439700</v>
       </c>
       <c r="G100" s="3">
-        <v>-10460900</v>
+        <v>4988300</v>
       </c>
       <c r="H100" s="3">
-        <v>13473400</v>
+        <v>-10636200</v>
       </c>
       <c r="I100" s="3">
-        <v>841000</v>
+        <v>13699200</v>
       </c>
       <c r="J100" s="3">
+        <v>855100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-12332400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5270300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>894200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1228500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1652800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39400</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
-        <v>17200</v>
+        <v>-40100</v>
       </c>
       <c r="F101" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>33500</v>
+      </c>
+      <c r="N101" s="3">
         <v>7700</v>
       </c>
-      <c r="G101" s="3">
-        <v>800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>33500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>7700</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>36100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3735600</v>
+        <v>3937500</v>
       </c>
       <c r="E102" s="3">
-        <v>4247200</v>
+        <v>-3798100</v>
       </c>
       <c r="F102" s="3">
-        <v>-608700</v>
+        <v>4318400</v>
       </c>
       <c r="G102" s="3">
-        <v>993200</v>
+        <v>-618900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1103100</v>
+        <v>1009800</v>
       </c>
       <c r="I102" s="3">
-        <v>1445400</v>
+        <v>-1121600</v>
       </c>
       <c r="J102" s="3">
+        <v>1469600</v>
+      </c>
+      <c r="K102" s="3">
         <v>115800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2935200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-734100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-573200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>107900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4205200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>559600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>85279600</v>
+        <v>85933300</v>
       </c>
       <c r="E8" s="3">
-        <v>48140800</v>
+        <v>48509800</v>
       </c>
       <c r="F8" s="3">
-        <v>79704500</v>
+        <v>80315500</v>
       </c>
       <c r="G8" s="3">
-        <v>44505900</v>
+        <v>44847100</v>
       </c>
       <c r="H8" s="3">
-        <v>70700500</v>
+        <v>71242400</v>
       </c>
       <c r="I8" s="3">
-        <v>36426200</v>
+        <v>36705400</v>
       </c>
       <c r="J8" s="3">
-        <v>63087100</v>
+        <v>63570700</v>
       </c>
       <c r="K8" s="3">
         <v>38227100</v>
@@ -985,25 +985,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1190500</v>
+        <v>1199600</v>
       </c>
       <c r="E14" s="3">
-        <v>1089800</v>
+        <v>1098200</v>
       </c>
       <c r="F14" s="3">
-        <v>730800</v>
+        <v>736400</v>
       </c>
       <c r="G14" s="3">
-        <v>473000</v>
+        <v>476600</v>
       </c>
       <c r="H14" s="3">
-        <v>527000</v>
+        <v>531000</v>
       </c>
       <c r="I14" s="3">
-        <v>1086100</v>
+        <v>1094400</v>
       </c>
       <c r="J14" s="3">
-        <v>198500</v>
+        <v>200000</v>
       </c>
       <c r="K14" s="3">
         <v>164800</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78921300</v>
+        <v>79526200</v>
       </c>
       <c r="E17" s="3">
-        <v>45439700</v>
+        <v>45787900</v>
       </c>
       <c r="F17" s="3">
-        <v>74488600</v>
+        <v>75059500</v>
       </c>
       <c r="G17" s="3">
-        <v>41236800</v>
+        <v>41552900</v>
       </c>
       <c r="H17" s="3">
-        <v>65196100</v>
+        <v>65695800</v>
       </c>
       <c r="I17" s="3">
-        <v>37858200</v>
+        <v>38148400</v>
       </c>
       <c r="J17" s="3">
-        <v>60043700</v>
+        <v>60504000</v>
       </c>
       <c r="K17" s="3">
         <v>34476400</v>
@@ -1142,25 +1142,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6358400</v>
+        <v>6407100</v>
       </c>
       <c r="E18" s="3">
-        <v>2701100</v>
+        <v>2721800</v>
       </c>
       <c r="F18" s="3">
-        <v>5216000</v>
+        <v>5255900</v>
       </c>
       <c r="G18" s="3">
-        <v>3269100</v>
+        <v>3294200</v>
       </c>
       <c r="H18" s="3">
-        <v>5504300</v>
+        <v>5546500</v>
       </c>
       <c r="I18" s="3">
-        <v>-1432100</v>
+        <v>-1443000</v>
       </c>
       <c r="J18" s="3">
-        <v>3043400</v>
+        <v>3066700</v>
       </c>
       <c r="K18" s="3">
         <v>3750600</v>
@@ -1208,25 +1208,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>859500</v>
+        <v>866100</v>
       </c>
       <c r="E20" s="3">
-        <v>261600</v>
+        <v>263600</v>
       </c>
       <c r="F20" s="3">
-        <v>351900</v>
+        <v>354600</v>
       </c>
       <c r="G20" s="3">
         <v>3300</v>
       </c>
       <c r="H20" s="3">
-        <v>584800</v>
+        <v>589200</v>
       </c>
       <c r="I20" s="3">
-        <v>253800</v>
+        <v>255700</v>
       </c>
       <c r="J20" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="K20" s="3">
         <v>213100</v>
@@ -1255,25 +1255,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7634500</v>
+        <v>7693000</v>
       </c>
       <c r="E21" s="3">
-        <v>2975700</v>
+        <v>2998500</v>
       </c>
       <c r="F21" s="3">
-        <v>5965400</v>
+        <v>6011100</v>
       </c>
       <c r="G21" s="3">
-        <v>3322400</v>
+        <v>3347800</v>
       </c>
       <c r="H21" s="3">
-        <v>6406900</v>
+        <v>6456000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1160400</v>
+        <v>-1169300</v>
       </c>
       <c r="J21" s="3">
-        <v>3555300</v>
+        <v>3582600</v>
       </c>
       <c r="K21" s="3">
         <v>3972400</v>
@@ -1349,25 +1349,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7217900</v>
+        <v>7273200</v>
       </c>
       <c r="E23" s="3">
-        <v>2962700</v>
+        <v>2985500</v>
       </c>
       <c r="F23" s="3">
-        <v>5567900</v>
+        <v>5610600</v>
       </c>
       <c r="G23" s="3">
-        <v>3272400</v>
+        <v>3297500</v>
       </c>
       <c r="H23" s="3">
-        <v>6089100</v>
+        <v>6135800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1178300</v>
+        <v>-1187300</v>
       </c>
       <c r="J23" s="3">
-        <v>3357700</v>
+        <v>3383500</v>
       </c>
       <c r="K23" s="3">
         <v>3963800</v>
@@ -1396,25 +1396,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>684500</v>
+        <v>689700</v>
       </c>
       <c r="E24" s="3">
-        <v>-219000</v>
+        <v>-220700</v>
       </c>
       <c r="F24" s="3">
-        <v>704800</v>
+        <v>710200</v>
       </c>
       <c r="G24" s="3">
-        <v>-28700</v>
+        <v>-28900</v>
       </c>
       <c r="H24" s="3">
-        <v>150900</v>
+        <v>152100</v>
       </c>
       <c r="I24" s="3">
-        <v>-431900</v>
+        <v>-435300</v>
       </c>
       <c r="J24" s="3">
-        <v>742700</v>
+        <v>748400</v>
       </c>
       <c r="K24" s="3">
         <v>844100</v>
@@ -1490,25 +1490,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6533400</v>
+        <v>6583500</v>
       </c>
       <c r="E26" s="3">
-        <v>3181800</v>
+        <v>3206200</v>
       </c>
       <c r="F26" s="3">
-        <v>4863100</v>
+        <v>4900300</v>
       </c>
       <c r="G26" s="3">
-        <v>3301100</v>
+        <v>3326400</v>
       </c>
       <c r="H26" s="3">
-        <v>5938200</v>
+        <v>5983700</v>
       </c>
       <c r="I26" s="3">
-        <v>-746300</v>
+        <v>-752000</v>
       </c>
       <c r="J26" s="3">
-        <v>2615000</v>
+        <v>2635100</v>
       </c>
       <c r="K26" s="3">
         <v>3119600</v>
@@ -1537,25 +1537,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6415000</v>
+        <v>6464200</v>
       </c>
       <c r="E27" s="3">
-        <v>3089400</v>
+        <v>3113100</v>
       </c>
       <c r="F27" s="3">
-        <v>4780600</v>
+        <v>4817200</v>
       </c>
       <c r="G27" s="3">
-        <v>3238900</v>
+        <v>3263700</v>
       </c>
       <c r="H27" s="3">
-        <v>5886500</v>
+        <v>5931600</v>
       </c>
       <c r="I27" s="3">
-        <v>-787200</v>
+        <v>-793200</v>
       </c>
       <c r="J27" s="3">
-        <v>2571200</v>
+        <v>2590900</v>
       </c>
       <c r="K27" s="3">
         <v>3081300</v>
@@ -1772,25 +1772,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-859500</v>
+        <v>-866100</v>
       </c>
       <c r="E32" s="3">
-        <v>-261600</v>
+        <v>-263600</v>
       </c>
       <c r="F32" s="3">
-        <v>-351900</v>
+        <v>-354600</v>
       </c>
       <c r="G32" s="3">
         <v>-3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-584800</v>
+        <v>-589200</v>
       </c>
       <c r="I32" s="3">
-        <v>-253800</v>
+        <v>-255700</v>
       </c>
       <c r="J32" s="3">
-        <v>-314400</v>
+        <v>-316800</v>
       </c>
       <c r="K32" s="3">
         <v>-213100</v>
@@ -1819,25 +1819,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6415000</v>
+        <v>6464200</v>
       </c>
       <c r="E33" s="3">
-        <v>3089400</v>
+        <v>3113100</v>
       </c>
       <c r="F33" s="3">
-        <v>4780600</v>
+        <v>4817200</v>
       </c>
       <c r="G33" s="3">
-        <v>3238900</v>
+        <v>3263700</v>
       </c>
       <c r="H33" s="3">
-        <v>5886500</v>
+        <v>5931600</v>
       </c>
       <c r="I33" s="3">
-        <v>-787200</v>
+        <v>-793200</v>
       </c>
       <c r="J33" s="3">
-        <v>2571200</v>
+        <v>2590900</v>
       </c>
       <c r="K33" s="3">
         <v>3081300</v>
@@ -1913,25 +1913,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6415000</v>
+        <v>6464200</v>
       </c>
       <c r="E35" s="3">
-        <v>3089400</v>
+        <v>3113100</v>
       </c>
       <c r="F35" s="3">
-        <v>4780600</v>
+        <v>4817200</v>
       </c>
       <c r="G35" s="3">
-        <v>3238900</v>
+        <v>3263700</v>
       </c>
       <c r="H35" s="3">
-        <v>5886500</v>
+        <v>5931600</v>
       </c>
       <c r="I35" s="3">
-        <v>-787200</v>
+        <v>-793200</v>
       </c>
       <c r="J35" s="3">
-        <v>2571200</v>
+        <v>2590900</v>
       </c>
       <c r="K35" s="3">
         <v>3081300</v>
@@ -2050,25 +2050,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12803300</v>
+        <v>12901500</v>
       </c>
       <c r="E41" s="3">
-        <v>8865800</v>
+        <v>8933800</v>
       </c>
       <c r="F41" s="3">
-        <v>12664000</v>
+        <v>12761000</v>
       </c>
       <c r="G41" s="3">
-        <v>8266400</v>
+        <v>8329700</v>
       </c>
       <c r="H41" s="3">
-        <v>8776100</v>
+        <v>8843400</v>
       </c>
       <c r="I41" s="3">
-        <v>7952000</v>
+        <v>8012900</v>
       </c>
       <c r="J41" s="3">
-        <v>8983300</v>
+        <v>9052100</v>
       </c>
       <c r="K41" s="3">
         <v>7481300</v>
@@ -2144,25 +2144,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7916600</v>
+        <v>7977300</v>
       </c>
       <c r="E43" s="3">
-        <v>3245500</v>
+        <v>3270400</v>
       </c>
       <c r="F43" s="3">
-        <v>7576700</v>
+        <v>7634800</v>
       </c>
       <c r="G43" s="3">
-        <v>2705500</v>
+        <v>2726300</v>
       </c>
       <c r="H43" s="3">
-        <v>6530100</v>
+        <v>6580200</v>
       </c>
       <c r="I43" s="3">
-        <v>2449900</v>
+        <v>2468600</v>
       </c>
       <c r="J43" s="3">
-        <v>5913100</v>
+        <v>5958400</v>
       </c>
       <c r="K43" s="3">
         <v>2174400</v>
@@ -2332,25 +2332,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>681942500</v>
+        <v>687169400</v>
       </c>
       <c r="E47" s="3">
-        <v>629101100</v>
+        <v>633923100</v>
       </c>
       <c r="F47" s="3">
-        <v>576195900</v>
+        <v>580612300</v>
       </c>
       <c r="G47" s="3">
-        <v>548187300</v>
+        <v>552389100</v>
       </c>
       <c r="H47" s="3">
-        <v>505993600</v>
+        <v>509872000</v>
       </c>
       <c r="I47" s="3">
-        <v>475495000</v>
+        <v>479139500</v>
       </c>
       <c r="J47" s="3">
-        <v>440293400</v>
+        <v>443668100</v>
       </c>
       <c r="K47" s="3">
         <v>414997800</v>
@@ -2379,25 +2379,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10878600</v>
+        <v>10962000</v>
       </c>
       <c r="E48" s="3">
-        <v>10965500</v>
+        <v>11049500</v>
       </c>
       <c r="F48" s="3">
-        <v>10653000</v>
+        <v>10734600</v>
       </c>
       <c r="G48" s="3">
-        <v>10555100</v>
+        <v>10636000</v>
       </c>
       <c r="H48" s="3">
-        <v>9535000</v>
+        <v>9608100</v>
       </c>
       <c r="I48" s="3">
-        <v>8928300</v>
+        <v>8996700</v>
       </c>
       <c r="J48" s="3">
-        <v>7969400</v>
+        <v>8030500</v>
       </c>
       <c r="K48" s="3">
         <v>7047800</v>
@@ -2567,22 +2567,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="E52" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="F52" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="G52" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="H52" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="I52" s="3">
-        <v>196800</v>
+        <v>198300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2661,25 +2661,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>728441300</v>
+        <v>734024600</v>
       </c>
       <c r="E54" s="3">
-        <v>665757300</v>
+        <v>670860200</v>
       </c>
       <c r="F54" s="3">
-        <v>620922100</v>
+        <v>625681400</v>
       </c>
       <c r="G54" s="3">
-        <v>583457500</v>
+        <v>587929600</v>
       </c>
       <c r="H54" s="3">
-        <v>544806900</v>
+        <v>548982700</v>
       </c>
       <c r="I54" s="3">
-        <v>509509300</v>
+        <v>513414600</v>
       </c>
       <c r="J54" s="3">
-        <v>476439900</v>
+        <v>480091800</v>
       </c>
       <c r="K54" s="3">
         <v>446171100</v>
@@ -2840,25 +2840,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>607800100</v>
+        <v>612458700</v>
       </c>
       <c r="E59" s="3">
-        <v>553818000</v>
+        <v>558062900</v>
       </c>
       <c r="F59" s="3">
-        <v>514487600</v>
+        <v>518431100</v>
       </c>
       <c r="G59" s="3">
-        <v>484386900</v>
+        <v>488099700</v>
       </c>
       <c r="H59" s="3">
-        <v>454086200</v>
+        <v>457566600</v>
       </c>
       <c r="I59" s="3">
-        <v>435730300</v>
+        <v>439070100</v>
       </c>
       <c r="J59" s="3">
-        <v>402975400</v>
+        <v>406064100</v>
       </c>
       <c r="K59" s="3">
         <v>375676900</v>
@@ -2934,25 +2934,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8881500</v>
+        <v>8949600</v>
       </c>
       <c r="E61" s="3">
-        <v>8957100</v>
+        <v>9025800</v>
       </c>
       <c r="F61" s="3">
-        <v>9129300</v>
+        <v>9199300</v>
       </c>
       <c r="G61" s="3">
-        <v>9100200</v>
+        <v>9170000</v>
       </c>
       <c r="H61" s="3">
-        <v>9031800</v>
+        <v>9101000</v>
       </c>
       <c r="I61" s="3">
-        <v>3154700</v>
+        <v>3178900</v>
       </c>
       <c r="J61" s="3">
-        <v>3061800</v>
+        <v>3085300</v>
       </c>
       <c r="K61" s="3">
         <v>2893900</v>
@@ -2981,25 +2981,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2232700</v>
+        <v>2249800</v>
       </c>
       <c r="E62" s="3">
-        <v>2393200</v>
+        <v>2411500</v>
       </c>
       <c r="F62" s="3">
-        <v>1589200</v>
+        <v>1601400</v>
       </c>
       <c r="G62" s="3">
-        <v>1617300</v>
+        <v>1629700</v>
       </c>
       <c r="H62" s="3">
-        <v>1301300</v>
+        <v>1311300</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>488600</v>
+        <v>492400</v>
       </c>
       <c r="K62" s="3">
         <v>750000</v>
@@ -3169,25 +3169,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>654631200</v>
+        <v>659648800</v>
       </c>
       <c r="E66" s="3">
-        <v>595297300</v>
+        <v>599860200</v>
       </c>
       <c r="F66" s="3">
-        <v>555807900</v>
+        <v>560068000</v>
       </c>
       <c r="G66" s="3">
-        <v>520244200</v>
+        <v>524231700</v>
       </c>
       <c r="H66" s="3">
-        <v>487124900</v>
+        <v>490858600</v>
       </c>
       <c r="I66" s="3">
-        <v>459665200</v>
+        <v>463188400</v>
       </c>
       <c r="J66" s="3">
-        <v>425869800</v>
+        <v>429134000</v>
       </c>
       <c r="K66" s="3">
         <v>396753800</v>
@@ -3423,25 +3423,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>69384900</v>
+        <v>69916700</v>
       </c>
       <c r="E72" s="3">
-        <v>66034800</v>
+        <v>66541000</v>
       </c>
       <c r="F72" s="3">
-        <v>59469300</v>
+        <v>59925100</v>
       </c>
       <c r="G72" s="3">
-        <v>57568400</v>
+        <v>58009600</v>
       </c>
       <c r="H72" s="3">
-        <v>52037100</v>
+        <v>52436000</v>
       </c>
       <c r="I72" s="3">
-        <v>44199200</v>
+        <v>44538000</v>
       </c>
       <c r="J72" s="3">
-        <v>44925200</v>
+        <v>45269500</v>
       </c>
       <c r="K72" s="3">
         <v>43865400</v>
@@ -3611,25 +3611,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73810100</v>
+        <v>74375800</v>
       </c>
       <c r="E76" s="3">
-        <v>70460000</v>
+        <v>71000000</v>
       </c>
       <c r="F76" s="3">
-        <v>65114200</v>
+        <v>65613300</v>
       </c>
       <c r="G76" s="3">
-        <v>63213300</v>
+        <v>63697800</v>
       </c>
       <c r="H76" s="3">
-        <v>57682000</v>
+        <v>58124100</v>
       </c>
       <c r="I76" s="3">
-        <v>49844200</v>
+        <v>50226200</v>
       </c>
       <c r="J76" s="3">
-        <v>50570100</v>
+        <v>50957700</v>
       </c>
       <c r="K76" s="3">
         <v>49417300</v>
@@ -3757,25 +3757,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6415000</v>
+        <v>6464200</v>
       </c>
       <c r="E81" s="3">
-        <v>3089400</v>
+        <v>3113100</v>
       </c>
       <c r="F81" s="3">
-        <v>4780600</v>
+        <v>4817200</v>
       </c>
       <c r="G81" s="3">
-        <v>3238900</v>
+        <v>3263700</v>
       </c>
       <c r="H81" s="3">
-        <v>5886500</v>
+        <v>5931600</v>
       </c>
       <c r="I81" s="3">
-        <v>-787200</v>
+        <v>-793200</v>
       </c>
       <c r="J81" s="3">
-        <v>2571200</v>
+        <v>2590900</v>
       </c>
       <c r="K81" s="3">
         <v>3081300</v>
@@ -4105,25 +4105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31050100</v>
+        <v>31288100</v>
       </c>
       <c r="E89" s="3">
-        <v>18980100</v>
+        <v>19125600</v>
       </c>
       <c r="F89" s="3">
-        <v>28617900</v>
+        <v>28837300</v>
       </c>
       <c r="G89" s="3">
-        <v>21251800</v>
+        <v>21414700</v>
       </c>
       <c r="H89" s="3">
-        <v>23529400</v>
+        <v>23709800</v>
       </c>
       <c r="I89" s="3">
-        <v>16185200</v>
+        <v>16309200</v>
       </c>
       <c r="J89" s="3">
-        <v>6915600</v>
+        <v>6968600</v>
       </c>
       <c r="K89" s="3">
         <v>8945900</v>
@@ -4312,25 +4312,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35495800</v>
+        <v>-35767800</v>
       </c>
       <c r="E94" s="3">
-        <v>-31963000</v>
+        <v>-32208000</v>
       </c>
       <c r="F94" s="3">
-        <v>-13877300</v>
+        <v>-13983700</v>
       </c>
       <c r="G94" s="3">
-        <v>-26866800</v>
+        <v>-27072700</v>
       </c>
       <c r="H94" s="3">
-        <v>-11884200</v>
+        <v>-11975200</v>
       </c>
       <c r="I94" s="3">
-        <v>-31015200</v>
+        <v>-31252900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6304500</v>
+        <v>-6352800</v>
       </c>
       <c r="K94" s="3">
         <v>3513500</v>
@@ -4381,22 +4381,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3230300</v>
+        <v>-3255100</v>
       </c>
       <c r="F96" s="3">
-        <v>-31500</v>
+        <v>-31700</v>
       </c>
       <c r="G96" s="3">
-        <v>-217500</v>
+        <v>-219100</v>
       </c>
       <c r="H96" s="3">
-        <v>-552200</v>
+        <v>-556400</v>
       </c>
       <c r="I96" s="3">
-        <v>-496600</v>
+        <v>-500400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1333600</v>
+        <v>-1343800</v>
       </c>
       <c r="K96" s="3">
         <v>-303600</v>
@@ -4566,25 +4566,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8389100</v>
+        <v>8453400</v>
       </c>
       <c r="E100" s="3">
-        <v>9224800</v>
+        <v>9295500</v>
       </c>
       <c r="F100" s="3">
-        <v>-10439700</v>
+        <v>-10519800</v>
       </c>
       <c r="G100" s="3">
-        <v>4988300</v>
+        <v>5026500</v>
       </c>
       <c r="H100" s="3">
-        <v>-10636200</v>
+        <v>-10717700</v>
       </c>
       <c r="I100" s="3">
-        <v>13699200</v>
+        <v>13804200</v>
       </c>
       <c r="J100" s="3">
-        <v>855100</v>
+        <v>861700</v>
       </c>
       <c r="K100" s="3">
         <v>-12332400</v>
@@ -4613,25 +4613,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
-        <v>-40100</v>
+        <v>-40400</v>
       </c>
       <c r="F101" s="3">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="J101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K101" s="3">
         <v>-11200</v>
@@ -4660,25 +4660,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3937500</v>
+        <v>3967700</v>
       </c>
       <c r="E102" s="3">
-        <v>-3798100</v>
+        <v>-3827300</v>
       </c>
       <c r="F102" s="3">
-        <v>4318400</v>
+        <v>4351500</v>
       </c>
       <c r="G102" s="3">
-        <v>-618900</v>
+        <v>-623600</v>
       </c>
       <c r="H102" s="3">
-        <v>1009800</v>
+        <v>1017600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1121600</v>
+        <v>-1130200</v>
       </c>
       <c r="J102" s="3">
-        <v>1469600</v>
+        <v>1480900</v>
       </c>
       <c r="K102" s="3">
         <v>115800</v>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,121 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>85933300</v>
+        <v>44641500</v>
       </c>
       <c r="E8" s="3">
-        <v>48509800</v>
+        <v>80268300</v>
       </c>
       <c r="F8" s="3">
-        <v>80315500</v>
+        <v>120345700</v>
       </c>
       <c r="G8" s="3">
-        <v>44847100</v>
+        <v>75020800</v>
       </c>
       <c r="H8" s="3">
-        <v>71242400</v>
+        <v>41890600</v>
       </c>
       <c r="I8" s="3">
-        <v>36705400</v>
+        <v>66545900</v>
       </c>
       <c r="J8" s="3">
+        <v>34285700</v>
+      </c>
+      <c r="K8" s="3">
         <v>63570700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38227100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60783800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29733100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48597500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26181800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>49176400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +875,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,55 +995,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1199600</v>
+        <v>2227600</v>
       </c>
       <c r="E14" s="3">
-        <v>1098200</v>
+        <v>1120500</v>
       </c>
       <c r="F14" s="3">
-        <v>736400</v>
+        <v>1713600</v>
       </c>
       <c r="G14" s="3">
-        <v>476600</v>
+        <v>687900</v>
       </c>
       <c r="H14" s="3">
-        <v>531000</v>
+        <v>445200</v>
       </c>
       <c r="I14" s="3">
-        <v>1094400</v>
+        <v>496000</v>
       </c>
       <c r="J14" s="3">
+        <v>1022200</v>
+      </c>
+      <c r="K14" s="3">
         <v>200000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>164800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>257700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>245000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>139000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>42000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79526200</v>
+        <v>43882300</v>
       </c>
       <c r="E17" s="3">
-        <v>45787900</v>
+        <v>74283600</v>
       </c>
       <c r="F17" s="3">
-        <v>75059500</v>
+        <v>112895600</v>
       </c>
       <c r="G17" s="3">
-        <v>41552900</v>
+        <v>70111400</v>
       </c>
       <c r="H17" s="3">
-        <v>65695800</v>
+        <v>38813600</v>
       </c>
       <c r="I17" s="3">
-        <v>38148400</v>
+        <v>61365000</v>
       </c>
       <c r="J17" s="3">
+        <v>35633600</v>
+      </c>
+      <c r="K17" s="3">
         <v>60504000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34476400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58527100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28451100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46599300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25162000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43031300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6407100</v>
+        <v>759200</v>
       </c>
       <c r="E18" s="3">
-        <v>2721800</v>
+        <v>5984700</v>
       </c>
       <c r="F18" s="3">
-        <v>5255900</v>
+        <v>7450100</v>
       </c>
       <c r="G18" s="3">
-        <v>3294200</v>
+        <v>4909400</v>
       </c>
       <c r="H18" s="3">
-        <v>5546500</v>
+        <v>3077000</v>
       </c>
       <c r="I18" s="3">
-        <v>-1443000</v>
+        <v>5180900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1347900</v>
+      </c>
+      <c r="K18" s="3">
         <v>3066700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3750600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2256700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1281900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1998200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1019700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6145100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,102 +1234,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>866100</v>
+        <v>-112000</v>
       </c>
       <c r="E20" s="3">
-        <v>263600</v>
+        <v>809000</v>
       </c>
       <c r="F20" s="3">
-        <v>354600</v>
+        <v>577500</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>331300</v>
       </c>
       <c r="H20" s="3">
-        <v>589200</v>
+        <v>3100</v>
       </c>
       <c r="I20" s="3">
-        <v>255700</v>
+        <v>550400</v>
       </c>
       <c r="J20" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K20" s="3">
         <v>316800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>213100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>176900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>259500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-323200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7693000</v>
+        <v>642000</v>
       </c>
       <c r="E21" s="3">
-        <v>2998500</v>
+        <v>7185900</v>
       </c>
       <c r="F21" s="3">
-        <v>6011100</v>
+        <v>8788300</v>
       </c>
       <c r="G21" s="3">
-        <v>3347800</v>
+        <v>5614900</v>
       </c>
       <c r="H21" s="3">
-        <v>6456000</v>
+        <v>3127100</v>
       </c>
       <c r="I21" s="3">
-        <v>-1169300</v>
+        <v>6030400</v>
       </c>
       <c r="J21" s="3">
+        <v>-1092200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3582600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3972400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2600500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1543100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2046600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>694400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6272300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1328,8 +1367,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1343,102 +1382,111 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7273200</v>
+        <v>647200</v>
       </c>
       <c r="E23" s="3">
-        <v>2985500</v>
+        <v>6793700</v>
       </c>
       <c r="F23" s="3">
-        <v>5610600</v>
+        <v>8027600</v>
       </c>
       <c r="G23" s="3">
-        <v>3297500</v>
+        <v>5240700</v>
       </c>
       <c r="H23" s="3">
-        <v>6135800</v>
+        <v>3080100</v>
       </c>
       <c r="I23" s="3">
-        <v>-1187300</v>
+        <v>5731300</v>
       </c>
       <c r="J23" s="3">
+        <v>-1109000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3383500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3963800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2433600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1541500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1898000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>696500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6120100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>689700</v>
+        <v>-926700</v>
       </c>
       <c r="E24" s="3">
-        <v>-220700</v>
+        <v>644300</v>
       </c>
       <c r="F24" s="3">
-        <v>710200</v>
+        <v>457300</v>
       </c>
       <c r="G24" s="3">
-        <v>-28900</v>
+        <v>663400</v>
       </c>
       <c r="H24" s="3">
-        <v>152100</v>
+        <v>-27000</v>
       </c>
       <c r="I24" s="3">
-        <v>-435300</v>
+        <v>142100</v>
       </c>
       <c r="J24" s="3">
+        <v>-406600</v>
+      </c>
+      <c r="K24" s="3">
         <v>748400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>844100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>525100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>243400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>370300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>184000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1410500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6583500</v>
+        <v>1574000</v>
       </c>
       <c r="E26" s="3">
-        <v>3206200</v>
+        <v>6149500</v>
       </c>
       <c r="F26" s="3">
-        <v>4900300</v>
+        <v>7570300</v>
       </c>
       <c r="G26" s="3">
-        <v>3326400</v>
+        <v>4577300</v>
       </c>
       <c r="H26" s="3">
-        <v>5983700</v>
+        <v>3107100</v>
       </c>
       <c r="I26" s="3">
-        <v>-752000</v>
+        <v>5589200</v>
       </c>
       <c r="J26" s="3">
+        <v>-702500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2635100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3119600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1908500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1298100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1527600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>512500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4709600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6464200</v>
+        <v>1465600</v>
       </c>
       <c r="E27" s="3">
-        <v>3113100</v>
+        <v>6038100</v>
       </c>
       <c r="F27" s="3">
-        <v>4817200</v>
+        <v>7405900</v>
       </c>
       <c r="G27" s="3">
-        <v>3263700</v>
+        <v>4499600</v>
       </c>
       <c r="H27" s="3">
-        <v>5931600</v>
+        <v>3048600</v>
       </c>
       <c r="I27" s="3">
-        <v>-793200</v>
+        <v>5540600</v>
       </c>
       <c r="J27" s="3">
+        <v>-740900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2590900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3081300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1870300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1268100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1491500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>476400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4673300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,8 +1732,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-866100</v>
+        <v>112000</v>
       </c>
       <c r="E32" s="3">
-        <v>-263600</v>
+        <v>-809000</v>
       </c>
       <c r="F32" s="3">
-        <v>-354600</v>
+        <v>-577500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-331300</v>
       </c>
       <c r="H32" s="3">
-        <v>-589200</v>
+        <v>-3100</v>
       </c>
       <c r="I32" s="3">
-        <v>-255700</v>
+        <v>-550400</v>
       </c>
       <c r="J32" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-316800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-213100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-176900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-259500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>323200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6464200</v>
+        <v>1465600</v>
       </c>
       <c r="E33" s="3">
-        <v>3113100</v>
+        <v>6038100</v>
       </c>
       <c r="F33" s="3">
-        <v>4817200</v>
+        <v>7405900</v>
       </c>
       <c r="G33" s="3">
-        <v>3263700</v>
+        <v>4499600</v>
       </c>
       <c r="H33" s="3">
-        <v>5931600</v>
+        <v>3048600</v>
       </c>
       <c r="I33" s="3">
-        <v>-793200</v>
+        <v>5540600</v>
       </c>
       <c r="J33" s="3">
+        <v>-740900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2590900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3081300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1870300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1268100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1491500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>476400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4673300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6464200</v>
+        <v>1465600</v>
       </c>
       <c r="E35" s="3">
-        <v>3113100</v>
+        <v>6038100</v>
       </c>
       <c r="F35" s="3">
-        <v>4817200</v>
+        <v>7405900</v>
       </c>
       <c r="G35" s="3">
-        <v>3263700</v>
+        <v>4499600</v>
       </c>
       <c r="H35" s="3">
-        <v>5931600</v>
+        <v>3048600</v>
       </c>
       <c r="I35" s="3">
-        <v>-793200</v>
+        <v>5540600</v>
       </c>
       <c r="J35" s="3">
+        <v>-740900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2590900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3081300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1870300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1268100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1491500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>476400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4673300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,55 +2129,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12901500</v>
+        <v>8906400</v>
       </c>
       <c r="E41" s="3">
-        <v>8933800</v>
+        <v>12051000</v>
       </c>
       <c r="F41" s="3">
-        <v>12761000</v>
+        <v>8348700</v>
       </c>
       <c r="G41" s="3">
-        <v>8329700</v>
+        <v>11919800</v>
       </c>
       <c r="H41" s="3">
-        <v>8843400</v>
+        <v>7780600</v>
       </c>
       <c r="I41" s="3">
-        <v>8012900</v>
+        <v>8260400</v>
       </c>
       <c r="J41" s="3">
+        <v>7484700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9052100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7481300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7110800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9347600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10304600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11002400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10970200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2138,55 +2227,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7977300</v>
+        <v>3000400</v>
       </c>
       <c r="E43" s="3">
-        <v>3270400</v>
+        <v>7451400</v>
       </c>
       <c r="F43" s="3">
-        <v>7634800</v>
+        <v>3054800</v>
       </c>
       <c r="G43" s="3">
-        <v>2726300</v>
+        <v>7131500</v>
       </c>
       <c r="H43" s="3">
-        <v>6580200</v>
+        <v>2546500</v>
       </c>
       <c r="I43" s="3">
-        <v>2468600</v>
+        <v>6146400</v>
       </c>
       <c r="J43" s="3">
+        <v>2305900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5958400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2174400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4700600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1949100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3958900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1768000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3400100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2232,8 +2327,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2279,8 +2377,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2326,102 +2427,111 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>687169400</v>
+        <v>683198400</v>
       </c>
       <c r="E47" s="3">
-        <v>633923100</v>
+        <v>641869200</v>
       </c>
       <c r="F47" s="3">
-        <v>580612300</v>
+        <v>592134600</v>
       </c>
       <c r="G47" s="3">
-        <v>552389100</v>
+        <v>542336700</v>
       </c>
       <c r="H47" s="3">
-        <v>509872000</v>
+        <v>515974000</v>
       </c>
       <c r="I47" s="3">
-        <v>479139500</v>
+        <v>476259700</v>
       </c>
       <c r="J47" s="3">
+        <v>447553200</v>
+      </c>
+      <c r="K47" s="3">
         <v>443668100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>414997800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>407152400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>363243600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>341344500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>334383900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>323344700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10962000</v>
+        <v>10357900</v>
       </c>
       <c r="E48" s="3">
-        <v>11049500</v>
+        <v>10239300</v>
       </c>
       <c r="F48" s="3">
-        <v>10734600</v>
+        <v>10321100</v>
       </c>
       <c r="G48" s="3">
-        <v>10636000</v>
+        <v>10027000</v>
       </c>
       <c r="H48" s="3">
-        <v>9608100</v>
+        <v>9934900</v>
       </c>
       <c r="I48" s="3">
-        <v>8996700</v>
+        <v>8974700</v>
       </c>
       <c r="J48" s="3">
+        <v>8403600</v>
+      </c>
+      <c r="K48" s="3">
         <v>8030500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7047800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6056400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4586400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4088500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4186800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3925400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2458,17 +2568,20 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,31 +2677,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G52" s="3">
         <v>18900</v>
       </c>
-      <c r="E52" s="3">
-        <v>13700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>20200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>20200</v>
-      </c>
       <c r="H52" s="3">
-        <v>9000</v>
+        <v>18900</v>
       </c>
       <c r="I52" s="3">
-        <v>198300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>8400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>185200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2599,8 +2718,8 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2608,8 +2727,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>734024600</v>
+        <v>720750300</v>
       </c>
       <c r="E54" s="3">
-        <v>670860200</v>
+        <v>685635600</v>
       </c>
       <c r="F54" s="3">
-        <v>625681400</v>
+        <v>626643400</v>
       </c>
       <c r="G54" s="3">
-        <v>587929600</v>
+        <v>584434600</v>
       </c>
       <c r="H54" s="3">
-        <v>548982700</v>
+        <v>549171500</v>
       </c>
       <c r="I54" s="3">
-        <v>513414600</v>
+        <v>512792200</v>
       </c>
       <c r="J54" s="3">
+        <v>479568800</v>
+      </c>
+      <c r="K54" s="3">
         <v>480091800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>446171100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>439256600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>391678200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>371476300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>363354400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>353149800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,8 +2869,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2787,8 +2917,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2834,55 +2967,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>612458700</v>
+        <v>607211800</v>
       </c>
       <c r="E59" s="3">
-        <v>558062900</v>
+        <v>572083600</v>
       </c>
       <c r="F59" s="3">
-        <v>518431100</v>
+        <v>521273800</v>
       </c>
       <c r="G59" s="3">
-        <v>488099700</v>
+        <v>484254600</v>
       </c>
       <c r="H59" s="3">
-        <v>457566600</v>
+        <v>455922700</v>
       </c>
       <c r="I59" s="3">
-        <v>439070100</v>
+        <v>427402500</v>
       </c>
       <c r="J59" s="3">
+        <v>410125300</v>
+      </c>
+      <c r="K59" s="3">
         <v>406064100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375676900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>370714600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>324942400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>304183500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>293381600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>285046800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2928,102 +3067,111 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8949600</v>
+        <v>8231800</v>
       </c>
       <c r="E61" s="3">
-        <v>9025800</v>
+        <v>8359600</v>
       </c>
       <c r="F61" s="3">
-        <v>9199300</v>
+        <v>8430800</v>
       </c>
       <c r="G61" s="3">
-        <v>9170000</v>
+        <v>8592900</v>
       </c>
       <c r="H61" s="3">
-        <v>9101000</v>
+        <v>8565400</v>
       </c>
       <c r="I61" s="3">
-        <v>3178900</v>
+        <v>8501100</v>
       </c>
       <c r="J61" s="3">
+        <v>2969300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3085300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2893900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3993200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7866800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10107900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10483200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10484000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2249800</v>
+        <v>1102400</v>
       </c>
       <c r="E62" s="3">
-        <v>2411500</v>
+        <v>2101500</v>
       </c>
       <c r="F62" s="3">
-        <v>1601400</v>
+        <v>2252500</v>
       </c>
       <c r="G62" s="3">
-        <v>1629700</v>
+        <v>1495900</v>
       </c>
       <c r="H62" s="3">
-        <v>1311300</v>
+        <v>1522200</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>1224900</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>492400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>750000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1440100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1128100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1649300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2516000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2839200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>659648800</v>
+        <v>650226000</v>
       </c>
       <c r="E66" s="3">
-        <v>599860200</v>
+        <v>616162900</v>
       </c>
       <c r="F66" s="3">
-        <v>560068000</v>
+        <v>560323100</v>
       </c>
       <c r="G66" s="3">
-        <v>524231700</v>
+        <v>523146700</v>
       </c>
       <c r="H66" s="3">
-        <v>490858600</v>
+        <v>489672900</v>
       </c>
       <c r="I66" s="3">
-        <v>463188400</v>
+        <v>458499700</v>
       </c>
       <c r="J66" s="3">
+        <v>432653700</v>
+      </c>
+      <c r="K66" s="3">
         <v>429134000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>396753800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>392109400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>347583300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>328009300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>315493400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>307002100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>69916700</v>
+        <v>66359200</v>
       </c>
       <c r="E72" s="3">
-        <v>66541000</v>
+        <v>65307600</v>
       </c>
       <c r="F72" s="3">
-        <v>59925100</v>
+        <v>62155100</v>
       </c>
       <c r="G72" s="3">
-        <v>58009600</v>
+        <v>55974700</v>
       </c>
       <c r="H72" s="3">
-        <v>52436000</v>
+        <v>54185500</v>
       </c>
       <c r="I72" s="3">
-        <v>44538000</v>
+        <v>48979200</v>
       </c>
       <c r="J72" s="3">
+        <v>41601900</v>
+      </c>
+      <c r="K72" s="3">
         <v>45269500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43865400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41638500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38858500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38293700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42510000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41952800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74375800</v>
+        <v>70524300</v>
       </c>
       <c r="E76" s="3">
-        <v>71000000</v>
+        <v>69472700</v>
       </c>
       <c r="F76" s="3">
-        <v>65613300</v>
+        <v>66320300</v>
       </c>
       <c r="G76" s="3">
-        <v>63697800</v>
+        <v>61287900</v>
       </c>
       <c r="H76" s="3">
-        <v>58124100</v>
+        <v>59498700</v>
       </c>
       <c r="I76" s="3">
-        <v>50226200</v>
+        <v>54292400</v>
       </c>
       <c r="J76" s="3">
+        <v>46915200</v>
+      </c>
+      <c r="K76" s="3">
         <v>50957700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49417300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47147100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44094900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43467000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47861000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46147600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6464200</v>
+        <v>1465600</v>
       </c>
       <c r="E81" s="3">
-        <v>3113100</v>
+        <v>6038100</v>
       </c>
       <c r="F81" s="3">
-        <v>4817200</v>
+        <v>7405900</v>
       </c>
       <c r="G81" s="3">
-        <v>3263700</v>
+        <v>4499600</v>
       </c>
       <c r="H81" s="3">
-        <v>5931600</v>
+        <v>3048600</v>
       </c>
       <c r="I81" s="3">
-        <v>-793200</v>
+        <v>5540600</v>
       </c>
       <c r="J81" s="3">
+        <v>-740900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2590900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3081300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1870300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1268100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1491500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>476400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4673300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,8 +4014,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,8 +4062,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31288100</v>
+        <v>12985500</v>
       </c>
       <c r="E89" s="3">
-        <v>19125600</v>
+        <v>29225500</v>
       </c>
       <c r="F89" s="3">
-        <v>28837300</v>
+        <v>44801000</v>
       </c>
       <c r="G89" s="3">
-        <v>21414700</v>
+        <v>26936200</v>
       </c>
       <c r="H89" s="3">
-        <v>23709800</v>
+        <v>20002900</v>
       </c>
       <c r="I89" s="3">
-        <v>16309200</v>
+        <v>22146700</v>
       </c>
       <c r="J89" s="3">
+        <v>15234100</v>
+      </c>
+      <c r="K89" s="3">
         <v>6968600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8945900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21831000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14853800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1891100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6494300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3702500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,31 +4384,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1100300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4212,8 +4432,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35767800</v>
+        <v>-24610300</v>
       </c>
       <c r="E94" s="3">
-        <v>-32208000</v>
+        <v>-33409900</v>
       </c>
       <c r="F94" s="3">
-        <v>-13983700</v>
+        <v>-43146600</v>
       </c>
       <c r="G94" s="3">
-        <v>-27072700</v>
+        <v>-13061800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11975200</v>
+        <v>-25288000</v>
       </c>
       <c r="I94" s="3">
-        <v>-31252900</v>
+        <v>-11185800</v>
       </c>
       <c r="J94" s="3">
+        <v>-29192600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6352800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3513500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30020400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16515700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1293900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7794600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2155800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4604,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2665600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3255100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31700</v>
+        <v>-3070100</v>
       </c>
       <c r="G96" s="3">
-        <v>-219100</v>
+        <v>-29600</v>
       </c>
       <c r="H96" s="3">
-        <v>-556400</v>
+        <v>-204700</v>
       </c>
       <c r="I96" s="3">
-        <v>-500400</v>
+        <v>-519700</v>
       </c>
       <c r="J96" s="3">
+        <v>-467400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-303600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-793200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-482500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1282000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-469100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1236300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8453400</v>
+        <v>8481300</v>
       </c>
       <c r="E100" s="3">
-        <v>9295500</v>
+        <v>7896100</v>
       </c>
       <c r="F100" s="3">
-        <v>-10519800</v>
+        <v>-1143500</v>
       </c>
       <c r="G100" s="3">
-        <v>5026500</v>
+        <v>-9826300</v>
       </c>
       <c r="H100" s="3">
-        <v>-10717700</v>
+        <v>4695200</v>
       </c>
       <c r="I100" s="3">
-        <v>13804200</v>
+        <v>-10011200</v>
       </c>
       <c r="J100" s="3">
+        <v>12894100</v>
+      </c>
+      <c r="K100" s="3">
         <v>861700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12332400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5270300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>894200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1228500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1652800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6000</v>
+        <v>-4900</v>
       </c>
       <c r="E101" s="3">
-        <v>-40400</v>
+        <v>-5600</v>
       </c>
       <c r="F101" s="3">
-        <v>17700</v>
+        <v>-21200</v>
       </c>
       <c r="G101" s="3">
-        <v>7900</v>
+        <v>16500</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>7400</v>
       </c>
       <c r="I101" s="3">
-        <v>9300</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K101" s="3">
         <v>3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>33500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3967700</v>
+        <v>-3148300</v>
       </c>
       <c r="E102" s="3">
-        <v>-3827300</v>
+        <v>3706100</v>
       </c>
       <c r="F102" s="3">
-        <v>4351500</v>
+        <v>489700</v>
       </c>
       <c r="G102" s="3">
-        <v>-623600</v>
+        <v>4064600</v>
       </c>
       <c r="H102" s="3">
-        <v>1017600</v>
+        <v>-582500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1130200</v>
+        <v>950500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1055700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1480900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2935200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-734100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-573200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4205200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>559600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44641500</v>
+        <v>44238600</v>
       </c>
       <c r="E8" s="3">
-        <v>80268300</v>
+        <v>79550900</v>
       </c>
       <c r="F8" s="3">
-        <v>120345700</v>
+        <v>119259500</v>
       </c>
       <c r="G8" s="3">
-        <v>75020800</v>
+        <v>74343700</v>
       </c>
       <c r="H8" s="3">
-        <v>41890600</v>
+        <v>41512500</v>
       </c>
       <c r="I8" s="3">
-        <v>66545900</v>
+        <v>65945200</v>
       </c>
       <c r="J8" s="3">
-        <v>34285700</v>
+        <v>33976200</v>
       </c>
       <c r="K8" s="3">
         <v>63570700</v>
@@ -1004,25 +1004,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2227600</v>
+        <v>2207500</v>
       </c>
       <c r="E14" s="3">
-        <v>1120500</v>
+        <v>1110400</v>
       </c>
       <c r="F14" s="3">
-        <v>1713600</v>
+        <v>1698200</v>
       </c>
       <c r="G14" s="3">
-        <v>687900</v>
+        <v>681700</v>
       </c>
       <c r="H14" s="3">
-        <v>445200</v>
+        <v>441200</v>
       </c>
       <c r="I14" s="3">
-        <v>496000</v>
+        <v>491500</v>
       </c>
       <c r="J14" s="3">
-        <v>1022200</v>
+        <v>1013000</v>
       </c>
       <c r="K14" s="3">
         <v>200000</v>
@@ -1121,25 +1121,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43882300</v>
+        <v>43486300</v>
       </c>
       <c r="E17" s="3">
-        <v>74283600</v>
+        <v>73621300</v>
       </c>
       <c r="F17" s="3">
-        <v>112895600</v>
+        <v>111876600</v>
       </c>
       <c r="G17" s="3">
-        <v>70111400</v>
+        <v>69478600</v>
       </c>
       <c r="H17" s="3">
-        <v>38813600</v>
+        <v>38463300</v>
       </c>
       <c r="I17" s="3">
-        <v>61365000</v>
+        <v>60811100</v>
       </c>
       <c r="J17" s="3">
-        <v>35633600</v>
+        <v>35312000</v>
       </c>
       <c r="K17" s="3">
         <v>60504000</v>
@@ -1171,25 +1171,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>759200</v>
+        <v>752300</v>
       </c>
       <c r="E18" s="3">
-        <v>5984700</v>
+        <v>5929500</v>
       </c>
       <c r="F18" s="3">
-        <v>7450100</v>
+        <v>7382800</v>
       </c>
       <c r="G18" s="3">
-        <v>4909400</v>
+        <v>4865100</v>
       </c>
       <c r="H18" s="3">
-        <v>3077000</v>
+        <v>3049300</v>
       </c>
       <c r="I18" s="3">
-        <v>5180900</v>
+        <v>5134100</v>
       </c>
       <c r="J18" s="3">
-        <v>-1347900</v>
+        <v>-1335700</v>
       </c>
       <c r="K18" s="3">
         <v>3066700</v>
@@ -1241,25 +1241,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-112000</v>
+        <v>-111000</v>
       </c>
       <c r="E20" s="3">
-        <v>809000</v>
+        <v>801700</v>
       </c>
       <c r="F20" s="3">
-        <v>577500</v>
+        <v>572300</v>
       </c>
       <c r="G20" s="3">
-        <v>331300</v>
+        <v>328300</v>
       </c>
       <c r="H20" s="3">
         <v>3100</v>
       </c>
       <c r="I20" s="3">
-        <v>550400</v>
+        <v>545400</v>
       </c>
       <c r="J20" s="3">
-        <v>238900</v>
+        <v>236700</v>
       </c>
       <c r="K20" s="3">
         <v>316800</v>
@@ -1291,25 +1291,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>642000</v>
+        <v>636300</v>
       </c>
       <c r="E21" s="3">
-        <v>7185900</v>
+        <v>7119800</v>
       </c>
       <c r="F21" s="3">
-        <v>8788300</v>
+        <v>8708900</v>
       </c>
       <c r="G21" s="3">
-        <v>5614900</v>
+        <v>5564200</v>
       </c>
       <c r="H21" s="3">
-        <v>3127100</v>
+        <v>3098900</v>
       </c>
       <c r="I21" s="3">
-        <v>6030400</v>
+        <v>5976000</v>
       </c>
       <c r="J21" s="3">
-        <v>-1092200</v>
+        <v>-1082400</v>
       </c>
       <c r="K21" s="3">
         <v>3582600</v>
@@ -1391,25 +1391,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>647200</v>
+        <v>641400</v>
       </c>
       <c r="E23" s="3">
-        <v>6793700</v>
+        <v>6731300</v>
       </c>
       <c r="F23" s="3">
-        <v>8027600</v>
+        <v>7955100</v>
       </c>
       <c r="G23" s="3">
-        <v>5240700</v>
+        <v>5193400</v>
       </c>
       <c r="H23" s="3">
-        <v>3080100</v>
+        <v>3052300</v>
       </c>
       <c r="I23" s="3">
-        <v>5731300</v>
+        <v>5679500</v>
       </c>
       <c r="J23" s="3">
-        <v>-1109000</v>
+        <v>-1099000</v>
       </c>
       <c r="K23" s="3">
         <v>3383500</v>
@@ -1441,25 +1441,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-926700</v>
+        <v>-918400</v>
       </c>
       <c r="E24" s="3">
-        <v>644300</v>
+        <v>638400</v>
       </c>
       <c r="F24" s="3">
-        <v>457300</v>
+        <v>453100</v>
       </c>
       <c r="G24" s="3">
-        <v>663400</v>
+        <v>657400</v>
       </c>
       <c r="H24" s="3">
-        <v>-27000</v>
+        <v>-26700</v>
       </c>
       <c r="I24" s="3">
-        <v>142100</v>
+        <v>140800</v>
       </c>
       <c r="J24" s="3">
-        <v>-406600</v>
+        <v>-402900</v>
       </c>
       <c r="K24" s="3">
         <v>748400</v>
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1574000</v>
+        <v>1559700</v>
       </c>
       <c r="E26" s="3">
-        <v>6149500</v>
+        <v>6092800</v>
       </c>
       <c r="F26" s="3">
-        <v>7570300</v>
+        <v>7502000</v>
       </c>
       <c r="G26" s="3">
-        <v>4577300</v>
+        <v>4536000</v>
       </c>
       <c r="H26" s="3">
-        <v>3107100</v>
+        <v>3079000</v>
       </c>
       <c r="I26" s="3">
-        <v>5589200</v>
+        <v>5538800</v>
       </c>
       <c r="J26" s="3">
-        <v>-702500</v>
+        <v>-696100</v>
       </c>
       <c r="K26" s="3">
         <v>2635100</v>
@@ -1591,25 +1591,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1465600</v>
+        <v>1452400</v>
       </c>
       <c r="E27" s="3">
-        <v>6038100</v>
+        <v>5982600</v>
       </c>
       <c r="F27" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="G27" s="3">
-        <v>4499600</v>
+        <v>4459000</v>
       </c>
       <c r="H27" s="3">
-        <v>3048600</v>
+        <v>3021100</v>
       </c>
       <c r="I27" s="3">
-        <v>5540600</v>
+        <v>5490600</v>
       </c>
       <c r="J27" s="3">
-        <v>-740900</v>
+        <v>-734200</v>
       </c>
       <c r="K27" s="3">
         <v>2590900</v>
@@ -1841,25 +1841,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>112000</v>
+        <v>111000</v>
       </c>
       <c r="E32" s="3">
-        <v>-809000</v>
+        <v>-801700</v>
       </c>
       <c r="F32" s="3">
-        <v>-577500</v>
+        <v>-572300</v>
       </c>
       <c r="G32" s="3">
-        <v>-331300</v>
+        <v>-328300</v>
       </c>
       <c r="H32" s="3">
         <v>-3100</v>
       </c>
       <c r="I32" s="3">
-        <v>-550400</v>
+        <v>-545400</v>
       </c>
       <c r="J32" s="3">
-        <v>-238900</v>
+        <v>-236700</v>
       </c>
       <c r="K32" s="3">
         <v>-316800</v>
@@ -1891,25 +1891,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1465600</v>
+        <v>1452400</v>
       </c>
       <c r="E33" s="3">
-        <v>6038100</v>
+        <v>5982600</v>
       </c>
       <c r="F33" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="G33" s="3">
-        <v>4499600</v>
+        <v>4459000</v>
       </c>
       <c r="H33" s="3">
-        <v>3048600</v>
+        <v>3021100</v>
       </c>
       <c r="I33" s="3">
-        <v>5540600</v>
+        <v>5490600</v>
       </c>
       <c r="J33" s="3">
-        <v>-740900</v>
+        <v>-734200</v>
       </c>
       <c r="K33" s="3">
         <v>2590900</v>
@@ -1991,25 +1991,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1465600</v>
+        <v>1452400</v>
       </c>
       <c r="E35" s="3">
-        <v>6038100</v>
+        <v>5982600</v>
       </c>
       <c r="F35" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="G35" s="3">
-        <v>4499600</v>
+        <v>4459000</v>
       </c>
       <c r="H35" s="3">
-        <v>3048600</v>
+        <v>3021100</v>
       </c>
       <c r="I35" s="3">
-        <v>5540600</v>
+        <v>5490600</v>
       </c>
       <c r="J35" s="3">
-        <v>-740900</v>
+        <v>-734200</v>
       </c>
       <c r="K35" s="3">
         <v>2590900</v>
@@ -2136,25 +2136,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8906400</v>
+        <v>8826100</v>
       </c>
       <c r="E41" s="3">
-        <v>12051000</v>
+        <v>11942200</v>
       </c>
       <c r="F41" s="3">
-        <v>8348700</v>
+        <v>8273300</v>
       </c>
       <c r="G41" s="3">
-        <v>11919800</v>
+        <v>11812200</v>
       </c>
       <c r="H41" s="3">
-        <v>7780600</v>
+        <v>7710400</v>
       </c>
       <c r="I41" s="3">
-        <v>8260400</v>
+        <v>8185900</v>
       </c>
       <c r="J41" s="3">
-        <v>7484700</v>
+        <v>7417200</v>
       </c>
       <c r="K41" s="3">
         <v>9052100</v>
@@ -2236,25 +2236,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3000400</v>
+        <v>2973300</v>
       </c>
       <c r="E43" s="3">
-        <v>7451400</v>
+        <v>7384200</v>
       </c>
       <c r="F43" s="3">
-        <v>3054800</v>
+        <v>3027200</v>
       </c>
       <c r="G43" s="3">
-        <v>7131500</v>
+        <v>7067100</v>
       </c>
       <c r="H43" s="3">
-        <v>2546500</v>
+        <v>2523500</v>
       </c>
       <c r="I43" s="3">
-        <v>6146400</v>
+        <v>6090900</v>
       </c>
       <c r="J43" s="3">
-        <v>2305900</v>
+        <v>2285100</v>
       </c>
       <c r="K43" s="3">
         <v>5958400</v>
@@ -2436,25 +2436,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>683198400</v>
+        <v>677032200</v>
       </c>
       <c r="E47" s="3">
-        <v>641869200</v>
+        <v>636076000</v>
       </c>
       <c r="F47" s="3">
-        <v>592134600</v>
+        <v>586790300</v>
       </c>
       <c r="G47" s="3">
-        <v>542336700</v>
+        <v>537441800</v>
       </c>
       <c r="H47" s="3">
-        <v>515974000</v>
+        <v>511317000</v>
       </c>
       <c r="I47" s="3">
-        <v>476259700</v>
+        <v>471961200</v>
       </c>
       <c r="J47" s="3">
-        <v>447553200</v>
+        <v>443513800</v>
       </c>
       <c r="K47" s="3">
         <v>443668100</v>
@@ -2486,25 +2486,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10357900</v>
+        <v>10264400</v>
       </c>
       <c r="E48" s="3">
-        <v>10239300</v>
+        <v>10146900</v>
       </c>
       <c r="F48" s="3">
-        <v>10321100</v>
+        <v>10227900</v>
       </c>
       <c r="G48" s="3">
-        <v>10027000</v>
+        <v>9936500</v>
       </c>
       <c r="H48" s="3">
-        <v>9934900</v>
+        <v>9845200</v>
       </c>
       <c r="I48" s="3">
-        <v>8974700</v>
+        <v>8893700</v>
       </c>
       <c r="J48" s="3">
-        <v>8403600</v>
+        <v>8327800</v>
       </c>
       <c r="K48" s="3">
         <v>8030500</v>
@@ -2686,25 +2686,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="E52" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="F52" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="H52" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I52" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="J52" s="3">
-        <v>185200</v>
+        <v>183600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2786,25 +2786,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>720750300</v>
+        <v>714245100</v>
       </c>
       <c r="E54" s="3">
-        <v>685635600</v>
+        <v>679447400</v>
       </c>
       <c r="F54" s="3">
-        <v>626643400</v>
+        <v>620987600</v>
       </c>
       <c r="G54" s="3">
-        <v>584434600</v>
+        <v>579159800</v>
       </c>
       <c r="H54" s="3">
-        <v>549171500</v>
+        <v>544215000</v>
       </c>
       <c r="I54" s="3">
-        <v>512792200</v>
+        <v>508164000</v>
       </c>
       <c r="J54" s="3">
-        <v>479568800</v>
+        <v>475240500</v>
       </c>
       <c r="K54" s="3">
         <v>480091800</v>
@@ -2976,25 +2976,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>607211800</v>
+        <v>601731400</v>
       </c>
       <c r="E59" s="3">
-        <v>572083600</v>
+        <v>566920300</v>
       </c>
       <c r="F59" s="3">
-        <v>521273800</v>
+        <v>516569000</v>
       </c>
       <c r="G59" s="3">
-        <v>484254600</v>
+        <v>479883900</v>
       </c>
       <c r="H59" s="3">
-        <v>455922700</v>
+        <v>451807800</v>
       </c>
       <c r="I59" s="3">
-        <v>427402500</v>
+        <v>423545000</v>
       </c>
       <c r="J59" s="3">
-        <v>410125300</v>
+        <v>406423700</v>
       </c>
       <c r="K59" s="3">
         <v>406064100</v>
@@ -3076,25 +3076,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8231800</v>
+        <v>8157500</v>
       </c>
       <c r="E61" s="3">
-        <v>8359600</v>
+        <v>8284100</v>
       </c>
       <c r="F61" s="3">
-        <v>8430800</v>
+        <v>8354700</v>
       </c>
       <c r="G61" s="3">
-        <v>8592900</v>
+        <v>8515300</v>
       </c>
       <c r="H61" s="3">
-        <v>8565400</v>
+        <v>8488100</v>
       </c>
       <c r="I61" s="3">
-        <v>8501100</v>
+        <v>8424300</v>
       </c>
       <c r="J61" s="3">
-        <v>2969300</v>
+        <v>2942500</v>
       </c>
       <c r="K61" s="3">
         <v>3085300</v>
@@ -3126,22 +3126,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1102400</v>
+        <v>1092500</v>
       </c>
       <c r="E62" s="3">
-        <v>2101500</v>
+        <v>2082500</v>
       </c>
       <c r="F62" s="3">
-        <v>2252500</v>
+        <v>2232200</v>
       </c>
       <c r="G62" s="3">
-        <v>1495900</v>
+        <v>1482400</v>
       </c>
       <c r="H62" s="3">
-        <v>1522200</v>
+        <v>1508500</v>
       </c>
       <c r="I62" s="3">
-        <v>1224900</v>
+        <v>1213800</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3326,25 +3326,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>650226000</v>
+        <v>644357400</v>
       </c>
       <c r="E66" s="3">
-        <v>616162900</v>
+        <v>610601700</v>
       </c>
       <c r="F66" s="3">
-        <v>560323100</v>
+        <v>555265900</v>
       </c>
       <c r="G66" s="3">
-        <v>523146700</v>
+        <v>518425000</v>
       </c>
       <c r="H66" s="3">
-        <v>489672900</v>
+        <v>485253300</v>
       </c>
       <c r="I66" s="3">
-        <v>458499700</v>
+        <v>454361500</v>
       </c>
       <c r="J66" s="3">
-        <v>432653700</v>
+        <v>428748800</v>
       </c>
       <c r="K66" s="3">
         <v>429134000</v>
@@ -3596,25 +3596,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66359200</v>
+        <v>65760200</v>
       </c>
       <c r="E72" s="3">
-        <v>65307600</v>
+        <v>64718200</v>
       </c>
       <c r="F72" s="3">
-        <v>62155100</v>
+        <v>61594100</v>
       </c>
       <c r="G72" s="3">
-        <v>55974700</v>
+        <v>55469500</v>
       </c>
       <c r="H72" s="3">
-        <v>54185500</v>
+        <v>53696400</v>
       </c>
       <c r="I72" s="3">
-        <v>48979200</v>
+        <v>48537200</v>
       </c>
       <c r="J72" s="3">
-        <v>41601900</v>
+        <v>41226500</v>
       </c>
       <c r="K72" s="3">
         <v>45269500</v>
@@ -3796,25 +3796,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70524300</v>
+        <v>69887800</v>
       </c>
       <c r="E76" s="3">
-        <v>69472700</v>
+        <v>68845700</v>
       </c>
       <c r="F76" s="3">
-        <v>66320300</v>
+        <v>65721700</v>
       </c>
       <c r="G76" s="3">
-        <v>61287900</v>
+        <v>60734800</v>
       </c>
       <c r="H76" s="3">
-        <v>59498700</v>
+        <v>58961700</v>
       </c>
       <c r="I76" s="3">
-        <v>54292400</v>
+        <v>53802400</v>
       </c>
       <c r="J76" s="3">
-        <v>46915200</v>
+        <v>46491700</v>
       </c>
       <c r="K76" s="3">
         <v>50957700</v>
@@ -3951,25 +3951,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1465600</v>
+        <v>1452400</v>
       </c>
       <c r="E81" s="3">
-        <v>6038100</v>
+        <v>5982600</v>
       </c>
       <c r="F81" s="3">
-        <v>7405900</v>
+        <v>7339000</v>
       </c>
       <c r="G81" s="3">
-        <v>4499600</v>
+        <v>4459000</v>
       </c>
       <c r="H81" s="3">
-        <v>3048600</v>
+        <v>3021100</v>
       </c>
       <c r="I81" s="3">
-        <v>5540600</v>
+        <v>5490600</v>
       </c>
       <c r="J81" s="3">
-        <v>-740900</v>
+        <v>-734200</v>
       </c>
       <c r="K81" s="3">
         <v>2590900</v>
@@ -4321,25 +4321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12985500</v>
+        <v>12868300</v>
       </c>
       <c r="E89" s="3">
-        <v>29225500</v>
+        <v>28961700</v>
       </c>
       <c r="F89" s="3">
-        <v>44801000</v>
+        <v>44396600</v>
       </c>
       <c r="G89" s="3">
-        <v>26936200</v>
+        <v>26693100</v>
       </c>
       <c r="H89" s="3">
-        <v>20002900</v>
+        <v>19822400</v>
       </c>
       <c r="I89" s="3">
-        <v>22146700</v>
+        <v>21946800</v>
       </c>
       <c r="J89" s="3">
-        <v>15234100</v>
+        <v>15096600</v>
       </c>
       <c r="K89" s="3">
         <v>6968600</v>
@@ -4397,7 +4397,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-1100300</v>
+        <v>-1090400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -4541,25 +4541,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24610300</v>
+        <v>-24388200</v>
       </c>
       <c r="E94" s="3">
-        <v>-33409900</v>
+        <v>-33108400</v>
       </c>
       <c r="F94" s="3">
-        <v>-43146600</v>
+        <v>-42757100</v>
       </c>
       <c r="G94" s="3">
-        <v>-13061800</v>
+        <v>-12944000</v>
       </c>
       <c r="H94" s="3">
-        <v>-25288000</v>
+        <v>-25059800</v>
       </c>
       <c r="I94" s="3">
-        <v>-11185800</v>
+        <v>-11084800</v>
       </c>
       <c r="J94" s="3">
-        <v>-29192600</v>
+        <v>-28929100</v>
       </c>
       <c r="K94" s="3">
         <v>-6352800</v>
@@ -4611,25 +4611,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2665600</v>
+        <v>-2641500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3070100</v>
+        <v>-3042400</v>
       </c>
       <c r="G96" s="3">
-        <v>-29600</v>
+        <v>-29400</v>
       </c>
       <c r="H96" s="3">
-        <v>-204700</v>
+        <v>-202800</v>
       </c>
       <c r="I96" s="3">
-        <v>-519700</v>
+        <v>-515000</v>
       </c>
       <c r="J96" s="3">
-        <v>-467400</v>
+        <v>-463200</v>
       </c>
       <c r="K96" s="3">
         <v>-1343800</v>
@@ -4811,25 +4811,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8481300</v>
+        <v>8404800</v>
       </c>
       <c r="E100" s="3">
-        <v>7896100</v>
+        <v>7824900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1143500</v>
+        <v>-1133200</v>
       </c>
       <c r="G100" s="3">
-        <v>-9826300</v>
+        <v>-9737600</v>
       </c>
       <c r="H100" s="3">
-        <v>4695200</v>
+        <v>4652800</v>
       </c>
       <c r="I100" s="3">
-        <v>-10011200</v>
+        <v>-9920800</v>
       </c>
       <c r="J100" s="3">
-        <v>12894100</v>
+        <v>12777800</v>
       </c>
       <c r="K100" s="3">
         <v>861700</v>
@@ -4861,25 +4861,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F101" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G101" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="H101" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="K101" s="3">
         <v>3500</v>
@@ -4911,25 +4911,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3148300</v>
+        <v>-3119900</v>
       </c>
       <c r="E102" s="3">
-        <v>3706100</v>
+        <v>3672700</v>
       </c>
       <c r="F102" s="3">
-        <v>489700</v>
+        <v>485300</v>
       </c>
       <c r="G102" s="3">
-        <v>4064600</v>
+        <v>4027900</v>
       </c>
       <c r="H102" s="3">
-        <v>-582500</v>
+        <v>-577300</v>
       </c>
       <c r="I102" s="3">
-        <v>950500</v>
+        <v>941900</v>
       </c>
       <c r="J102" s="3">
-        <v>-1055700</v>
+        <v>-1046200</v>
       </c>
       <c r="K102" s="3">
         <v>1480900</v>
